--- a/Bellabeat Case Study/Working Files/weightLogInfo_merged.xlsx
+++ b/Bellabeat Case Study/Working Files/weightLogInfo_merged.xlsx
@@ -1,12 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal-Projects\Bellabeat Case Study\Working Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A11214-4185-4DA7-88DF-E46CF30CEE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="weightLogInfo_merged.csv" sheetId="1" r:id="rId4"/>
+    <sheet name="weightLogInfo_merged.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -247,24 +269,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="165" formatCode="M/d/yyyy H:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -274,48 +297,51 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="21" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -505,32 +531,37 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="24.63"/>
-    <col customWidth="1" min="2" max="2" width="10.25"/>
-    <col customWidth="1" min="3" max="3" width="8.38"/>
-    <col customWidth="1" min="4" max="4" width="7.5"/>
-    <col customWidth="1" min="5" max="5" width="10.75"/>
-    <col customWidth="1" min="6" max="6" width="11.75"/>
-    <col customWidth="1" min="7" max="7" width="3.38"/>
-    <col customWidth="1" min="8" max="8" width="10.75"/>
-    <col customWidth="1" min="9" max="9" width="12.75"/>
-    <col customWidth="1" min="10" max="10" width="13.0"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,230 +593,230 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>1.503960366E9</v>
+        <v>1503960366</v>
       </c>
       <c r="C2" s="3">
-        <v>42492.0</v>
+        <v>42492</v>
       </c>
       <c r="D2" s="4">
-        <v>0.999988425925926</v>
+        <v>0.99998842592592596</v>
       </c>
       <c r="E2" s="1">
-        <v>52.5999984741211</v>
+        <v>52.599998474121101</v>
       </c>
       <c r="F2" s="1">
         <v>115.963146545323</v>
       </c>
       <c r="G2" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1">
-        <v>22.6499996185303</v>
+        <v>22.649999618530298</v>
       </c>
       <c r="I2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J2" s="1">
-        <v>1.462233599E12</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1462233599000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1">
-        <v>1.503960366E9</v>
+        <v>1503960366</v>
       </c>
       <c r="C3" s="3">
-        <v>42493.0</v>
+        <v>42493</v>
       </c>
       <c r="D3" s="4">
-        <v>0.999988425925926</v>
+        <v>0.99998842592592596</v>
       </c>
       <c r="E3" s="1">
-        <v>52.5999984741211</v>
+        <v>52.599998474121101</v>
       </c>
       <c r="F3" s="1">
         <v>115.963146545323</v>
       </c>
       <c r="H3" s="1">
-        <v>22.6499996185303</v>
+        <v>22.649999618530298</v>
       </c>
       <c r="I3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J3" s="1">
-        <v>1.462319999E12</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1462319999000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1">
-        <v>1.927972279E9</v>
+        <v>1927972279</v>
       </c>
       <c r="C4" s="3">
-        <v>42473.0</v>
+        <v>42473</v>
       </c>
       <c r="D4" s="4">
-        <v>0.047824074074074074</v>
+        <v>4.7824074074074074E-2</v>
       </c>
       <c r="E4" s="1">
         <v>133.5</v>
       </c>
       <c r="F4" s="1">
-        <v>294.317120016975</v>
+        <v>294.31712001697503</v>
       </c>
       <c r="H4" s="1">
-        <v>47.5400009155273</v>
+        <v>47.540000915527301</v>
       </c>
       <c r="I4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>1.460509732E12</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1460509732000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1">
-        <v>2.873212765E9</v>
+        <v>2873212765</v>
       </c>
       <c r="C5" s="3">
-        <v>42481.0</v>
+        <v>42481</v>
       </c>
       <c r="D5" s="4">
-        <v>0.999988425925926</v>
+        <v>0.99998842592592596</v>
       </c>
       <c r="E5" s="1">
-        <v>56.7000007629395</v>
+        <v>56.700000762939503</v>
       </c>
       <c r="F5" s="1">
-        <v>125.002104340889</v>
+        <v>125.00210434088901</v>
       </c>
       <c r="H5" s="1">
-        <v>21.4500007629395</v>
+        <v>21.450000762939499</v>
       </c>
       <c r="I5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J5" s="1">
-        <v>1.461283199E12</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1461283199000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="1">
-        <v>2.873212765E9</v>
+        <v>2873212765</v>
       </c>
       <c r="C6" s="3">
-        <v>42502.0</v>
+        <v>42502</v>
       </c>
       <c r="D6" s="4">
-        <v>0.999988425925926</v>
+        <v>0.99998842592592596</v>
       </c>
       <c r="E6" s="1">
-        <v>57.2999992370605</v>
+        <v>57.299999237060497</v>
       </c>
       <c r="F6" s="1">
         <v>126.324874550011</v>
       </c>
       <c r="H6" s="1">
-        <v>21.6900005340576</v>
+        <v>21.690000534057599</v>
       </c>
       <c r="I6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J6" s="1">
-        <v>1.463097599E12</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>1463097599000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="1">
-        <v>4.319703577E9</v>
+        <v>4319703577</v>
       </c>
       <c r="C7" s="3">
-        <v>42477.0</v>
+        <v>42477</v>
       </c>
       <c r="D7" s="4">
-        <v>0.999988425925926</v>
+        <v>0.99998842592592596</v>
       </c>
       <c r="E7" s="1">
-        <v>72.4000015258789</v>
+        <v>72.400001525878906</v>
       </c>
       <c r="F7" s="1">
         <v>159.614681185927</v>
       </c>
       <c r="G7" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="H7" s="1">
-        <v>27.4500007629395</v>
+        <v>27.450000762939499</v>
       </c>
       <c r="I7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J7" s="1">
-        <v>1.460937599E12</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>1460937599000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="1">
-        <v>4.319703577E9</v>
+        <v>4319703577</v>
       </c>
       <c r="C8" s="3">
-        <v>42494.0</v>
+        <v>42494</v>
       </c>
       <c r="D8" s="4">
-        <v>0.999988425925926</v>
+        <v>0.99998842592592596</v>
       </c>
       <c r="E8" s="1">
-        <v>72.3000030517578</v>
+        <v>72.300003051757798</v>
       </c>
       <c r="F8" s="1">
-        <v>159.394222287729</v>
+        <v>159.39422228772901</v>
       </c>
       <c r="H8" s="1">
-        <v>27.3799991607666</v>
+        <v>27.379999160766602</v>
       </c>
       <c r="I8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J8" s="1">
-        <v>1.462406399E12</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>1462406399000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="1">
-        <v>4.558609924E9</v>
+        <v>4558609924</v>
       </c>
       <c r="C9" s="3">
-        <v>42478.0</v>
+        <v>42478</v>
       </c>
       <c r="D9" s="4">
-        <v>0.999988425925926</v>
+        <v>0.99998842592592596</v>
       </c>
       <c r="E9" s="1">
-        <v>69.6999969482422</v>
+        <v>69.699996948242202</v>
       </c>
       <c r="F9" s="1">
         <v>153.662190014971</v>
@@ -797,201 +828,201 @@
         <v>1</v>
       </c>
       <c r="J9" s="1">
-        <v>1.461023999E12</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>1461023999000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="1">
-        <v>4.558609924E9</v>
+        <v>4558609924</v>
       </c>
       <c r="C10" s="3">
-        <v>42485.0</v>
+        <v>42485</v>
       </c>
       <c r="D10" s="4">
-        <v>0.999988425925926</v>
+        <v>0.99998842592592596</v>
       </c>
       <c r="E10" s="1">
-        <v>70.3000030517578</v>
+        <v>70.300003051757798</v>
       </c>
       <c r="F10" s="1">
-        <v>154.984977044029</v>
+        <v>154.98497704402899</v>
       </c>
       <c r="H10" s="1">
-        <v>27.4599990844727</v>
+        <v>27.459999084472699</v>
       </c>
       <c r="I10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J10" s="1">
-        <v>1.461628799E12</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>1461628799000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="1">
-        <v>4.558609924E9</v>
+        <v>4558609924</v>
       </c>
       <c r="C11" s="3">
-        <v>42491.0</v>
+        <v>42491</v>
       </c>
       <c r="D11" s="4">
-        <v>0.999988425925926</v>
+        <v>0.99998842592592596</v>
       </c>
       <c r="E11" s="1">
-        <v>69.9000015258789</v>
+        <v>69.900001525878906</v>
       </c>
       <c r="F11" s="1">
-        <v>154.103124631302</v>
+        <v>154.10312463130199</v>
       </c>
       <c r="H11" s="1">
-        <v>27.3199996948242</v>
+        <v>27.319999694824201</v>
       </c>
       <c r="I11" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J11" s="1">
-        <v>1.462147199E12</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1462147199000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="1">
-        <v>4.558609924E9</v>
+        <v>4558609924</v>
       </c>
       <c r="C12" s="3">
-        <v>42492.0</v>
+        <v>42492</v>
       </c>
       <c r="D12" s="4">
-        <v>0.999988425925926</v>
+        <v>0.99998842592592596</v>
       </c>
       <c r="E12" s="1">
-        <v>69.1999969482422</v>
+        <v>69.199996948242202</v>
       </c>
       <c r="F12" s="1">
-        <v>152.559878704046</v>
+        <v>152.55987870404601</v>
       </c>
       <c r="H12" s="1">
-        <v>27.0400009155273</v>
+        <v>27.040000915527301</v>
       </c>
       <c r="I12" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J12" s="1">
-        <v>1.462233599E12</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1462233599000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="1">
-        <v>4.558609924E9</v>
+        <v>4558609924</v>
       </c>
       <c r="C13" s="3">
-        <v>42499.0</v>
+        <v>42499</v>
       </c>
       <c r="D13" s="4">
-        <v>0.999988425925926</v>
+        <v>0.99998842592592596</v>
       </c>
       <c r="E13" s="1">
-        <v>69.0999984741211</v>
+        <v>69.099998474121094</v>
       </c>
       <c r="F13" s="1">
         <v>152.339419805848</v>
       </c>
       <c r="H13" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="I13" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J13" s="1">
-        <v>1.462838399E12</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>1462838399000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="1">
-        <v>5.577150313E9</v>
+        <v>5577150313</v>
       </c>
       <c r="C14" s="3">
-        <v>42477.0</v>
+        <v>42477</v>
       </c>
       <c r="D14" s="4">
         <v>0.38744212962962965</v>
       </c>
       <c r="E14" s="1">
-        <v>90.6999969482422</v>
+        <v>90.699996948242202</v>
       </c>
       <c r="F14" s="1">
         <v>199.959265073821</v>
       </c>
       <c r="H14" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="I14" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>1.460884675E12</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>1460884675000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="1">
-        <v>6.962181067E9</v>
+        <v>6962181067</v>
       </c>
       <c r="C15" s="3">
-        <v>42472.0</v>
+        <v>42472</v>
       </c>
       <c r="D15" s="4">
-        <v>0.999988425925926</v>
+        <v>0.99998842592592596</v>
       </c>
       <c r="E15" s="1">
         <v>62.5</v>
       </c>
       <c r="F15" s="1">
-        <v>137.788913865625</v>
+        <v>137.78891386562501</v>
       </c>
       <c r="H15" s="1">
-        <v>24.3899993896484</v>
+        <v>24.389999389648398</v>
       </c>
       <c r="I15" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J15" s="1">
-        <v>1.460505599E12</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>1460505599000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="1">
-        <v>6.962181067E9</v>
+        <v>6962181067</v>
       </c>
       <c r="C16" s="3">
-        <v>42473.0</v>
+        <v>42473</v>
       </c>
       <c r="D16" s="4">
-        <v>0.999988425925926</v>
+        <v>0.99998842592592596</v>
       </c>
       <c r="E16" s="1">
-        <v>62.0999984741211</v>
+        <v>62.099998474121101</v>
       </c>
       <c r="F16" s="1">
-        <v>136.907061452898</v>
+        <v>136.90706145289801</v>
       </c>
       <c r="H16" s="1">
         <v>24.2399997711182</v>
@@ -1000,50 +1031,50 @@
         <v>1</v>
       </c>
       <c r="J16" s="1">
-        <v>1.460591999E12</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>1460591999000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="1">
-        <v>6.962181067E9</v>
+        <v>6962181067</v>
       </c>
       <c r="C17" s="3">
-        <v>42474.0</v>
+        <v>42474</v>
       </c>
       <c r="D17" s="4">
-        <v>0.999988425925926</v>
+        <v>0.99998842592592596</v>
       </c>
       <c r="E17" s="1">
-        <v>61.7000007629395</v>
+        <v>61.700000762939503</v>
       </c>
       <c r="F17" s="1">
         <v>136.025217450139</v>
       </c>
       <c r="H17" s="1">
-        <v>24.1000003814697</v>
+        <v>24.100000381469702</v>
       </c>
       <c r="I17" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J17" s="1">
-        <v>1.460678399E12</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>1460678399000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="1">
-        <v>6.962181067E9</v>
+        <v>6962181067</v>
       </c>
       <c r="C18" s="3">
-        <v>42475.0</v>
+        <v>42475</v>
       </c>
       <c r="D18" s="4">
-        <v>0.999988425925926</v>
+        <v>0.99998842592592596</v>
       </c>
       <c r="E18" s="1">
         <v>61.5</v>
@@ -1052,230 +1083,230 @@
         <v>135.584291243775</v>
       </c>
       <c r="H18" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="I18" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J18" s="1">
-        <v>1.460764799E12</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>1460764799000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="1">
-        <v>6.962181067E9</v>
+        <v>6962181067</v>
       </c>
       <c r="C19" s="3">
-        <v>42476.0</v>
+        <v>42476</v>
       </c>
       <c r="D19" s="4">
-        <v>0.999988425925926</v>
+        <v>0.99998842592592596</v>
       </c>
       <c r="E19" s="1">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="F19" s="1">
-        <v>136.6866025547</v>
+        <v>136.68660255469999</v>
       </c>
       <c r="H19" s="1">
-        <v>24.2099990844727</v>
+        <v>24.209999084472699</v>
       </c>
       <c r="I19" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J19" s="1">
-        <v>1.460851199E12</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>1460851199000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="1">
-        <v>6.962181067E9</v>
+        <v>6962181067</v>
       </c>
       <c r="C20" s="3">
-        <v>42477.0</v>
+        <v>42477</v>
       </c>
       <c r="D20" s="4">
-        <v>0.999988425925926</v>
+        <v>0.99998842592592596</v>
       </c>
       <c r="E20" s="1">
-        <v>61.4000015258789</v>
+        <v>61.400001525878899</v>
       </c>
       <c r="F20" s="1">
-        <v>135.363832345577</v>
+        <v>135.36383234557701</v>
       </c>
       <c r="H20" s="1">
-        <v>23.9599990844727</v>
+        <v>23.959999084472699</v>
       </c>
       <c r="I20" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J20" s="1">
-        <v>1.460937599E12</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>1460937599000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="1">
-        <v>6.962181067E9</v>
+        <v>6962181067</v>
       </c>
       <c r="C21" s="3">
-        <v>42478.0</v>
+        <v>42478</v>
       </c>
       <c r="D21" s="4">
-        <v>0.999988425925926</v>
+        <v>0.99998842592592596</v>
       </c>
       <c r="E21" s="1">
-        <v>61.2000007629395</v>
+        <v>61.200000762939503</v>
       </c>
       <c r="F21" s="1">
-        <v>134.922906139214</v>
+        <v>134.92290613921401</v>
       </c>
       <c r="H21" s="1">
-        <v>23.8899993896484</v>
+        <v>23.889999389648398</v>
       </c>
       <c r="I21" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J21" s="1">
-        <v>1.461023999E12</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>1461023999000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="1">
-        <v>6.962181067E9</v>
+        <v>6962181067</v>
       </c>
       <c r="C22" s="3">
-        <v>42479.0</v>
+        <v>42479</v>
       </c>
       <c r="D22" s="4">
-        <v>0.999988425925926</v>
+        <v>0.99998842592592596</v>
       </c>
       <c r="E22" s="1">
-        <v>61.4000015258789</v>
+        <v>61.400001525878899</v>
       </c>
       <c r="F22" s="1">
-        <v>135.363832345577</v>
+        <v>135.36383234557701</v>
       </c>
       <c r="H22" s="1">
-        <v>23.9599990844727</v>
+        <v>23.959999084472699</v>
       </c>
       <c r="I22" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J22" s="1">
-        <v>1.461110399E12</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>1461110399000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="1">
-        <v>6.962181067E9</v>
+        <v>6962181067</v>
       </c>
       <c r="C23" s="3">
-        <v>42480.0</v>
+        <v>42480</v>
       </c>
       <c r="D23" s="4">
-        <v>0.999988425925926</v>
+        <v>0.99998842592592596</v>
       </c>
       <c r="E23" s="1">
-        <v>61.7000007629395</v>
+        <v>61.700000762939503</v>
       </c>
       <c r="F23" s="1">
         <v>136.025217450139</v>
       </c>
       <c r="H23" s="1">
-        <v>24.1000003814697</v>
+        <v>24.100000381469702</v>
       </c>
       <c r="I23" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J23" s="1">
-        <v>1.461196799E12</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>1461196799000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="1">
-        <v>6.962181067E9</v>
+        <v>6962181067</v>
       </c>
       <c r="C24" s="3">
-        <v>42481.0</v>
+        <v>42481</v>
       </c>
       <c r="D24" s="4">
-        <v>0.999988425925926</v>
+        <v>0.99998842592592596</v>
       </c>
       <c r="E24" s="1">
-        <v>61.4000015258789</v>
+        <v>61.400001525878899</v>
       </c>
       <c r="F24" s="1">
-        <v>135.363832345577</v>
+        <v>135.36383234557701</v>
       </c>
       <c r="H24" s="1">
-        <v>23.9599990844727</v>
+        <v>23.959999084472699</v>
       </c>
       <c r="I24" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J24" s="1">
-        <v>1.461283199E12</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>1461283199000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="1">
-        <v>6.962181067E9</v>
+        <v>6962181067</v>
       </c>
       <c r="C25" s="3">
-        <v>42482.0</v>
+        <v>42482</v>
       </c>
       <c r="D25" s="4">
-        <v>0.999988425925926</v>
+        <v>0.99998842592592596</v>
       </c>
       <c r="E25" s="1">
-        <v>61.4000015258789</v>
+        <v>61.400001525878899</v>
       </c>
       <c r="F25" s="1">
-        <v>135.363832345577</v>
+        <v>135.36383234557701</v>
       </c>
       <c r="H25" s="1">
-        <v>23.9599990844727</v>
+        <v>23.959999084472699</v>
       </c>
       <c r="I25" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J25" s="1">
-        <v>1.461369599E12</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>1461369599000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B26" s="1">
-        <v>6.962181067E9</v>
+        <v>6962181067</v>
       </c>
       <c r="C26" s="3">
-        <v>42483.0</v>
+        <v>42483</v>
       </c>
       <c r="D26" s="4">
-        <v>0.999988425925926</v>
+        <v>0.99998842592592596</v>
       </c>
       <c r="E26" s="1">
         <v>61.5</v>
@@ -1284,27 +1315,27 @@
         <v>135.584291243775</v>
       </c>
       <c r="H26" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="I26" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J26" s="1">
-        <v>1.461455999E12</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>1461455999000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B27" s="1">
-        <v>6.962181067E9</v>
+        <v>6962181067</v>
       </c>
       <c r="C27" s="3">
-        <v>42484.0</v>
+        <v>42484</v>
       </c>
       <c r="D27" s="4">
-        <v>0.999988425925926</v>
+        <v>0.99998842592592596</v>
       </c>
       <c r="E27" s="1">
         <v>61.5</v>
@@ -1313,201 +1344,201 @@
         <v>135.584291243775</v>
       </c>
       <c r="H27" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="I27" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J27" s="1">
-        <v>1.461542399E12</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>1461542399000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B28" s="1">
-        <v>6.962181067E9</v>
+        <v>6962181067</v>
       </c>
       <c r="C28" s="3">
-        <v>42485.0</v>
+        <v>42485</v>
       </c>
       <c r="D28" s="4">
-        <v>0.999988425925926</v>
+        <v>0.99998842592592596</v>
       </c>
       <c r="E28" s="1">
-        <v>61.7000007629395</v>
+        <v>61.700000762939503</v>
       </c>
       <c r="F28" s="1">
         <v>136.025217450139</v>
       </c>
       <c r="H28" s="1">
-        <v>24.1000003814697</v>
+        <v>24.100000381469702</v>
       </c>
       <c r="I28" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J28" s="1">
-        <v>1.461628799E12</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>1461628799000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B29" s="1">
-        <v>6.962181067E9</v>
+        <v>6962181067</v>
       </c>
       <c r="C29" s="3">
-        <v>42487.0</v>
+        <v>42487</v>
       </c>
       <c r="D29" s="4">
-        <v>0.999988425925926</v>
+        <v>0.99998842592592596</v>
       </c>
       <c r="E29" s="1">
-        <v>61.2000007629395</v>
+        <v>61.200000762939503</v>
       </c>
       <c r="F29" s="1">
-        <v>134.922906139214</v>
+        <v>134.92290613921401</v>
       </c>
       <c r="H29" s="1">
-        <v>23.8899993896484</v>
+        <v>23.889999389648398</v>
       </c>
       <c r="I29" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J29" s="1">
-        <v>1.461801599E12</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>1461801599000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B30" s="1">
-        <v>6.962181067E9</v>
+        <v>6962181067</v>
       </c>
       <c r="C30" s="3">
-        <v>42488.0</v>
+        <v>42488</v>
       </c>
       <c r="D30" s="4">
-        <v>0.999988425925926</v>
+        <v>0.99998842592592596</v>
       </c>
       <c r="E30" s="1">
-        <v>61.2000007629395</v>
+        <v>61.200000762939503</v>
       </c>
       <c r="F30" s="1">
-        <v>134.922906139214</v>
+        <v>134.92290613921401</v>
       </c>
       <c r="H30" s="1">
-        <v>23.8899993896484</v>
+        <v>23.889999389648398</v>
       </c>
       <c r="I30" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J30" s="1">
-        <v>1.461887999E12</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>1461887999000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B31" s="1">
-        <v>6.962181067E9</v>
+        <v>6962181067</v>
       </c>
       <c r="C31" s="3">
-        <v>42489.0</v>
+        <v>42489</v>
       </c>
       <c r="D31" s="4">
-        <v>0.999988425925926</v>
+        <v>0.99998842592592596</v>
       </c>
       <c r="E31" s="1">
-        <v>61.4000015258789</v>
+        <v>61.400001525878899</v>
       </c>
       <c r="F31" s="1">
-        <v>135.363832345577</v>
+        <v>135.36383234557701</v>
       </c>
       <c r="H31" s="1">
-        <v>23.9599990844727</v>
+        <v>23.959999084472699</v>
       </c>
       <c r="I31" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J31" s="1">
-        <v>1.461974399E12</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>1461974399000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B32" s="1">
-        <v>6.962181067E9</v>
+        <v>6962181067</v>
       </c>
       <c r="C32" s="3">
-        <v>42490.0</v>
+        <v>42490</v>
       </c>
       <c r="D32" s="4">
-        <v>0.999988425925926</v>
+        <v>0.99998842592592596</v>
       </c>
       <c r="E32" s="1">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="F32" s="1">
-        <v>134.48197993285</v>
+        <v>134.48197993285001</v>
       </c>
       <c r="H32" s="1">
-        <v>23.8199996948242</v>
+        <v>23.819999694824201</v>
       </c>
       <c r="I32" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J32" s="1">
-        <v>1.462060799E12</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>1462060799000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B33" s="1">
-        <v>6.962181067E9</v>
+        <v>6962181067</v>
       </c>
       <c r="C33" s="3">
-        <v>42491.0</v>
+        <v>42491</v>
       </c>
       <c r="D33" s="4">
-        <v>0.999988425925926</v>
+        <v>0.99998842592592596</v>
       </c>
       <c r="E33" s="1">
-        <v>61.7000007629395</v>
+        <v>61.700000762939503</v>
       </c>
       <c r="F33" s="1">
         <v>136.025217450139</v>
       </c>
       <c r="H33" s="1">
-        <v>24.1000003814697</v>
+        <v>24.100000381469702</v>
       </c>
       <c r="I33" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J33" s="1">
-        <v>1.462147199E12</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>1462147199000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B34" s="1">
-        <v>6.962181067E9</v>
+        <v>6962181067</v>
       </c>
       <c r="C34" s="3">
-        <v>42492.0</v>
+        <v>42492</v>
       </c>
       <c r="D34" s="4">
-        <v>0.999988425925926</v>
+        <v>0.99998842592592596</v>
       </c>
       <c r="E34" s="1">
         <v>61.5</v>
@@ -1516,114 +1547,114 @@
         <v>135.584291243775</v>
       </c>
       <c r="H34" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="I34" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J34" s="1">
-        <v>1.462233599E12</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>1462233599000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B35" s="1">
-        <v>6.962181067E9</v>
+        <v>6962181067</v>
       </c>
       <c r="C35" s="3">
-        <v>42493.0</v>
+        <v>42493</v>
       </c>
       <c r="D35" s="4">
-        <v>0.999988425925926</v>
+        <v>0.99998842592592596</v>
       </c>
       <c r="E35" s="1">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="F35" s="1">
-        <v>134.48197993285</v>
+        <v>134.48197993285001</v>
       </c>
       <c r="H35" s="1">
-        <v>23.8199996948242</v>
+        <v>23.819999694824201</v>
       </c>
       <c r="I35" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J35" s="1">
-        <v>1.462319999E12</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>1462319999000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="1">
-        <v>6.962181067E9</v>
+        <v>6962181067</v>
       </c>
       <c r="C36" s="3">
-        <v>42494.0</v>
+        <v>42494</v>
       </c>
       <c r="D36" s="4">
-        <v>0.999988425925926</v>
+        <v>0.99998842592592596</v>
       </c>
       <c r="E36" s="1">
-        <v>61.0999984741211</v>
+        <v>61.099998474121101</v>
       </c>
       <c r="F36" s="1">
         <v>134.702438831048</v>
       </c>
       <c r="H36" s="1">
-        <v>23.8500003814697</v>
+        <v>23.850000381469702</v>
       </c>
       <c r="I36" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J36" s="1">
-        <v>1.462406399E12</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>1462406399000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B37" s="1">
-        <v>6.962181067E9</v>
+        <v>6962181067</v>
       </c>
       <c r="C37" s="3">
-        <v>42495.0</v>
+        <v>42495</v>
       </c>
       <c r="D37" s="4">
-        <v>0.999988425925926</v>
+        <v>0.99998842592592596</v>
       </c>
       <c r="E37" s="1">
-        <v>61.2999992370605</v>
+        <v>61.299999237060497</v>
       </c>
       <c r="F37" s="1">
         <v>135.143365037411</v>
       </c>
       <c r="H37" s="1">
-        <v>23.9300003051758</v>
+        <v>23.930000305175799</v>
       </c>
       <c r="I37" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J37" s="1">
-        <v>1.462492799E12</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>1462492799000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B38" s="1">
-        <v>6.962181067E9</v>
+        <v>6962181067</v>
       </c>
       <c r="C38" s="3">
-        <v>42496.0</v>
+        <v>42496</v>
       </c>
       <c r="D38" s="4">
-        <v>0.999988425925926</v>
+        <v>0.99998842592592596</v>
       </c>
       <c r="E38" s="1">
         <v>61.5</v>
@@ -1632,120 +1663,120 @@
         <v>135.584291243775</v>
       </c>
       <c r="H38" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="I38" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J38" s="1">
-        <v>1.462579199E12</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>1462579199000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B39" s="1">
-        <v>6.962181067E9</v>
+        <v>6962181067</v>
       </c>
       <c r="C39" s="3">
-        <v>42497.0</v>
+        <v>42497</v>
       </c>
       <c r="D39" s="4">
-        <v>0.999988425925926</v>
+        <v>0.99998842592592596</v>
       </c>
       <c r="E39" s="1">
-        <v>61.2000007629395</v>
+        <v>61.200000762939503</v>
       </c>
       <c r="F39" s="1">
-        <v>134.922906139214</v>
+        <v>134.92290613921401</v>
       </c>
       <c r="H39" s="1">
-        <v>23.8899993896484</v>
+        <v>23.889999389648398</v>
       </c>
       <c r="I39" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J39" s="1">
-        <v>1.462665599E12</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>1462665599000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B40" s="1">
-        <v>6.962181067E9</v>
+        <v>6962181067</v>
       </c>
       <c r="C40" s="3">
-        <v>42498.0</v>
+        <v>42498</v>
       </c>
       <c r="D40" s="4">
-        <v>0.999988425925926</v>
+        <v>0.99998842592592596</v>
       </c>
       <c r="E40" s="1">
-        <v>61.2000007629395</v>
+        <v>61.200000762939503</v>
       </c>
       <c r="F40" s="1">
-        <v>134.922906139214</v>
+        <v>134.92290613921401</v>
       </c>
       <c r="H40" s="1">
-        <v>23.8899993896484</v>
+        <v>23.889999389648398</v>
       </c>
       <c r="I40" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J40" s="1">
-        <v>1.462751999E12</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>1462751999000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B41" s="1">
-        <v>6.962181067E9</v>
+        <v>6962181067</v>
       </c>
       <c r="C41" s="3">
-        <v>42499.0</v>
+        <v>42499</v>
       </c>
       <c r="D41" s="4">
-        <v>0.999988425925926</v>
+        <v>0.99998842592592596</v>
       </c>
       <c r="E41" s="1">
-        <v>62.4000015258789</v>
+        <v>62.400001525878899</v>
       </c>
       <c r="F41" s="1">
-        <v>137.568454967427</v>
+        <v>137.56845496742699</v>
       </c>
       <c r="H41" s="1">
-        <v>24.3500003814697</v>
+        <v>24.350000381469702</v>
       </c>
       <c r="I41" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J41" s="1">
-        <v>1.462838399E12</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>1462838399000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="1">
-        <v>6.962181067E9</v>
+        <v>6962181067</v>
       </c>
       <c r="C42" s="3">
-        <v>42500.0</v>
+        <v>42500</v>
       </c>
       <c r="D42" s="4">
-        <v>0.999988425925926</v>
+        <v>0.99998842592592596</v>
       </c>
       <c r="E42" s="1">
-        <v>62.0999984741211</v>
+        <v>62.099998474121101</v>
       </c>
       <c r="F42" s="1">
-        <v>136.907061452898</v>
+        <v>136.90706145289801</v>
       </c>
       <c r="H42" s="1">
         <v>24.2399997711182</v>
@@ -1754,134 +1785,134 @@
         <v>1</v>
       </c>
       <c r="J42" s="1">
-        <v>1.462924799E12</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>1462924799000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B43" s="1">
-        <v>6.962181067E9</v>
+        <v>6962181067</v>
       </c>
       <c r="C43" s="3">
-        <v>42501.0</v>
+        <v>42501</v>
       </c>
       <c r="D43" s="4">
-        <v>0.999988425925926</v>
+        <v>0.99998842592592596</v>
       </c>
       <c r="E43" s="1">
-        <v>61.9000015258789</v>
+        <v>61.900001525878899</v>
       </c>
       <c r="F43" s="1">
         <v>136.466143656502</v>
       </c>
       <c r="H43" s="1">
-        <v>24.1700000762939</v>
+        <v>24.170000076293899</v>
       </c>
       <c r="I43" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J43" s="1">
-        <v>1.463011199E12</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>1463011199000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B44" s="1">
-        <v>6.962181067E9</v>
+        <v>6962181067</v>
       </c>
       <c r="C44" s="3">
-        <v>42502.0</v>
+        <v>42502</v>
       </c>
       <c r="D44" s="4">
-        <v>0.999988425925926</v>
+        <v>0.99998842592592596</v>
       </c>
       <c r="E44" s="1">
-        <v>61.9000015258789</v>
+        <v>61.900001525878899</v>
       </c>
       <c r="F44" s="1">
         <v>136.466143656502</v>
       </c>
       <c r="H44" s="1">
-        <v>24.1700000762939</v>
+        <v>24.170000076293899</v>
       </c>
       <c r="I44" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J44" s="1">
-        <v>1.463097599E12</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>1463097599000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B45" s="1">
-        <v>8.877689391E9</v>
+        <v>8877689391</v>
       </c>
       <c r="C45" s="3">
-        <v>42472.0</v>
+        <v>42472</v>
       </c>
       <c r="D45" s="4">
         <v>0.2827662037037037</v>
       </c>
       <c r="E45" s="1">
-        <v>85.8000030517578</v>
+        <v>85.800003051757798</v>
       </c>
       <c r="F45" s="1">
         <v>189.156627682704</v>
       </c>
       <c r="H45" s="1">
-        <v>25.6800003051758</v>
+        <v>25.680000305175799</v>
       </c>
       <c r="I45" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J45" s="1">
-        <v>1.460443631E12</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>1460443631000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B46" s="1">
-        <v>8.877689391E9</v>
+        <v>8877689391</v>
       </c>
       <c r="C46" s="3">
-        <v>42473.0</v>
+        <v>42473</v>
       </c>
       <c r="D46" s="4">
-        <v>0.2881944444444444</v>
+        <v>0.28819444444444442</v>
       </c>
       <c r="E46" s="1">
-        <v>84.9000015258789</v>
+        <v>84.900001525878906</v>
       </c>
       <c r="F46" s="1">
-        <v>187.172463959052</v>
+        <v>187.17246395905201</v>
       </c>
       <c r="H46" s="1">
-        <v>25.4099998474121</v>
+        <v>25.409999847412099</v>
       </c>
       <c r="I46" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J46" s="1">
-        <v>1.4605305E12</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>1460530500000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B47" s="1">
-        <v>8.877689391E9</v>
+        <v>8877689391</v>
       </c>
       <c r="C47" s="3">
-        <v>42474.0</v>
+        <v>42474</v>
       </c>
       <c r="D47" s="4">
         <v>0.2838310185185185</v>
@@ -1890,143 +1921,143 @@
         <v>84.5</v>
       </c>
       <c r="F47" s="1">
-        <v>186.290611546325</v>
+        <v>186.29061154632501</v>
       </c>
       <c r="H47" s="1">
-        <v>25.3099994659424</v>
+        <v>25.309999465942401</v>
       </c>
       <c r="I47" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J47" s="1">
-        <v>1.460616523E12</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>1460616523000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B48" s="1">
-        <v>8.877689391E9</v>
+        <v>8877689391</v>
       </c>
       <c r="C48" s="3">
-        <v>42476.0</v>
+        <v>42476</v>
       </c>
       <c r="D48" s="4">
-        <v>0.5690393518518518</v>
+        <v>0.56903935185185184</v>
       </c>
       <c r="E48" s="1">
         <v>85.5</v>
       </c>
       <c r="F48" s="1">
-        <v>188.495234168175</v>
+        <v>188.49523416817499</v>
       </c>
       <c r="H48" s="1">
-        <v>25.5900001525879</v>
+        <v>25.590000152587901</v>
       </c>
       <c r="I48" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J48" s="1">
-        <v>1.460813965E12</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>1460813965000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B49" s="1">
-        <v>8.877689391E9</v>
+        <v>8877689391</v>
       </c>
       <c r="C49" s="3">
-        <v>42478.0</v>
+        <v>42478</v>
       </c>
       <c r="D49" s="4">
         <v>0.2855787037037037</v>
       </c>
       <c r="E49" s="1">
-        <v>85.8000030517578</v>
+        <v>85.800003051757798</v>
       </c>
       <c r="F49" s="1">
         <v>189.156627682704</v>
       </c>
       <c r="H49" s="1">
-        <v>25.6800003051758</v>
+        <v>25.680000305175799</v>
       </c>
       <c r="I49" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J49" s="1">
-        <v>1.460962274E12</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>1460962274000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B50" s="1">
-        <v>8.877689391E9</v>
+        <v>8877689391</v>
       </c>
       <c r="C50" s="3">
-        <v>42479.0</v>
+        <v>42479</v>
       </c>
       <c r="D50" s="4">
-        <v>0.2774421296296296</v>
+        <v>0.27744212962962961</v>
       </c>
       <c r="E50" s="1">
-        <v>85.3000030517578</v>
+        <v>85.300003051757798</v>
       </c>
       <c r="F50" s="1">
-        <v>188.054316371779</v>
+        <v>188.05431637177901</v>
       </c>
       <c r="H50" s="1">
-        <v>25.5300006866455</v>
+        <v>25.530000686645501</v>
       </c>
       <c r="I50" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J50" s="1">
-        <v>1.461047971E12</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>1461047971000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B51" s="1">
-        <v>8.877689391E9</v>
+        <v>8877689391</v>
       </c>
       <c r="C51" s="3">
-        <v>42480.0</v>
+        <v>42480</v>
       </c>
       <c r="D51" s="4">
         <v>0.28118055555555554</v>
       </c>
       <c r="E51" s="1">
-        <v>84.9000015258789</v>
+        <v>84.900001525878906</v>
       </c>
       <c r="F51" s="1">
-        <v>187.172463959052</v>
+        <v>187.17246395905201</v>
       </c>
       <c r="H51" s="1">
-        <v>25.4099998474121</v>
+        <v>25.409999847412099</v>
       </c>
       <c r="I51" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J51" s="1">
-        <v>1.461134694E12</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>1461134694000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B52" s="1">
-        <v>8.877689391E9</v>
+        <v>8877689391</v>
       </c>
       <c r="C52" s="3">
-        <v>42481.0</v>
+        <v>42481</v>
       </c>
       <c r="D52" s="4">
         <v>0.2850347222222222</v>
@@ -2035,27 +2066,27 @@
         <v>84.5</v>
       </c>
       <c r="F52" s="1">
-        <v>186.290611546325</v>
+        <v>186.29061154632501</v>
       </c>
       <c r="H52" s="1">
-        <v>25.2900009155273</v>
+        <v>25.290000915527301</v>
       </c>
       <c r="I52" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J52" s="1">
-        <v>1.461221427E12</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>1461221427000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B53" s="1">
-        <v>8.877689391E9</v>
+        <v>8877689391</v>
       </c>
       <c r="C53" s="3">
-        <v>42483.0</v>
+        <v>42483</v>
       </c>
       <c r="D53" s="4">
         <v>0.3072685185185185</v>
@@ -2064,27 +2095,27 @@
         <v>85.5</v>
       </c>
       <c r="F53" s="1">
-        <v>188.495234168175</v>
+        <v>188.49523416817499</v>
       </c>
       <c r="H53" s="1">
-        <v>25.5900001525879</v>
+        <v>25.590000152587901</v>
       </c>
       <c r="I53" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J53" s="1">
-        <v>1.461396148E12</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>1461396148000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B54" s="1">
-        <v>8.877689391E9</v>
+        <v>8877689391</v>
       </c>
       <c r="C54" s="3">
-        <v>42484.0</v>
+        <v>42484</v>
       </c>
       <c r="D54" s="4">
         <v>0.31811342592592595</v>
@@ -2093,65 +2124,65 @@
         <v>85.5</v>
       </c>
       <c r="F54" s="1">
-        <v>188.495234168175</v>
+        <v>188.49523416817499</v>
       </c>
       <c r="H54" s="1">
-        <v>25.5900001525879</v>
+        <v>25.590000152587901</v>
       </c>
       <c r="I54" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J54" s="1">
-        <v>1.461483485E12</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>1461483485000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B55" s="1">
-        <v>8.877689391E9</v>
+        <v>8877689391</v>
       </c>
       <c r="C55" s="3">
-        <v>42485.0</v>
+        <v>42485</v>
       </c>
       <c r="D55" s="4">
         <v>0.27796296296296297</v>
       </c>
       <c r="E55" s="1">
-        <v>85.4000015258789</v>
+        <v>85.400001525878906</v>
       </c>
       <c r="F55" s="1">
         <v>188.274775269977</v>
       </c>
       <c r="H55" s="1">
-        <v>25.5599994659424</v>
+        <v>25.559999465942401</v>
       </c>
       <c r="I55" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J55" s="1">
-        <v>1.461566416E12</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>1461566416000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B56" s="1">
-        <v>8.877689391E9</v>
+        <v>8877689391</v>
       </c>
       <c r="C56" s="3">
-        <v>42486.0</v>
+        <v>42486</v>
       </c>
       <c r="D56" s="4">
         <v>0.2850347222222222</v>
       </c>
       <c r="E56" s="1">
-        <v>85.0999984741211</v>
+        <v>85.099998474121094</v>
       </c>
       <c r="F56" s="1">
-        <v>187.613381755448</v>
+        <v>187.61338175544799</v>
       </c>
       <c r="H56" s="1">
         <v>25.4899997711182</v>
@@ -2160,56 +2191,56 @@
         <v>0</v>
       </c>
       <c r="J56" s="1">
-        <v>1.461653427E12</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>1461653427000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B57" s="1">
-        <v>8.877689391E9</v>
+        <v>8877689391</v>
       </c>
       <c r="C57" s="3">
-        <v>42487.0</v>
+        <v>42487</v>
       </c>
       <c r="D57" s="4">
-        <v>0.285474537037037</v>
+        <v>0.28547453703703701</v>
       </c>
       <c r="E57" s="1">
-        <v>85.4000015258789</v>
+        <v>85.400001525878906</v>
       </c>
       <c r="F57" s="1">
         <v>188.274775269977</v>
       </c>
       <c r="H57" s="1">
-        <v>25.5599994659424</v>
+        <v>25.559999465942401</v>
       </c>
       <c r="I57" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J57" s="1">
-        <v>1.461739865E12</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>1461739865000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B58" s="1">
-        <v>8.877689391E9</v>
+        <v>8877689391</v>
       </c>
       <c r="C58" s="3">
-        <v>42488.0</v>
+        <v>42488</v>
       </c>
       <c r="D58" s="4">
         <v>0.28475694444444444</v>
       </c>
       <c r="E58" s="1">
-        <v>85.0999984741211</v>
+        <v>85.099998474121094</v>
       </c>
       <c r="F58" s="1">
-        <v>187.613381755448</v>
+        <v>187.61338175544799</v>
       </c>
       <c r="H58" s="1">
         <v>25.4899997711182</v>
@@ -2218,143 +2249,143 @@
         <v>0</v>
       </c>
       <c r="J58" s="1">
-        <v>1.461826203E12</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>1461826203000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B59" s="1">
-        <v>8.877689391E9</v>
+        <v>8877689391</v>
       </c>
       <c r="C59" s="3">
-        <v>42489.0</v>
+        <v>42489</v>
       </c>
       <c r="D59" s="4">
         <v>0.28466435185185185</v>
       </c>
       <c r="E59" s="1">
-        <v>84.9000015258789</v>
+        <v>84.900001525878906</v>
       </c>
       <c r="F59" s="1">
-        <v>187.172463959052</v>
+        <v>187.17246395905201</v>
       </c>
       <c r="H59" s="1">
-        <v>25.4099998474121</v>
+        <v>25.409999847412099</v>
       </c>
       <c r="I59" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J59" s="1">
-        <v>1.461912595E12</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>1461912595000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B60" s="1">
-        <v>8.877689391E9</v>
+        <v>8877689391</v>
       </c>
       <c r="C60" s="3">
-        <v>42490.0</v>
+        <v>42490</v>
       </c>
       <c r="D60" s="4">
-        <v>0.3257291666666667</v>
+        <v>0.32572916666666668</v>
       </c>
       <c r="E60" s="1">
         <v>85.5</v>
       </c>
       <c r="F60" s="1">
-        <v>188.495234168175</v>
+        <v>188.49523416817499</v>
       </c>
       <c r="H60" s="1">
-        <v>25.5900001525879</v>
+        <v>25.590000152587901</v>
       </c>
       <c r="I60" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J60" s="1">
-        <v>1.462002543E12</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>1462002543000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B61" s="1">
-        <v>8.877689391E9</v>
+        <v>8877689391</v>
       </c>
       <c r="C61" s="3">
-        <v>42491.0</v>
+        <v>42491</v>
       </c>
       <c r="D61" s="4">
-        <v>0.3665393518518518</v>
+        <v>0.36653935185185182</v>
       </c>
       <c r="E61" s="1">
-        <v>85.3000030517578</v>
+        <v>85.300003051757798</v>
       </c>
       <c r="F61" s="1">
-        <v>188.054316371779</v>
+        <v>188.05431637177901</v>
       </c>
       <c r="H61" s="1">
-        <v>25.5300006866455</v>
+        <v>25.530000686645501</v>
       </c>
       <c r="I61" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J61" s="1">
-        <v>1.462092469E12</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>1462092469000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B62" s="1">
-        <v>8.877689391E9</v>
+        <v>8877689391</v>
       </c>
       <c r="C62" s="3">
-        <v>42493.0</v>
+        <v>42493</v>
       </c>
       <c r="D62" s="4">
-        <v>0.2845023148148148</v>
+        <v>0.28450231481481481</v>
       </c>
       <c r="E62" s="1">
-        <v>84.9000015258789</v>
+        <v>84.900001525878906</v>
       </c>
       <c r="F62" s="1">
-        <v>187.172463959052</v>
+        <v>187.17246395905201</v>
       </c>
       <c r="H62" s="1">
-        <v>25.4099998474121</v>
+        <v>25.409999847412099</v>
       </c>
       <c r="I62" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J62" s="1">
-        <v>1.462258181E12</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>1462258181000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B63" s="1">
-        <v>8.877689391E9</v>
+        <v>8877689391</v>
       </c>
       <c r="C63" s="3">
-        <v>42494.0</v>
+        <v>42494</v>
       </c>
       <c r="D63" s="4">
         <v>0.28358796296296296</v>
       </c>
       <c r="E63" s="1">
-        <v>84.4000015258789</v>
+        <v>84.400001525878906</v>
       </c>
       <c r="F63" s="1">
-        <v>186.070152648127</v>
+        <v>186.07015264812699</v>
       </c>
       <c r="H63" s="1">
         <v>25.2600002288818</v>
@@ -2363,3883 +2394,3883 @@
         <v>0</v>
       </c>
       <c r="J63" s="1">
-        <v>1.462344502E12</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>1462344502000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B64" s="1">
-        <v>8.877689391E9</v>
+        <v>8877689391</v>
       </c>
       <c r="C64" s="3">
-        <v>42496.0</v>
+        <v>42496</v>
       </c>
       <c r="D64" s="4">
         <v>0.2802662037037037</v>
       </c>
       <c r="E64" s="1">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="F64" s="1">
         <v>187.39292285725</v>
       </c>
       <c r="H64" s="1">
-        <v>25.4400005340576</v>
+        <v>25.440000534057599</v>
       </c>
       <c r="I64" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J64" s="1">
-        <v>1.462517015E12</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>1462517015000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B65" s="1">
-        <v>8.877689391E9</v>
+        <v>8877689391</v>
       </c>
       <c r="C65" s="3">
-        <v>42498.0</v>
+        <v>42498</v>
       </c>
       <c r="D65" s="4">
         <v>0.31658564814814816</v>
       </c>
       <c r="E65" s="1">
-        <v>85.4000015258789</v>
+        <v>85.400001525878906</v>
       </c>
       <c r="F65" s="1">
         <v>188.274775269977</v>
       </c>
       <c r="H65" s="1">
-        <v>25.5599994659424</v>
+        <v>25.559999465942401</v>
       </c>
       <c r="I65" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J65" s="1">
-        <v>1.462692953E12</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>1462692953000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B66" s="1">
-        <v>8.877689391E9</v>
+        <v>8877689391</v>
       </c>
       <c r="C66" s="3">
-        <v>42499.0</v>
+        <v>42499</v>
       </c>
       <c r="D66" s="4">
-        <v>0.2775925925925926</v>
+        <v>0.27759259259259261</v>
       </c>
       <c r="E66" s="1">
         <v>85.5</v>
       </c>
       <c r="F66" s="1">
-        <v>188.495234168175</v>
+        <v>188.49523416817499</v>
       </c>
       <c r="H66" s="1">
-        <v>25.6100006103516</v>
+        <v>25.610000610351602</v>
       </c>
       <c r="I66" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J66" s="1">
-        <v>1.462775984E12</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>1462775984000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B67" s="1">
-        <v>8.877689391E9</v>
+        <v>8877689391</v>
       </c>
       <c r="C67" s="3">
-        <v>42501.0</v>
+        <v>42501</v>
       </c>
       <c r="D67" s="4">
         <v>0.28596064814814814</v>
       </c>
       <c r="E67" s="1">
-        <v>85.4000015258789</v>
+        <v>85.400001525878906</v>
       </c>
       <c r="F67" s="1">
         <v>188.274775269977</v>
       </c>
       <c r="H67" s="1">
-        <v>25.5599994659424</v>
+        <v>25.559999465942401</v>
       </c>
       <c r="I67" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J67" s="1">
-        <v>1.462949507E12</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>1462949507000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B68" s="1">
-        <v>8.877689391E9</v>
+        <v>8877689391</v>
       </c>
       <c r="C68" s="3">
-        <v>42502.0</v>
+        <v>42502</v>
       </c>
       <c r="D68" s="4">
         <v>0.27978009259259257</v>
       </c>
       <c r="E68" s="1">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="F68" s="1">
-        <v>185.1883002354</v>
+        <v>185.18830023539999</v>
       </c>
       <c r="H68" s="1">
-        <v>25.1399993896484</v>
+        <v>25.139999389648398</v>
       </c>
       <c r="I68" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J68" s="1">
-        <v>1.463035373E12</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>1463035373000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
     </row>
-    <row r="81">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
     </row>
-    <row r="82">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
     </row>
-    <row r="83">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
     </row>
-    <row r="84">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
     </row>
-    <row r="85">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
     </row>
-    <row r="86">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
     </row>
-    <row r="87">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
     </row>
-    <row r="88">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
     </row>
-    <row r="89">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
     </row>
-    <row r="90">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
     </row>
-    <row r="91">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
     </row>
-    <row r="92">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
     </row>
-    <row r="93">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
     </row>
-    <row r="94">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
     </row>
-    <row r="95">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
     </row>
-    <row r="96">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
     </row>
-    <row r="97">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
     </row>
-    <row r="98">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
     </row>
-    <row r="99">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
     </row>
-    <row r="100">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
     </row>
-    <row r="101">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
     </row>
-    <row r="102">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
     </row>
-    <row r="103">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
     </row>
-    <row r="104">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
     </row>
-    <row r="105">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
     </row>
-    <row r="106">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
     </row>
-    <row r="107">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
     </row>
-    <row r="108">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
     </row>
-    <row r="109">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
     </row>
-    <row r="110">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
     </row>
-    <row r="111">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
     </row>
-    <row r="112">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
     </row>
-    <row r="113">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
     </row>
-    <row r="114">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
     </row>
-    <row r="115">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
     </row>
-    <row r="116">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
     </row>
-    <row r="117">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
     </row>
-    <row r="118">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
     </row>
-    <row r="119">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
     </row>
-    <row r="120">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
     </row>
-    <row r="121">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
     </row>
-    <row r="122">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
     </row>
-    <row r="123">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
     </row>
-    <row r="124">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
     </row>
-    <row r="125">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
     </row>
-    <row r="126">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
     </row>
-    <row r="127">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
     </row>
-    <row r="128">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
     </row>
-    <row r="129">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
     </row>
-    <row r="130">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
     </row>
-    <row r="131">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
     </row>
-    <row r="132">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
     </row>
-    <row r="133">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
     </row>
-    <row r="134">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
     </row>
-    <row r="135">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
     </row>
-    <row r="136">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
     </row>
-    <row r="137">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
     </row>
-    <row r="138">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
     </row>
-    <row r="139">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
     </row>
-    <row r="140">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
     </row>
-    <row r="141">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
     </row>
-    <row r="142">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
     </row>
-    <row r="143">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
     </row>
-    <row r="144">
+    <row r="144" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
     </row>
-    <row r="145">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
     </row>
-    <row r="146">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
     </row>
-    <row r="147">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
     </row>
-    <row r="148">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
     </row>
-    <row r="149">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
     </row>
-    <row r="150">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
     </row>
-    <row r="151">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
     </row>
-    <row r="152">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
     </row>
-    <row r="153">
+    <row r="153" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
     </row>
-    <row r="154">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
     </row>
-    <row r="155">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
     </row>
-    <row r="156">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
     </row>
-    <row r="157">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
     </row>
-    <row r="158">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
     </row>
-    <row r="159">
+    <row r="159" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
     </row>
-    <row r="160">
+    <row r="160" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
     </row>
-    <row r="161">
+    <row r="161" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
     </row>
-    <row r="162">
+    <row r="162" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
     </row>
-    <row r="163">
+    <row r="163" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
     </row>
-    <row r="164">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
     </row>
-    <row r="165">
+    <row r="165" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
     </row>
-    <row r="166">
+    <row r="166" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
     </row>
-    <row r="167">
+    <row r="167" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
     </row>
-    <row r="168">
+    <row r="168" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
     </row>
-    <row r="169">
+    <row r="169" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
     </row>
-    <row r="170">
+    <row r="170" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
     </row>
-    <row r="171">
+    <row r="171" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
     </row>
-    <row r="172">
+    <row r="172" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
     </row>
-    <row r="173">
+    <row r="173" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
     </row>
-    <row r="174">
+    <row r="174" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
     </row>
-    <row r="175">
+    <row r="175" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
     </row>
-    <row r="176">
+    <row r="176" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
     </row>
-    <row r="177">
+    <row r="177" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
     </row>
-    <row r="178">
+    <row r="178" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
     </row>
-    <row r="179">
+    <row r="179" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
     </row>
-    <row r="180">
+    <row r="180" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
     </row>
-    <row r="181">
+    <row r="181" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
     </row>
-    <row r="182">
+    <row r="182" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
     </row>
-    <row r="183">
+    <row r="183" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
     </row>
-    <row r="184">
+    <row r="184" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
     </row>
-    <row r="185">
+    <row r="185" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
     </row>
-    <row r="186">
+    <row r="186" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
     </row>
-    <row r="187">
+    <row r="187" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
     </row>
-    <row r="188">
+    <row r="188" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
     </row>
-    <row r="189">
+    <row r="189" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
     </row>
-    <row r="190">
+    <row r="190" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
     </row>
-    <row r="191">
+    <row r="191" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
     </row>
-    <row r="192">
+    <row r="192" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
     </row>
-    <row r="193">
+    <row r="193" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
     </row>
-    <row r="194">
+    <row r="194" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
     </row>
-    <row r="195">
+    <row r="195" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
     </row>
-    <row r="196">
+    <row r="196" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
     </row>
-    <row r="197">
+    <row r="197" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
     </row>
-    <row r="198">
+    <row r="198" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
     </row>
-    <row r="199">
+    <row r="199" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
     </row>
-    <row r="200">
+    <row r="200" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
     </row>
-    <row r="201">
+    <row r="201" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
     </row>
-    <row r="202">
+    <row r="202" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
     </row>
-    <row r="203">
+    <row r="203" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
     </row>
-    <row r="204">
+    <row r="204" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
     </row>
-    <row r="205">
+    <row r="205" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
     </row>
-    <row r="206">
+    <row r="206" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
     </row>
-    <row r="207">
+    <row r="207" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
     </row>
-    <row r="208">
+    <row r="208" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
     </row>
-    <row r="209">
+    <row r="209" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
     </row>
-    <row r="210">
+    <row r="210" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
     </row>
-    <row r="211">
+    <row r="211" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
     </row>
-    <row r="212">
+    <row r="212" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
     </row>
-    <row r="213">
+    <row r="213" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
     </row>
-    <row r="214">
+    <row r="214" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
     </row>
-    <row r="215">
+    <row r="215" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
     </row>
-    <row r="216">
+    <row r="216" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
     </row>
-    <row r="217">
+    <row r="217" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
     </row>
-    <row r="218">
+    <row r="218" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
     </row>
-    <row r="219">
+    <row r="219" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
     </row>
-    <row r="220">
+    <row r="220" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
     </row>
-    <row r="221">
+    <row r="221" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
     </row>
-    <row r="222">
+    <row r="222" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
     </row>
-    <row r="223">
+    <row r="223" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
     </row>
-    <row r="224">
+    <row r="224" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
     </row>
-    <row r="225">
+    <row r="225" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C225" s="5"/>
       <c r="D225" s="5"/>
     </row>
-    <row r="226">
+    <row r="226" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
     </row>
-    <row r="227">
+    <row r="227" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
     </row>
-    <row r="228">
+    <row r="228" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
     </row>
-    <row r="229">
+    <row r="229" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C229" s="5"/>
       <c r="D229" s="5"/>
     </row>
-    <row r="230">
+    <row r="230" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
     </row>
-    <row r="231">
+    <row r="231" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
     </row>
-    <row r="232">
+    <row r="232" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
     </row>
-    <row r="233">
+    <row r="233" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
     </row>
-    <row r="234">
+    <row r="234" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
     </row>
-    <row r="235">
+    <row r="235" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
     </row>
-    <row r="236">
+    <row r="236" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
     </row>
-    <row r="237">
+    <row r="237" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
     </row>
-    <row r="238">
+    <row r="238" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
     </row>
-    <row r="239">
+    <row r="239" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
     </row>
-    <row r="240">
+    <row r="240" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C240" s="5"/>
       <c r="D240" s="5"/>
     </row>
-    <row r="241">
+    <row r="241" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C241" s="5"/>
       <c r="D241" s="5"/>
     </row>
-    <row r="242">
+    <row r="242" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
     </row>
-    <row r="243">
+    <row r="243" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C243" s="5"/>
       <c r="D243" s="5"/>
     </row>
-    <row r="244">
+    <row r="244" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
     </row>
-    <row r="245">
+    <row r="245" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
     </row>
-    <row r="246">
+    <row r="246" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
     </row>
-    <row r="247">
+    <row r="247" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C247" s="5"/>
       <c r="D247" s="5"/>
     </row>
-    <row r="248">
+    <row r="248" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
     </row>
-    <row r="249">
+    <row r="249" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
     </row>
-    <row r="250">
+    <row r="250" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C250" s="5"/>
       <c r="D250" s="5"/>
     </row>
-    <row r="251">
+    <row r="251" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C251" s="5"/>
       <c r="D251" s="5"/>
     </row>
-    <row r="252">
+    <row r="252" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C252" s="5"/>
       <c r="D252" s="5"/>
     </row>
-    <row r="253">
+    <row r="253" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C253" s="5"/>
       <c r="D253" s="5"/>
     </row>
-    <row r="254">
+    <row r="254" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C254" s="5"/>
       <c r="D254" s="5"/>
     </row>
-    <row r="255">
+    <row r="255" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
     </row>
-    <row r="256">
+    <row r="256" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C256" s="5"/>
       <c r="D256" s="5"/>
     </row>
-    <row r="257">
+    <row r="257" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C257" s="5"/>
       <c r="D257" s="5"/>
     </row>
-    <row r="258">
+    <row r="258" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C258" s="5"/>
       <c r="D258" s="5"/>
     </row>
-    <row r="259">
+    <row r="259" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C259" s="5"/>
       <c r="D259" s="5"/>
     </row>
-    <row r="260">
+    <row r="260" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C260" s="5"/>
       <c r="D260" s="5"/>
     </row>
-    <row r="261">
+    <row r="261" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C261" s="5"/>
       <c r="D261" s="5"/>
     </row>
-    <row r="262">
+    <row r="262" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C262" s="5"/>
       <c r="D262" s="5"/>
     </row>
-    <row r="263">
+    <row r="263" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C263" s="5"/>
       <c r="D263" s="5"/>
     </row>
-    <row r="264">
+    <row r="264" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C264" s="5"/>
       <c r="D264" s="5"/>
     </row>
-    <row r="265">
+    <row r="265" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C265" s="5"/>
       <c r="D265" s="5"/>
     </row>
-    <row r="266">
+    <row r="266" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C266" s="5"/>
       <c r="D266" s="5"/>
     </row>
-    <row r="267">
+    <row r="267" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C267" s="5"/>
       <c r="D267" s="5"/>
     </row>
-    <row r="268">
+    <row r="268" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C268" s="5"/>
       <c r="D268" s="5"/>
     </row>
-    <row r="269">
+    <row r="269" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C269" s="5"/>
       <c r="D269" s="5"/>
     </row>
-    <row r="270">
+    <row r="270" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C270" s="5"/>
       <c r="D270" s="5"/>
     </row>
-    <row r="271">
+    <row r="271" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C271" s="5"/>
       <c r="D271" s="5"/>
     </row>
-    <row r="272">
+    <row r="272" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C272" s="5"/>
       <c r="D272" s="5"/>
     </row>
-    <row r="273">
+    <row r="273" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C273" s="5"/>
       <c r="D273" s="5"/>
     </row>
-    <row r="274">
+    <row r="274" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C274" s="5"/>
       <c r="D274" s="5"/>
     </row>
-    <row r="275">
+    <row r="275" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C275" s="5"/>
       <c r="D275" s="5"/>
     </row>
-    <row r="276">
+    <row r="276" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C276" s="5"/>
       <c r="D276" s="5"/>
     </row>
-    <row r="277">
+    <row r="277" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C277" s="5"/>
       <c r="D277" s="5"/>
     </row>
-    <row r="278">
+    <row r="278" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C278" s="5"/>
       <c r="D278" s="5"/>
     </row>
-    <row r="279">
+    <row r="279" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C279" s="5"/>
       <c r="D279" s="5"/>
     </row>
-    <row r="280">
+    <row r="280" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C280" s="5"/>
       <c r="D280" s="5"/>
     </row>
-    <row r="281">
+    <row r="281" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C281" s="5"/>
       <c r="D281" s="5"/>
     </row>
-    <row r="282">
+    <row r="282" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C282" s="5"/>
       <c r="D282" s="5"/>
     </row>
-    <row r="283">
+    <row r="283" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C283" s="5"/>
       <c r="D283" s="5"/>
     </row>
-    <row r="284">
+    <row r="284" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C284" s="5"/>
       <c r="D284" s="5"/>
     </row>
-    <row r="285">
+    <row r="285" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C285" s="5"/>
       <c r="D285" s="5"/>
     </row>
-    <row r="286">
+    <row r="286" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C286" s="5"/>
       <c r="D286" s="5"/>
     </row>
-    <row r="287">
+    <row r="287" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C287" s="5"/>
       <c r="D287" s="5"/>
     </row>
-    <row r="288">
+    <row r="288" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C288" s="5"/>
       <c r="D288" s="5"/>
     </row>
-    <row r="289">
+    <row r="289" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C289" s="5"/>
       <c r="D289" s="5"/>
     </row>
-    <row r="290">
+    <row r="290" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C290" s="5"/>
       <c r="D290" s="5"/>
     </row>
-    <row r="291">
+    <row r="291" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C291" s="5"/>
       <c r="D291" s="5"/>
     </row>
-    <row r="292">
+    <row r="292" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C292" s="5"/>
       <c r="D292" s="5"/>
     </row>
-    <row r="293">
+    <row r="293" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C293" s="5"/>
       <c r="D293" s="5"/>
     </row>
-    <row r="294">
+    <row r="294" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C294" s="5"/>
       <c r="D294" s="5"/>
     </row>
-    <row r="295">
+    <row r="295" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C295" s="5"/>
       <c r="D295" s="5"/>
     </row>
-    <row r="296">
+    <row r="296" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C296" s="5"/>
       <c r="D296" s="5"/>
     </row>
-    <row r="297">
+    <row r="297" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C297" s="5"/>
       <c r="D297" s="5"/>
     </row>
-    <row r="298">
+    <row r="298" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C298" s="5"/>
       <c r="D298" s="5"/>
     </row>
-    <row r="299">
+    <row r="299" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C299" s="5"/>
       <c r="D299" s="5"/>
     </row>
-    <row r="300">
+    <row r="300" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C300" s="5"/>
       <c r="D300" s="5"/>
     </row>
-    <row r="301">
+    <row r="301" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C301" s="5"/>
       <c r="D301" s="5"/>
     </row>
-    <row r="302">
+    <row r="302" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C302" s="5"/>
       <c r="D302" s="5"/>
     </row>
-    <row r="303">
+    <row r="303" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C303" s="5"/>
       <c r="D303" s="5"/>
     </row>
-    <row r="304">
+    <row r="304" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C304" s="5"/>
       <c r="D304" s="5"/>
     </row>
-    <row r="305">
+    <row r="305" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C305" s="5"/>
       <c r="D305" s="5"/>
     </row>
-    <row r="306">
+    <row r="306" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C306" s="5"/>
       <c r="D306" s="5"/>
     </row>
-    <row r="307">
+    <row r="307" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C307" s="5"/>
       <c r="D307" s="5"/>
     </row>
-    <row r="308">
+    <row r="308" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C308" s="5"/>
       <c r="D308" s="5"/>
     </row>
-    <row r="309">
+    <row r="309" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C309" s="5"/>
       <c r="D309" s="5"/>
     </row>
-    <row r="310">
+    <row r="310" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C310" s="5"/>
       <c r="D310" s="5"/>
     </row>
-    <row r="311">
+    <row r="311" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C311" s="5"/>
       <c r="D311" s="5"/>
     </row>
-    <row r="312">
+    <row r="312" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C312" s="5"/>
       <c r="D312" s="5"/>
     </row>
-    <row r="313">
+    <row r="313" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C313" s="5"/>
       <c r="D313" s="5"/>
     </row>
-    <row r="314">
+    <row r="314" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C314" s="5"/>
       <c r="D314" s="5"/>
     </row>
-    <row r="315">
+    <row r="315" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C315" s="5"/>
       <c r="D315" s="5"/>
     </row>
-    <row r="316">
+    <row r="316" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C316" s="5"/>
       <c r="D316" s="5"/>
     </row>
-    <row r="317">
+    <row r="317" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C317" s="5"/>
       <c r="D317" s="5"/>
     </row>
-    <row r="318">
+    <row r="318" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C318" s="5"/>
       <c r="D318" s="5"/>
     </row>
-    <row r="319">
+    <row r="319" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C319" s="5"/>
       <c r="D319" s="5"/>
     </row>
-    <row r="320">
+    <row r="320" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C320" s="5"/>
       <c r="D320" s="5"/>
     </row>
-    <row r="321">
+    <row r="321" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C321" s="5"/>
       <c r="D321" s="5"/>
     </row>
-    <row r="322">
+    <row r="322" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C322" s="5"/>
       <c r="D322" s="5"/>
     </row>
-    <row r="323">
+    <row r="323" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C323" s="5"/>
       <c r="D323" s="5"/>
     </row>
-    <row r="324">
+    <row r="324" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C324" s="5"/>
       <c r="D324" s="5"/>
     </row>
-    <row r="325">
+    <row r="325" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C325" s="5"/>
       <c r="D325" s="5"/>
     </row>
-    <row r="326">
+    <row r="326" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C326" s="5"/>
       <c r="D326" s="5"/>
     </row>
-    <row r="327">
+    <row r="327" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C327" s="5"/>
       <c r="D327" s="5"/>
     </row>
-    <row r="328">
+    <row r="328" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C328" s="5"/>
       <c r="D328" s="5"/>
     </row>
-    <row r="329">
+    <row r="329" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C329" s="5"/>
       <c r="D329" s="5"/>
     </row>
-    <row r="330">
+    <row r="330" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C330" s="5"/>
       <c r="D330" s="5"/>
     </row>
-    <row r="331">
+    <row r="331" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C331" s="5"/>
       <c r="D331" s="5"/>
     </row>
-    <row r="332">
+    <row r="332" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C332" s="5"/>
       <c r="D332" s="5"/>
     </row>
-    <row r="333">
+    <row r="333" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C333" s="5"/>
       <c r="D333" s="5"/>
     </row>
-    <row r="334">
+    <row r="334" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C334" s="5"/>
       <c r="D334" s="5"/>
     </row>
-    <row r="335">
+    <row r="335" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C335" s="5"/>
       <c r="D335" s="5"/>
     </row>
-    <row r="336">
+    <row r="336" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C336" s="5"/>
       <c r="D336" s="5"/>
     </row>
-    <row r="337">
+    <row r="337" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C337" s="5"/>
       <c r="D337" s="5"/>
     </row>
-    <row r="338">
+    <row r="338" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C338" s="5"/>
       <c r="D338" s="5"/>
     </row>
-    <row r="339">
+    <row r="339" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C339" s="5"/>
       <c r="D339" s="5"/>
     </row>
-    <row r="340">
+    <row r="340" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C340" s="5"/>
       <c r="D340" s="5"/>
     </row>
-    <row r="341">
+    <row r="341" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C341" s="5"/>
       <c r="D341" s="5"/>
     </row>
-    <row r="342">
+    <row r="342" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C342" s="5"/>
       <c r="D342" s="5"/>
     </row>
-    <row r="343">
+    <row r="343" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C343" s="5"/>
       <c r="D343" s="5"/>
     </row>
-    <row r="344">
+    <row r="344" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C344" s="5"/>
       <c r="D344" s="5"/>
     </row>
-    <row r="345">
+    <row r="345" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C345" s="5"/>
       <c r="D345" s="5"/>
     </row>
-    <row r="346">
+    <row r="346" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C346" s="5"/>
       <c r="D346" s="5"/>
     </row>
-    <row r="347">
+    <row r="347" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C347" s="5"/>
       <c r="D347" s="5"/>
     </row>
-    <row r="348">
+    <row r="348" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C348" s="5"/>
       <c r="D348" s="5"/>
     </row>
-    <row r="349">
+    <row r="349" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C349" s="5"/>
       <c r="D349" s="5"/>
     </row>
-    <row r="350">
+    <row r="350" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C350" s="5"/>
       <c r="D350" s="5"/>
     </row>
-    <row r="351">
+    <row r="351" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C351" s="5"/>
       <c r="D351" s="5"/>
     </row>
-    <row r="352">
+    <row r="352" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C352" s="5"/>
       <c r="D352" s="5"/>
     </row>
-    <row r="353">
+    <row r="353" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C353" s="5"/>
       <c r="D353" s="5"/>
     </row>
-    <row r="354">
+    <row r="354" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C354" s="5"/>
       <c r="D354" s="5"/>
     </row>
-    <row r="355">
+    <row r="355" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C355" s="5"/>
       <c r="D355" s="5"/>
     </row>
-    <row r="356">
+    <row r="356" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C356" s="5"/>
       <c r="D356" s="5"/>
     </row>
-    <row r="357">
+    <row r="357" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C357" s="5"/>
       <c r="D357" s="5"/>
     </row>
-    <row r="358">
+    <row r="358" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C358" s="5"/>
       <c r="D358" s="5"/>
     </row>
-    <row r="359">
+    <row r="359" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C359" s="5"/>
       <c r="D359" s="5"/>
     </row>
-    <row r="360">
+    <row r="360" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C360" s="5"/>
       <c r="D360" s="5"/>
     </row>
-    <row r="361">
+    <row r="361" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C361" s="5"/>
       <c r="D361" s="5"/>
     </row>
-    <row r="362">
+    <row r="362" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C362" s="5"/>
       <c r="D362" s="5"/>
     </row>
-    <row r="363">
+    <row r="363" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C363" s="5"/>
       <c r="D363" s="5"/>
     </row>
-    <row r="364">
+    <row r="364" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C364" s="5"/>
       <c r="D364" s="5"/>
     </row>
-    <row r="365">
+    <row r="365" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C365" s="5"/>
       <c r="D365" s="5"/>
     </row>
-    <row r="366">
+    <row r="366" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C366" s="5"/>
       <c r="D366" s="5"/>
     </row>
-    <row r="367">
+    <row r="367" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C367" s="5"/>
       <c r="D367" s="5"/>
     </row>
-    <row r="368">
+    <row r="368" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C368" s="5"/>
       <c r="D368" s="5"/>
     </row>
-    <row r="369">
+    <row r="369" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C369" s="5"/>
       <c r="D369" s="5"/>
     </row>
-    <row r="370">
+    <row r="370" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C370" s="5"/>
       <c r="D370" s="5"/>
     </row>
-    <row r="371">
+    <row r="371" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C371" s="5"/>
       <c r="D371" s="5"/>
     </row>
-    <row r="372">
+    <row r="372" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C372" s="5"/>
       <c r="D372" s="5"/>
     </row>
-    <row r="373">
+    <row r="373" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C373" s="5"/>
       <c r="D373" s="5"/>
     </row>
-    <row r="374">
+    <row r="374" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C374" s="5"/>
       <c r="D374" s="5"/>
     </row>
-    <row r="375">
+    <row r="375" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C375" s="5"/>
       <c r="D375" s="5"/>
     </row>
-    <row r="376">
+    <row r="376" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C376" s="5"/>
       <c r="D376" s="5"/>
     </row>
-    <row r="377">
+    <row r="377" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C377" s="5"/>
       <c r="D377" s="5"/>
     </row>
-    <row r="378">
+    <row r="378" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C378" s="5"/>
       <c r="D378" s="5"/>
     </row>
-    <row r="379">
+    <row r="379" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C379" s="5"/>
       <c r="D379" s="5"/>
     </row>
-    <row r="380">
+    <row r="380" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C380" s="5"/>
       <c r="D380" s="5"/>
     </row>
-    <row r="381">
+    <row r="381" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C381" s="5"/>
       <c r="D381" s="5"/>
     </row>
-    <row r="382">
+    <row r="382" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C382" s="5"/>
       <c r="D382" s="5"/>
     </row>
-    <row r="383">
+    <row r="383" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C383" s="5"/>
       <c r="D383" s="5"/>
     </row>
-    <row r="384">
+    <row r="384" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C384" s="5"/>
       <c r="D384" s="5"/>
     </row>
-    <row r="385">
+    <row r="385" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C385" s="5"/>
       <c r="D385" s="5"/>
     </row>
-    <row r="386">
+    <row r="386" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C386" s="5"/>
       <c r="D386" s="5"/>
     </row>
-    <row r="387">
+    <row r="387" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C387" s="5"/>
       <c r="D387" s="5"/>
     </row>
-    <row r="388">
+    <row r="388" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C388" s="5"/>
       <c r="D388" s="5"/>
     </row>
-    <row r="389">
+    <row r="389" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C389" s="5"/>
       <c r="D389" s="5"/>
     </row>
-    <row r="390">
+    <row r="390" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C390" s="5"/>
       <c r="D390" s="5"/>
     </row>
-    <row r="391">
+    <row r="391" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C391" s="5"/>
       <c r="D391" s="5"/>
     </row>
-    <row r="392">
+    <row r="392" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C392" s="5"/>
       <c r="D392" s="5"/>
     </row>
-    <row r="393">
+    <row r="393" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C393" s="5"/>
       <c r="D393" s="5"/>
     </row>
-    <row r="394">
+    <row r="394" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C394" s="5"/>
       <c r="D394" s="5"/>
     </row>
-    <row r="395">
+    <row r="395" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C395" s="5"/>
       <c r="D395" s="5"/>
     </row>
-    <row r="396">
+    <row r="396" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C396" s="5"/>
       <c r="D396" s="5"/>
     </row>
-    <row r="397">
+    <row r="397" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C397" s="5"/>
       <c r="D397" s="5"/>
     </row>
-    <row r="398">
+    <row r="398" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C398" s="5"/>
       <c r="D398" s="5"/>
     </row>
-    <row r="399">
+    <row r="399" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C399" s="5"/>
       <c r="D399" s="5"/>
     </row>
-    <row r="400">
+    <row r="400" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C400" s="5"/>
       <c r="D400" s="5"/>
     </row>
-    <row r="401">
+    <row r="401" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C401" s="5"/>
       <c r="D401" s="5"/>
     </row>
-    <row r="402">
+    <row r="402" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C402" s="5"/>
       <c r="D402" s="5"/>
     </row>
-    <row r="403">
+    <row r="403" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C403" s="5"/>
       <c r="D403" s="5"/>
     </row>
-    <row r="404">
+    <row r="404" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C404" s="5"/>
       <c r="D404" s="5"/>
     </row>
-    <row r="405">
+    <row r="405" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C405" s="5"/>
       <c r="D405" s="5"/>
     </row>
-    <row r="406">
+    <row r="406" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C406" s="5"/>
       <c r="D406" s="5"/>
     </row>
-    <row r="407">
+    <row r="407" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C407" s="5"/>
       <c r="D407" s="5"/>
     </row>
-    <row r="408">
+    <row r="408" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C408" s="5"/>
       <c r="D408" s="5"/>
     </row>
-    <row r="409">
+    <row r="409" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C409" s="5"/>
       <c r="D409" s="5"/>
     </row>
-    <row r="410">
+    <row r="410" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C410" s="5"/>
       <c r="D410" s="5"/>
     </row>
-    <row r="411">
+    <row r="411" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C411" s="5"/>
       <c r="D411" s="5"/>
     </row>
-    <row r="412">
+    <row r="412" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C412" s="5"/>
       <c r="D412" s="5"/>
     </row>
-    <row r="413">
+    <row r="413" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C413" s="5"/>
       <c r="D413" s="5"/>
     </row>
-    <row r="414">
+    <row r="414" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C414" s="5"/>
       <c r="D414" s="5"/>
     </row>
-    <row r="415">
+    <row r="415" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C415" s="5"/>
       <c r="D415" s="5"/>
     </row>
-    <row r="416">
+    <row r="416" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C416" s="5"/>
       <c r="D416" s="5"/>
     </row>
-    <row r="417">
+    <row r="417" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C417" s="5"/>
       <c r="D417" s="5"/>
     </row>
-    <row r="418">
+    <row r="418" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C418" s="5"/>
       <c r="D418" s="5"/>
     </row>
-    <row r="419">
+    <row r="419" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C419" s="5"/>
       <c r="D419" s="5"/>
     </row>
-    <row r="420">
+    <row r="420" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C420" s="5"/>
       <c r="D420" s="5"/>
     </row>
-    <row r="421">
+    <row r="421" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C421" s="5"/>
       <c r="D421" s="5"/>
     </row>
-    <row r="422">
+    <row r="422" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C422" s="5"/>
       <c r="D422" s="5"/>
     </row>
-    <row r="423">
+    <row r="423" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C423" s="5"/>
       <c r="D423" s="5"/>
     </row>
-    <row r="424">
+    <row r="424" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C424" s="5"/>
       <c r="D424" s="5"/>
     </row>
-    <row r="425">
+    <row r="425" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C425" s="5"/>
       <c r="D425" s="5"/>
     </row>
-    <row r="426">
+    <row r="426" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C426" s="5"/>
       <c r="D426" s="5"/>
     </row>
-    <row r="427">
+    <row r="427" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C427" s="5"/>
       <c r="D427" s="5"/>
     </row>
-    <row r="428">
+    <row r="428" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C428" s="5"/>
       <c r="D428" s="5"/>
     </row>
-    <row r="429">
+    <row r="429" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C429" s="5"/>
       <c r="D429" s="5"/>
     </row>
-    <row r="430">
+    <row r="430" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C430" s="5"/>
       <c r="D430" s="5"/>
     </row>
-    <row r="431">
+    <row r="431" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C431" s="5"/>
       <c r="D431" s="5"/>
     </row>
-    <row r="432">
+    <row r="432" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C432" s="5"/>
       <c r="D432" s="5"/>
     </row>
-    <row r="433">
+    <row r="433" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C433" s="5"/>
       <c r="D433" s="5"/>
     </row>
-    <row r="434">
+    <row r="434" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C434" s="5"/>
       <c r="D434" s="5"/>
     </row>
-    <row r="435">
+    <row r="435" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C435" s="5"/>
       <c r="D435" s="5"/>
     </row>
-    <row r="436">
+    <row r="436" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C436" s="5"/>
       <c r="D436" s="5"/>
     </row>
-    <row r="437">
+    <row r="437" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C437" s="5"/>
       <c r="D437" s="5"/>
     </row>
-    <row r="438">
+    <row r="438" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C438" s="5"/>
       <c r="D438" s="5"/>
     </row>
-    <row r="439">
+    <row r="439" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C439" s="5"/>
       <c r="D439" s="5"/>
     </row>
-    <row r="440">
+    <row r="440" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C440" s="5"/>
       <c r="D440" s="5"/>
     </row>
-    <row r="441">
+    <row r="441" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C441" s="5"/>
       <c r="D441" s="5"/>
     </row>
-    <row r="442">
+    <row r="442" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C442" s="5"/>
       <c r="D442" s="5"/>
     </row>
-    <row r="443">
+    <row r="443" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C443" s="5"/>
       <c r="D443" s="5"/>
     </row>
-    <row r="444">
+    <row r="444" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C444" s="5"/>
       <c r="D444" s="5"/>
     </row>
-    <row r="445">
+    <row r="445" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C445" s="5"/>
       <c r="D445" s="5"/>
     </row>
-    <row r="446">
+    <row r="446" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C446" s="5"/>
       <c r="D446" s="5"/>
     </row>
-    <row r="447">
+    <row r="447" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C447" s="5"/>
       <c r="D447" s="5"/>
     </row>
-    <row r="448">
+    <row r="448" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C448" s="5"/>
       <c r="D448" s="5"/>
     </row>
-    <row r="449">
+    <row r="449" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C449" s="5"/>
       <c r="D449" s="5"/>
     </row>
-    <row r="450">
+    <row r="450" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C450" s="5"/>
       <c r="D450" s="5"/>
     </row>
-    <row r="451">
+    <row r="451" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C451" s="5"/>
       <c r="D451" s="5"/>
     </row>
-    <row r="452">
+    <row r="452" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C452" s="5"/>
       <c r="D452" s="5"/>
     </row>
-    <row r="453">
+    <row r="453" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C453" s="5"/>
       <c r="D453" s="5"/>
     </row>
-    <row r="454">
+    <row r="454" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C454" s="5"/>
       <c r="D454" s="5"/>
     </row>
-    <row r="455">
+    <row r="455" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C455" s="5"/>
       <c r="D455" s="5"/>
     </row>
-    <row r="456">
+    <row r="456" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C456" s="5"/>
       <c r="D456" s="5"/>
     </row>
-    <row r="457">
+    <row r="457" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C457" s="5"/>
       <c r="D457" s="5"/>
     </row>
-    <row r="458">
+    <row r="458" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C458" s="5"/>
       <c r="D458" s="5"/>
     </row>
-    <row r="459">
+    <row r="459" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C459" s="5"/>
       <c r="D459" s="5"/>
     </row>
-    <row r="460">
+    <row r="460" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C460" s="5"/>
       <c r="D460" s="5"/>
     </row>
-    <row r="461">
+    <row r="461" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C461" s="5"/>
       <c r="D461" s="5"/>
     </row>
-    <row r="462">
+    <row r="462" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C462" s="5"/>
       <c r="D462" s="5"/>
     </row>
-    <row r="463">
+    <row r="463" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C463" s="5"/>
       <c r="D463" s="5"/>
     </row>
-    <row r="464">
+    <row r="464" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C464" s="5"/>
       <c r="D464" s="5"/>
     </row>
-    <row r="465">
+    <row r="465" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C465" s="5"/>
       <c r="D465" s="5"/>
     </row>
-    <row r="466">
+    <row r="466" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C466" s="5"/>
       <c r="D466" s="5"/>
     </row>
-    <row r="467">
+    <row r="467" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C467" s="5"/>
       <c r="D467" s="5"/>
     </row>
-    <row r="468">
+    <row r="468" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C468" s="5"/>
       <c r="D468" s="5"/>
     </row>
-    <row r="469">
+    <row r="469" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C469" s="5"/>
       <c r="D469" s="5"/>
     </row>
-    <row r="470">
+    <row r="470" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C470" s="5"/>
       <c r="D470" s="5"/>
     </row>
-    <row r="471">
+    <row r="471" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C471" s="5"/>
       <c r="D471" s="5"/>
     </row>
-    <row r="472">
+    <row r="472" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C472" s="5"/>
       <c r="D472" s="5"/>
     </row>
-    <row r="473">
+    <row r="473" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C473" s="5"/>
       <c r="D473" s="5"/>
     </row>
-    <row r="474">
+    <row r="474" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C474" s="5"/>
       <c r="D474" s="5"/>
     </row>
-    <row r="475">
+    <row r="475" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C475" s="5"/>
       <c r="D475" s="5"/>
     </row>
-    <row r="476">
+    <row r="476" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C476" s="5"/>
       <c r="D476" s="5"/>
     </row>
-    <row r="477">
+    <row r="477" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C477" s="5"/>
       <c r="D477" s="5"/>
     </row>
-    <row r="478">
+    <row r="478" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C478" s="5"/>
       <c r="D478" s="5"/>
     </row>
-    <row r="479">
+    <row r="479" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C479" s="5"/>
       <c r="D479" s="5"/>
     </row>
-    <row r="480">
+    <row r="480" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C480" s="5"/>
       <c r="D480" s="5"/>
     </row>
-    <row r="481">
+    <row r="481" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C481" s="5"/>
       <c r="D481" s="5"/>
     </row>
-    <row r="482">
+    <row r="482" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C482" s="5"/>
       <c r="D482" s="5"/>
     </row>
-    <row r="483">
+    <row r="483" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C483" s="5"/>
       <c r="D483" s="5"/>
     </row>
-    <row r="484">
+    <row r="484" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C484" s="5"/>
       <c r="D484" s="5"/>
     </row>
-    <row r="485">
+    <row r="485" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C485" s="5"/>
       <c r="D485" s="5"/>
     </row>
-    <row r="486">
+    <row r="486" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C486" s="5"/>
       <c r="D486" s="5"/>
     </row>
-    <row r="487">
+    <row r="487" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C487" s="5"/>
       <c r="D487" s="5"/>
     </row>
-    <row r="488">
+    <row r="488" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C488" s="5"/>
       <c r="D488" s="5"/>
     </row>
-    <row r="489">
+    <row r="489" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C489" s="5"/>
       <c r="D489" s="5"/>
     </row>
-    <row r="490">
+    <row r="490" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C490" s="5"/>
       <c r="D490" s="5"/>
     </row>
-    <row r="491">
+    <row r="491" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C491" s="5"/>
       <c r="D491" s="5"/>
     </row>
-    <row r="492">
+    <row r="492" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C492" s="5"/>
       <c r="D492" s="5"/>
     </row>
-    <row r="493">
+    <row r="493" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C493" s="5"/>
       <c r="D493" s="5"/>
     </row>
-    <row r="494">
+    <row r="494" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C494" s="5"/>
       <c r="D494" s="5"/>
     </row>
-    <row r="495">
+    <row r="495" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C495" s="5"/>
       <c r="D495" s="5"/>
     </row>
-    <row r="496">
+    <row r="496" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C496" s="5"/>
       <c r="D496" s="5"/>
     </row>
-    <row r="497">
+    <row r="497" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C497" s="5"/>
       <c r="D497" s="5"/>
     </row>
-    <row r="498">
+    <row r="498" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C498" s="5"/>
       <c r="D498" s="5"/>
     </row>
-    <row r="499">
+    <row r="499" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C499" s="5"/>
       <c r="D499" s="5"/>
     </row>
-    <row r="500">
+    <row r="500" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C500" s="5"/>
       <c r="D500" s="5"/>
     </row>
-    <row r="501">
+    <row r="501" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C501" s="5"/>
       <c r="D501" s="5"/>
     </row>
-    <row r="502">
+    <row r="502" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C502" s="5"/>
       <c r="D502" s="5"/>
     </row>
-    <row r="503">
+    <row r="503" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C503" s="5"/>
       <c r="D503" s="5"/>
     </row>
-    <row r="504">
+    <row r="504" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C504" s="5"/>
       <c r="D504" s="5"/>
     </row>
-    <row r="505">
+    <row r="505" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C505" s="5"/>
       <c r="D505" s="5"/>
     </row>
-    <row r="506">
+    <row r="506" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C506" s="5"/>
       <c r="D506" s="5"/>
     </row>
-    <row r="507">
+    <row r="507" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C507" s="5"/>
       <c r="D507" s="5"/>
     </row>
-    <row r="508">
+    <row r="508" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C508" s="5"/>
       <c r="D508" s="5"/>
     </row>
-    <row r="509">
+    <row r="509" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C509" s="5"/>
       <c r="D509" s="5"/>
     </row>
-    <row r="510">
+    <row r="510" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C510" s="5"/>
       <c r="D510" s="5"/>
     </row>
-    <row r="511">
+    <row r="511" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C511" s="5"/>
       <c r="D511" s="5"/>
     </row>
-    <row r="512">
+    <row r="512" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C512" s="5"/>
       <c r="D512" s="5"/>
     </row>
-    <row r="513">
+    <row r="513" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C513" s="5"/>
       <c r="D513" s="5"/>
     </row>
-    <row r="514">
+    <row r="514" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C514" s="5"/>
       <c r="D514" s="5"/>
     </row>
-    <row r="515">
+    <row r="515" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C515" s="5"/>
       <c r="D515" s="5"/>
     </row>
-    <row r="516">
+    <row r="516" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C516" s="5"/>
       <c r="D516" s="5"/>
     </row>
-    <row r="517">
+    <row r="517" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C517" s="5"/>
       <c r="D517" s="5"/>
     </row>
-    <row r="518">
+    <row r="518" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C518" s="5"/>
       <c r="D518" s="5"/>
     </row>
-    <row r="519">
+    <row r="519" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C519" s="5"/>
       <c r="D519" s="5"/>
     </row>
-    <row r="520">
+    <row r="520" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C520" s="5"/>
       <c r="D520" s="5"/>
     </row>
-    <row r="521">
+    <row r="521" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C521" s="5"/>
       <c r="D521" s="5"/>
     </row>
-    <row r="522">
+    <row r="522" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C522" s="5"/>
       <c r="D522" s="5"/>
     </row>
-    <row r="523">
+    <row r="523" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C523" s="5"/>
       <c r="D523" s="5"/>
     </row>
-    <row r="524">
+    <row r="524" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C524" s="5"/>
       <c r="D524" s="5"/>
     </row>
-    <row r="525">
+    <row r="525" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C525" s="5"/>
       <c r="D525" s="5"/>
     </row>
-    <row r="526">
+    <row r="526" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C526" s="5"/>
       <c r="D526" s="5"/>
     </row>
-    <row r="527">
+    <row r="527" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C527" s="5"/>
       <c r="D527" s="5"/>
     </row>
-    <row r="528">
+    <row r="528" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C528" s="5"/>
       <c r="D528" s="5"/>
     </row>
-    <row r="529">
+    <row r="529" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C529" s="5"/>
       <c r="D529" s="5"/>
     </row>
-    <row r="530">
+    <row r="530" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C530" s="5"/>
       <c r="D530" s="5"/>
     </row>
-    <row r="531">
+    <row r="531" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C531" s="5"/>
       <c r="D531" s="5"/>
     </row>
-    <row r="532">
+    <row r="532" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C532" s="5"/>
       <c r="D532" s="5"/>
     </row>
-    <row r="533">
+    <row r="533" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C533" s="5"/>
       <c r="D533" s="5"/>
     </row>
-    <row r="534">
+    <row r="534" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C534" s="5"/>
       <c r="D534" s="5"/>
     </row>
-    <row r="535">
+    <row r="535" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C535" s="5"/>
       <c r="D535" s="5"/>
     </row>
-    <row r="536">
+    <row r="536" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C536" s="5"/>
       <c r="D536" s="5"/>
     </row>
-    <row r="537">
+    <row r="537" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C537" s="5"/>
       <c r="D537" s="5"/>
     </row>
-    <row r="538">
+    <row r="538" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C538" s="5"/>
       <c r="D538" s="5"/>
     </row>
-    <row r="539">
+    <row r="539" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C539" s="5"/>
       <c r="D539" s="5"/>
     </row>
-    <row r="540">
+    <row r="540" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C540" s="5"/>
       <c r="D540" s="5"/>
     </row>
-    <row r="541">
+    <row r="541" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C541" s="5"/>
       <c r="D541" s="5"/>
     </row>
-    <row r="542">
+    <row r="542" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C542" s="5"/>
       <c r="D542" s="5"/>
     </row>
-    <row r="543">
+    <row r="543" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C543" s="5"/>
       <c r="D543" s="5"/>
     </row>
-    <row r="544">
+    <row r="544" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C544" s="5"/>
       <c r="D544" s="5"/>
     </row>
-    <row r="545">
+    <row r="545" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C545" s="5"/>
       <c r="D545" s="5"/>
     </row>
-    <row r="546">
+    <row r="546" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C546" s="5"/>
       <c r="D546" s="5"/>
     </row>
-    <row r="547">
+    <row r="547" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C547" s="5"/>
       <c r="D547" s="5"/>
     </row>
-    <row r="548">
+    <row r="548" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C548" s="5"/>
       <c r="D548" s="5"/>
     </row>
-    <row r="549">
+    <row r="549" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C549" s="5"/>
       <c r="D549" s="5"/>
     </row>
-    <row r="550">
+    <row r="550" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C550" s="5"/>
       <c r="D550" s="5"/>
     </row>
-    <row r="551">
+    <row r="551" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C551" s="5"/>
       <c r="D551" s="5"/>
     </row>
-    <row r="552">
+    <row r="552" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C552" s="5"/>
       <c r="D552" s="5"/>
     </row>
-    <row r="553">
+    <row r="553" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C553" s="5"/>
       <c r="D553" s="5"/>
     </row>
-    <row r="554">
+    <row r="554" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C554" s="5"/>
       <c r="D554" s="5"/>
     </row>
-    <row r="555">
+    <row r="555" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C555" s="5"/>
       <c r="D555" s="5"/>
     </row>
-    <row r="556">
+    <row r="556" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C556" s="5"/>
       <c r="D556" s="5"/>
     </row>
-    <row r="557">
+    <row r="557" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C557" s="5"/>
       <c r="D557" s="5"/>
     </row>
-    <row r="558">
+    <row r="558" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C558" s="5"/>
       <c r="D558" s="5"/>
     </row>
-    <row r="559">
+    <row r="559" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C559" s="5"/>
       <c r="D559" s="5"/>
     </row>
-    <row r="560">
+    <row r="560" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C560" s="5"/>
       <c r="D560" s="5"/>
     </row>
-    <row r="561">
+    <row r="561" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C561" s="5"/>
       <c r="D561" s="5"/>
     </row>
-    <row r="562">
+    <row r="562" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C562" s="5"/>
       <c r="D562" s="5"/>
     </row>
-    <row r="563">
+    <row r="563" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C563" s="5"/>
       <c r="D563" s="5"/>
     </row>
-    <row r="564">
+    <row r="564" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C564" s="5"/>
       <c r="D564" s="5"/>
     </row>
-    <row r="565">
+    <row r="565" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C565" s="5"/>
       <c r="D565" s="5"/>
     </row>
-    <row r="566">
+    <row r="566" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C566" s="5"/>
       <c r="D566" s="5"/>
     </row>
-    <row r="567">
+    <row r="567" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C567" s="5"/>
       <c r="D567" s="5"/>
     </row>
-    <row r="568">
+    <row r="568" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C568" s="5"/>
       <c r="D568" s="5"/>
     </row>
-    <row r="569">
+    <row r="569" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C569" s="5"/>
       <c r="D569" s="5"/>
     </row>
-    <row r="570">
+    <row r="570" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C570" s="5"/>
       <c r="D570" s="5"/>
     </row>
-    <row r="571">
+    <row r="571" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C571" s="5"/>
       <c r="D571" s="5"/>
     </row>
-    <row r="572">
+    <row r="572" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C572" s="5"/>
       <c r="D572" s="5"/>
     </row>
-    <row r="573">
+    <row r="573" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C573" s="5"/>
       <c r="D573" s="5"/>
     </row>
-    <row r="574">
+    <row r="574" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C574" s="5"/>
       <c r="D574" s="5"/>
     </row>
-    <row r="575">
+    <row r="575" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C575" s="5"/>
       <c r="D575" s="5"/>
     </row>
-    <row r="576">
+    <row r="576" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C576" s="5"/>
       <c r="D576" s="5"/>
     </row>
-    <row r="577">
+    <row r="577" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C577" s="5"/>
       <c r="D577" s="5"/>
     </row>
-    <row r="578">
+    <row r="578" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C578" s="5"/>
       <c r="D578" s="5"/>
     </row>
-    <row r="579">
+    <row r="579" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C579" s="5"/>
       <c r="D579" s="5"/>
     </row>
-    <row r="580">
+    <row r="580" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C580" s="5"/>
       <c r="D580" s="5"/>
     </row>
-    <row r="581">
+    <row r="581" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C581" s="5"/>
       <c r="D581" s="5"/>
     </row>
-    <row r="582">
+    <row r="582" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C582" s="5"/>
       <c r="D582" s="5"/>
     </row>
-    <row r="583">
+    <row r="583" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C583" s="5"/>
       <c r="D583" s="5"/>
     </row>
-    <row r="584">
+    <row r="584" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C584" s="5"/>
       <c r="D584" s="5"/>
     </row>
-    <row r="585">
+    <row r="585" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C585" s="5"/>
       <c r="D585" s="5"/>
     </row>
-    <row r="586">
+    <row r="586" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C586" s="5"/>
       <c r="D586" s="5"/>
     </row>
-    <row r="587">
+    <row r="587" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C587" s="5"/>
       <c r="D587" s="5"/>
     </row>
-    <row r="588">
+    <row r="588" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C588" s="5"/>
       <c r="D588" s="5"/>
     </row>
-    <row r="589">
+    <row r="589" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C589" s="5"/>
       <c r="D589" s="5"/>
     </row>
-    <row r="590">
+    <row r="590" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C590" s="5"/>
       <c r="D590" s="5"/>
     </row>
-    <row r="591">
+    <row r="591" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C591" s="5"/>
       <c r="D591" s="5"/>
     </row>
-    <row r="592">
+    <row r="592" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C592" s="5"/>
       <c r="D592" s="5"/>
     </row>
-    <row r="593">
+    <row r="593" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C593" s="5"/>
       <c r="D593" s="5"/>
     </row>
-    <row r="594">
+    <row r="594" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C594" s="5"/>
       <c r="D594" s="5"/>
     </row>
-    <row r="595">
+    <row r="595" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C595" s="5"/>
       <c r="D595" s="5"/>
     </row>
-    <row r="596">
+    <row r="596" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C596" s="5"/>
       <c r="D596" s="5"/>
     </row>
-    <row r="597">
+    <row r="597" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C597" s="5"/>
       <c r="D597" s="5"/>
     </row>
-    <row r="598">
+    <row r="598" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C598" s="5"/>
       <c r="D598" s="5"/>
     </row>
-    <row r="599">
+    <row r="599" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C599" s="5"/>
       <c r="D599" s="5"/>
     </row>
-    <row r="600">
+    <row r="600" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C600" s="5"/>
       <c r="D600" s="5"/>
     </row>
-    <row r="601">
+    <row r="601" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C601" s="5"/>
       <c r="D601" s="5"/>
     </row>
-    <row r="602">
+    <row r="602" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C602" s="5"/>
       <c r="D602" s="5"/>
     </row>
-    <row r="603">
+    <row r="603" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C603" s="5"/>
       <c r="D603" s="5"/>
     </row>
-    <row r="604">
+    <row r="604" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C604" s="5"/>
       <c r="D604" s="5"/>
     </row>
-    <row r="605">
+    <row r="605" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C605" s="5"/>
       <c r="D605" s="5"/>
     </row>
-    <row r="606">
+    <row r="606" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C606" s="5"/>
       <c r="D606" s="5"/>
     </row>
-    <row r="607">
+    <row r="607" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C607" s="5"/>
       <c r="D607" s="5"/>
     </row>
-    <row r="608">
+    <row r="608" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C608" s="5"/>
       <c r="D608" s="5"/>
     </row>
-    <row r="609">
+    <row r="609" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C609" s="5"/>
       <c r="D609" s="5"/>
     </row>
-    <row r="610">
+    <row r="610" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C610" s="5"/>
       <c r="D610" s="5"/>
     </row>
-    <row r="611">
+    <row r="611" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C611" s="5"/>
       <c r="D611" s="5"/>
     </row>
-    <row r="612">
+    <row r="612" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C612" s="5"/>
       <c r="D612" s="5"/>
     </row>
-    <row r="613">
+    <row r="613" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C613" s="5"/>
       <c r="D613" s="5"/>
     </row>
-    <row r="614">
+    <row r="614" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C614" s="5"/>
       <c r="D614" s="5"/>
     </row>
-    <row r="615">
+    <row r="615" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C615" s="5"/>
       <c r="D615" s="5"/>
     </row>
-    <row r="616">
+    <row r="616" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C616" s="5"/>
       <c r="D616" s="5"/>
     </row>
-    <row r="617">
+    <row r="617" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C617" s="5"/>
       <c r="D617" s="5"/>
     </row>
-    <row r="618">
+    <row r="618" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C618" s="5"/>
       <c r="D618" s="5"/>
     </row>
-    <row r="619">
+    <row r="619" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C619" s="5"/>
       <c r="D619" s="5"/>
     </row>
-    <row r="620">
+    <row r="620" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C620" s="5"/>
       <c r="D620" s="5"/>
     </row>
-    <row r="621">
+    <row r="621" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C621" s="5"/>
       <c r="D621" s="5"/>
     </row>
-    <row r="622">
+    <row r="622" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C622" s="5"/>
       <c r="D622" s="5"/>
     </row>
-    <row r="623">
+    <row r="623" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C623" s="5"/>
       <c r="D623" s="5"/>
     </row>
-    <row r="624">
+    <row r="624" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C624" s="5"/>
       <c r="D624" s="5"/>
     </row>
-    <row r="625">
+    <row r="625" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C625" s="5"/>
       <c r="D625" s="5"/>
     </row>
-    <row r="626">
+    <row r="626" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C626" s="5"/>
       <c r="D626" s="5"/>
     </row>
-    <row r="627">
+    <row r="627" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C627" s="5"/>
       <c r="D627" s="5"/>
     </row>
-    <row r="628">
+    <row r="628" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C628" s="5"/>
       <c r="D628" s="5"/>
     </row>
-    <row r="629">
+    <row r="629" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C629" s="5"/>
       <c r="D629" s="5"/>
     </row>
-    <row r="630">
+    <row r="630" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C630" s="5"/>
       <c r="D630" s="5"/>
     </row>
-    <row r="631">
+    <row r="631" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C631" s="5"/>
       <c r="D631" s="5"/>
     </row>
-    <row r="632">
+    <row r="632" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C632" s="5"/>
       <c r="D632" s="5"/>
     </row>
-    <row r="633">
+    <row r="633" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C633" s="5"/>
       <c r="D633" s="5"/>
     </row>
-    <row r="634">
+    <row r="634" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C634" s="5"/>
       <c r="D634" s="5"/>
     </row>
-    <row r="635">
+    <row r="635" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C635" s="5"/>
       <c r="D635" s="5"/>
     </row>
-    <row r="636">
+    <row r="636" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C636" s="5"/>
       <c r="D636" s="5"/>
     </row>
-    <row r="637">
+    <row r="637" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C637" s="5"/>
       <c r="D637" s="5"/>
     </row>
-    <row r="638">
+    <row r="638" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C638" s="5"/>
       <c r="D638" s="5"/>
     </row>
-    <row r="639">
+    <row r="639" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C639" s="5"/>
       <c r="D639" s="5"/>
     </row>
-    <row r="640">
+    <row r="640" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C640" s="5"/>
       <c r="D640" s="5"/>
     </row>
-    <row r="641">
+    <row r="641" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C641" s="5"/>
       <c r="D641" s="5"/>
     </row>
-    <row r="642">
+    <row r="642" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C642" s="5"/>
       <c r="D642" s="5"/>
     </row>
-    <row r="643">
+    <row r="643" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C643" s="5"/>
       <c r="D643" s="5"/>
     </row>
-    <row r="644">
+    <row r="644" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C644" s="5"/>
       <c r="D644" s="5"/>
     </row>
-    <row r="645">
+    <row r="645" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C645" s="5"/>
       <c r="D645" s="5"/>
     </row>
-    <row r="646">
+    <row r="646" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C646" s="5"/>
       <c r="D646" s="5"/>
     </row>
-    <row r="647">
+    <row r="647" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C647" s="5"/>
       <c r="D647" s="5"/>
     </row>
-    <row r="648">
+    <row r="648" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C648" s="5"/>
       <c r="D648" s="5"/>
     </row>
-    <row r="649">
+    <row r="649" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C649" s="5"/>
       <c r="D649" s="5"/>
     </row>
-    <row r="650">
+    <row r="650" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C650" s="5"/>
       <c r="D650" s="5"/>
     </row>
-    <row r="651">
+    <row r="651" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C651" s="5"/>
       <c r="D651" s="5"/>
     </row>
-    <row r="652">
+    <row r="652" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C652" s="5"/>
       <c r="D652" s="5"/>
     </row>
-    <row r="653">
+    <row r="653" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C653" s="5"/>
       <c r="D653" s="5"/>
     </row>
-    <row r="654">
+    <row r="654" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C654" s="5"/>
       <c r="D654" s="5"/>
     </row>
-    <row r="655">
+    <row r="655" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C655" s="5"/>
       <c r="D655" s="5"/>
     </row>
-    <row r="656">
+    <row r="656" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C656" s="5"/>
       <c r="D656" s="5"/>
     </row>
-    <row r="657">
+    <row r="657" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C657" s="5"/>
       <c r="D657" s="5"/>
     </row>
-    <row r="658">
+    <row r="658" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C658" s="5"/>
       <c r="D658" s="5"/>
     </row>
-    <row r="659">
+    <row r="659" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C659" s="5"/>
       <c r="D659" s="5"/>
     </row>
-    <row r="660">
+    <row r="660" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C660" s="5"/>
       <c r="D660" s="5"/>
     </row>
-    <row r="661">
+    <row r="661" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C661" s="5"/>
       <c r="D661" s="5"/>
     </row>
-    <row r="662">
+    <row r="662" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C662" s="5"/>
       <c r="D662" s="5"/>
     </row>
-    <row r="663">
+    <row r="663" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C663" s="5"/>
       <c r="D663" s="5"/>
     </row>
-    <row r="664">
+    <row r="664" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C664" s="5"/>
       <c r="D664" s="5"/>
     </row>
-    <row r="665">
+    <row r="665" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C665" s="5"/>
       <c r="D665" s="5"/>
     </row>
-    <row r="666">
+    <row r="666" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C666" s="5"/>
       <c r="D666" s="5"/>
     </row>
-    <row r="667">
+    <row r="667" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C667" s="5"/>
       <c r="D667" s="5"/>
     </row>
-    <row r="668">
+    <row r="668" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C668" s="5"/>
       <c r="D668" s="5"/>
     </row>
-    <row r="669">
+    <row r="669" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C669" s="5"/>
       <c r="D669" s="5"/>
     </row>
-    <row r="670">
+    <row r="670" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C670" s="5"/>
       <c r="D670" s="5"/>
     </row>
-    <row r="671">
+    <row r="671" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C671" s="5"/>
       <c r="D671" s="5"/>
     </row>
-    <row r="672">
+    <row r="672" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C672" s="5"/>
       <c r="D672" s="5"/>
     </row>
-    <row r="673">
+    <row r="673" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C673" s="5"/>
       <c r="D673" s="5"/>
     </row>
-    <row r="674">
+    <row r="674" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C674" s="5"/>
       <c r="D674" s="5"/>
     </row>
-    <row r="675">
+    <row r="675" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C675" s="5"/>
       <c r="D675" s="5"/>
     </row>
-    <row r="676">
+    <row r="676" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C676" s="5"/>
       <c r="D676" s="5"/>
     </row>
-    <row r="677">
+    <row r="677" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C677" s="5"/>
       <c r="D677" s="5"/>
     </row>
-    <row r="678">
+    <row r="678" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C678" s="5"/>
       <c r="D678" s="5"/>
     </row>
-    <row r="679">
+    <row r="679" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C679" s="5"/>
       <c r="D679" s="5"/>
     </row>
-    <row r="680">
+    <row r="680" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C680" s="5"/>
       <c r="D680" s="5"/>
     </row>
-    <row r="681">
+    <row r="681" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C681" s="5"/>
       <c r="D681" s="5"/>
     </row>
-    <row r="682">
+    <row r="682" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C682" s="5"/>
       <c r="D682" s="5"/>
     </row>
-    <row r="683">
+    <row r="683" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C683" s="5"/>
       <c r="D683" s="5"/>
     </row>
-    <row r="684">
+    <row r="684" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C684" s="5"/>
       <c r="D684" s="5"/>
     </row>
-    <row r="685">
+    <row r="685" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C685" s="5"/>
       <c r="D685" s="5"/>
     </row>
-    <row r="686">
+    <row r="686" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C686" s="5"/>
       <c r="D686" s="5"/>
     </row>
-    <row r="687">
+    <row r="687" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C687" s="5"/>
       <c r="D687" s="5"/>
     </row>
-    <row r="688">
+    <row r="688" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C688" s="5"/>
       <c r="D688" s="5"/>
     </row>
-    <row r="689">
+    <row r="689" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C689" s="5"/>
       <c r="D689" s="5"/>
     </row>
-    <row r="690">
+    <row r="690" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C690" s="5"/>
       <c r="D690" s="5"/>
     </row>
-    <row r="691">
+    <row r="691" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C691" s="5"/>
       <c r="D691" s="5"/>
     </row>
-    <row r="692">
+    <row r="692" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C692" s="5"/>
       <c r="D692" s="5"/>
     </row>
-    <row r="693">
+    <row r="693" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C693" s="5"/>
       <c r="D693" s="5"/>
     </row>
-    <row r="694">
+    <row r="694" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C694" s="5"/>
       <c r="D694" s="5"/>
     </row>
-    <row r="695">
+    <row r="695" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C695" s="5"/>
       <c r="D695" s="5"/>
     </row>
-    <row r="696">
+    <row r="696" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C696" s="5"/>
       <c r="D696" s="5"/>
     </row>
-    <row r="697">
+    <row r="697" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C697" s="5"/>
       <c r="D697" s="5"/>
     </row>
-    <row r="698">
+    <row r="698" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C698" s="5"/>
       <c r="D698" s="5"/>
     </row>
-    <row r="699">
+    <row r="699" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C699" s="5"/>
       <c r="D699" s="5"/>
     </row>
-    <row r="700">
+    <row r="700" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C700" s="5"/>
       <c r="D700" s="5"/>
     </row>
-    <row r="701">
+    <row r="701" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C701" s="5"/>
       <c r="D701" s="5"/>
     </row>
-    <row r="702">
+    <row r="702" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C702" s="5"/>
       <c r="D702" s="5"/>
     </row>
-    <row r="703">
+    <row r="703" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C703" s="5"/>
       <c r="D703" s="5"/>
     </row>
-    <row r="704">
+    <row r="704" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C704" s="5"/>
       <c r="D704" s="5"/>
     </row>
-    <row r="705">
+    <row r="705" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C705" s="5"/>
       <c r="D705" s="5"/>
     </row>
-    <row r="706">
+    <row r="706" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C706" s="5"/>
       <c r="D706" s="5"/>
     </row>
-    <row r="707">
+    <row r="707" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C707" s="5"/>
       <c r="D707" s="5"/>
     </row>
-    <row r="708">
+    <row r="708" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C708" s="5"/>
       <c r="D708" s="5"/>
     </row>
-    <row r="709">
+    <row r="709" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C709" s="5"/>
       <c r="D709" s="5"/>
     </row>
-    <row r="710">
+    <row r="710" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C710" s="5"/>
       <c r="D710" s="5"/>
     </row>
-    <row r="711">
+    <row r="711" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C711" s="5"/>
       <c r="D711" s="5"/>
     </row>
-    <row r="712">
+    <row r="712" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C712" s="5"/>
       <c r="D712" s="5"/>
     </row>
-    <row r="713">
+    <row r="713" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C713" s="5"/>
       <c r="D713" s="5"/>
     </row>
-    <row r="714">
+    <row r="714" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C714" s="5"/>
       <c r="D714" s="5"/>
     </row>
-    <row r="715">
+    <row r="715" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C715" s="5"/>
       <c r="D715" s="5"/>
     </row>
-    <row r="716">
+    <row r="716" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C716" s="5"/>
       <c r="D716" s="5"/>
     </row>
-    <row r="717">
+    <row r="717" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C717" s="5"/>
       <c r="D717" s="5"/>
     </row>
-    <row r="718">
+    <row r="718" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C718" s="5"/>
       <c r="D718" s="5"/>
     </row>
-    <row r="719">
+    <row r="719" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C719" s="5"/>
       <c r="D719" s="5"/>
     </row>
-    <row r="720">
+    <row r="720" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C720" s="5"/>
       <c r="D720" s="5"/>
     </row>
-    <row r="721">
+    <row r="721" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C721" s="5"/>
       <c r="D721" s="5"/>
     </row>
-    <row r="722">
+    <row r="722" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C722" s="5"/>
       <c r="D722" s="5"/>
     </row>
-    <row r="723">
+    <row r="723" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C723" s="5"/>
       <c r="D723" s="5"/>
     </row>
-    <row r="724">
+    <row r="724" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C724" s="5"/>
       <c r="D724" s="5"/>
     </row>
-    <row r="725">
+    <row r="725" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C725" s="5"/>
       <c r="D725" s="5"/>
     </row>
-    <row r="726">
+    <row r="726" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C726" s="5"/>
       <c r="D726" s="5"/>
     </row>
-    <row r="727">
+    <row r="727" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C727" s="5"/>
       <c r="D727" s="5"/>
     </row>
-    <row r="728">
+    <row r="728" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C728" s="5"/>
       <c r="D728" s="5"/>
     </row>
-    <row r="729">
+    <row r="729" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C729" s="5"/>
       <c r="D729" s="5"/>
     </row>
-    <row r="730">
+    <row r="730" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C730" s="5"/>
       <c r="D730" s="5"/>
     </row>
-    <row r="731">
+    <row r="731" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C731" s="5"/>
       <c r="D731" s="5"/>
     </row>
-    <row r="732">
+    <row r="732" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C732" s="5"/>
       <c r="D732" s="5"/>
     </row>
-    <row r="733">
+    <row r="733" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C733" s="5"/>
       <c r="D733" s="5"/>
     </row>
-    <row r="734">
+    <row r="734" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C734" s="5"/>
       <c r="D734" s="5"/>
     </row>
-    <row r="735">
+    <row r="735" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C735" s="5"/>
       <c r="D735" s="5"/>
     </row>
-    <row r="736">
+    <row r="736" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C736" s="5"/>
       <c r="D736" s="5"/>
     </row>
-    <row r="737">
+    <row r="737" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C737" s="5"/>
       <c r="D737" s="5"/>
     </row>
-    <row r="738">
+    <row r="738" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C738" s="5"/>
       <c r="D738" s="5"/>
     </row>
-    <row r="739">
+    <row r="739" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C739" s="5"/>
       <c r="D739" s="5"/>
     </row>
-    <row r="740">
+    <row r="740" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C740" s="5"/>
       <c r="D740" s="5"/>
     </row>
-    <row r="741">
+    <row r="741" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C741" s="5"/>
       <c r="D741" s="5"/>
     </row>
-    <row r="742">
+    <row r="742" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C742" s="5"/>
       <c r="D742" s="5"/>
     </row>
-    <row r="743">
+    <row r="743" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C743" s="5"/>
       <c r="D743" s="5"/>
     </row>
-    <row r="744">
+    <row r="744" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C744" s="5"/>
       <c r="D744" s="5"/>
     </row>
-    <row r="745">
+    <row r="745" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C745" s="5"/>
       <c r="D745" s="5"/>
     </row>
-    <row r="746">
+    <row r="746" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C746" s="5"/>
       <c r="D746" s="5"/>
     </row>
-    <row r="747">
+    <row r="747" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C747" s="5"/>
       <c r="D747" s="5"/>
     </row>
-    <row r="748">
+    <row r="748" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C748" s="5"/>
       <c r="D748" s="5"/>
     </row>
-    <row r="749">
+    <row r="749" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C749" s="5"/>
       <c r="D749" s="5"/>
     </row>
-    <row r="750">
+    <row r="750" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C750" s="5"/>
       <c r="D750" s="5"/>
     </row>
-    <row r="751">
+    <row r="751" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C751" s="5"/>
       <c r="D751" s="5"/>
     </row>
-    <row r="752">
+    <row r="752" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C752" s="5"/>
       <c r="D752" s="5"/>
     </row>
-    <row r="753">
+    <row r="753" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C753" s="5"/>
       <c r="D753" s="5"/>
     </row>
-    <row r="754">
+    <row r="754" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C754" s="5"/>
       <c r="D754" s="5"/>
     </row>
-    <row r="755">
+    <row r="755" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C755" s="5"/>
       <c r="D755" s="5"/>
     </row>
-    <row r="756">
+    <row r="756" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C756" s="5"/>
       <c r="D756" s="5"/>
     </row>
-    <row r="757">
+    <row r="757" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C757" s="5"/>
       <c r="D757" s="5"/>
     </row>
-    <row r="758">
+    <row r="758" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C758" s="5"/>
       <c r="D758" s="5"/>
     </row>
-    <row r="759">
+    <row r="759" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C759" s="5"/>
       <c r="D759" s="5"/>
     </row>
-    <row r="760">
+    <row r="760" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C760" s="5"/>
       <c r="D760" s="5"/>
     </row>
-    <row r="761">
+    <row r="761" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C761" s="5"/>
       <c r="D761" s="5"/>
     </row>
-    <row r="762">
+    <row r="762" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C762" s="5"/>
       <c r="D762" s="5"/>
     </row>
-    <row r="763">
+    <row r="763" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C763" s="5"/>
       <c r="D763" s="5"/>
     </row>
-    <row r="764">
+    <row r="764" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C764" s="5"/>
       <c r="D764" s="5"/>
     </row>
-    <row r="765">
+    <row r="765" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C765" s="5"/>
       <c r="D765" s="5"/>
     </row>
-    <row r="766">
+    <row r="766" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C766" s="5"/>
       <c r="D766" s="5"/>
     </row>
-    <row r="767">
+    <row r="767" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C767" s="5"/>
       <c r="D767" s="5"/>
     </row>
-    <row r="768">
+    <row r="768" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C768" s="5"/>
       <c r="D768" s="5"/>
     </row>
-    <row r="769">
+    <row r="769" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C769" s="5"/>
       <c r="D769" s="5"/>
     </row>
-    <row r="770">
+    <row r="770" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C770" s="5"/>
       <c r="D770" s="5"/>
     </row>
-    <row r="771">
+    <row r="771" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C771" s="5"/>
       <c r="D771" s="5"/>
     </row>
-    <row r="772">
+    <row r="772" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C772" s="5"/>
       <c r="D772" s="5"/>
     </row>
-    <row r="773">
+    <row r="773" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C773" s="5"/>
       <c r="D773" s="5"/>
     </row>
-    <row r="774">
+    <row r="774" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C774" s="5"/>
       <c r="D774" s="5"/>
     </row>
-    <row r="775">
+    <row r="775" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C775" s="5"/>
       <c r="D775" s="5"/>
     </row>
-    <row r="776">
+    <row r="776" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C776" s="5"/>
       <c r="D776" s="5"/>
     </row>
-    <row r="777">
+    <row r="777" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C777" s="5"/>
       <c r="D777" s="5"/>
     </row>
-    <row r="778">
+    <row r="778" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C778" s="5"/>
       <c r="D778" s="5"/>
     </row>
-    <row r="779">
+    <row r="779" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C779" s="5"/>
       <c r="D779" s="5"/>
     </row>
-    <row r="780">
+    <row r="780" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C780" s="5"/>
       <c r="D780" s="5"/>
     </row>
-    <row r="781">
+    <row r="781" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C781" s="5"/>
       <c r="D781" s="5"/>
     </row>
-    <row r="782">
+    <row r="782" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C782" s="5"/>
       <c r="D782" s="5"/>
     </row>
-    <row r="783">
+    <row r="783" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C783" s="5"/>
       <c r="D783" s="5"/>
     </row>
-    <row r="784">
+    <row r="784" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C784" s="5"/>
       <c r="D784" s="5"/>
     </row>
-    <row r="785">
+    <row r="785" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C785" s="5"/>
       <c r="D785" s="5"/>
     </row>
-    <row r="786">
+    <row r="786" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C786" s="5"/>
       <c r="D786" s="5"/>
     </row>
-    <row r="787">
+    <row r="787" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C787" s="5"/>
       <c r="D787" s="5"/>
     </row>
-    <row r="788">
+    <row r="788" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C788" s="5"/>
       <c r="D788" s="5"/>
     </row>
-    <row r="789">
+    <row r="789" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C789" s="5"/>
       <c r="D789" s="5"/>
     </row>
-    <row r="790">
+    <row r="790" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C790" s="5"/>
       <c r="D790" s="5"/>
     </row>
-    <row r="791">
+    <row r="791" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C791" s="5"/>
       <c r="D791" s="5"/>
     </row>
-    <row r="792">
+    <row r="792" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C792" s="5"/>
       <c r="D792" s="5"/>
     </row>
-    <row r="793">
+    <row r="793" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C793" s="5"/>
       <c r="D793" s="5"/>
     </row>
-    <row r="794">
+    <row r="794" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C794" s="5"/>
       <c r="D794" s="5"/>
     </row>
-    <row r="795">
+    <row r="795" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C795" s="5"/>
       <c r="D795" s="5"/>
     </row>
-    <row r="796">
+    <row r="796" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C796" s="5"/>
       <c r="D796" s="5"/>
     </row>
-    <row r="797">
+    <row r="797" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C797" s="5"/>
       <c r="D797" s="5"/>
     </row>
-    <row r="798">
+    <row r="798" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C798" s="5"/>
       <c r="D798" s="5"/>
     </row>
-    <row r="799">
+    <row r="799" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C799" s="5"/>
       <c r="D799" s="5"/>
     </row>
-    <row r="800">
+    <row r="800" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C800" s="5"/>
       <c r="D800" s="5"/>
     </row>
-    <row r="801">
+    <row r="801" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C801" s="5"/>
       <c r="D801" s="5"/>
     </row>
-    <row r="802">
+    <row r="802" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C802" s="5"/>
       <c r="D802" s="5"/>
     </row>
-    <row r="803">
+    <row r="803" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C803" s="5"/>
       <c r="D803" s="5"/>
     </row>
-    <row r="804">
+    <row r="804" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C804" s="5"/>
       <c r="D804" s="5"/>
     </row>
-    <row r="805">
+    <row r="805" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C805" s="5"/>
       <c r="D805" s="5"/>
     </row>
-    <row r="806">
+    <row r="806" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C806" s="5"/>
       <c r="D806" s="5"/>
     </row>
-    <row r="807">
+    <row r="807" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C807" s="5"/>
       <c r="D807" s="5"/>
     </row>
-    <row r="808">
+    <row r="808" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C808" s="5"/>
       <c r="D808" s="5"/>
     </row>
-    <row r="809">
+    <row r="809" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C809" s="5"/>
       <c r="D809" s="5"/>
     </row>
-    <row r="810">
+    <row r="810" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C810" s="5"/>
       <c r="D810" s="5"/>
     </row>
-    <row r="811">
+    <row r="811" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C811" s="5"/>
       <c r="D811" s="5"/>
     </row>
-    <row r="812">
+    <row r="812" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C812" s="5"/>
       <c r="D812" s="5"/>
     </row>
-    <row r="813">
+    <row r="813" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C813" s="5"/>
       <c r="D813" s="5"/>
     </row>
-    <row r="814">
+    <row r="814" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C814" s="5"/>
       <c r="D814" s="5"/>
     </row>
-    <row r="815">
+    <row r="815" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C815" s="5"/>
       <c r="D815" s="5"/>
     </row>
-    <row r="816">
+    <row r="816" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C816" s="5"/>
       <c r="D816" s="5"/>
     </row>
-    <row r="817">
+    <row r="817" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C817" s="5"/>
       <c r="D817" s="5"/>
     </row>
-    <row r="818">
+    <row r="818" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C818" s="5"/>
       <c r="D818" s="5"/>
     </row>
-    <row r="819">
+    <row r="819" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C819" s="5"/>
       <c r="D819" s="5"/>
     </row>
-    <row r="820">
+    <row r="820" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C820" s="5"/>
       <c r="D820" s="5"/>
     </row>
-    <row r="821">
+    <row r="821" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C821" s="5"/>
       <c r="D821" s="5"/>
     </row>
-    <row r="822">
+    <row r="822" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C822" s="5"/>
       <c r="D822" s="5"/>
     </row>
-    <row r="823">
+    <row r="823" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C823" s="5"/>
       <c r="D823" s="5"/>
     </row>
-    <row r="824">
+    <row r="824" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C824" s="5"/>
       <c r="D824" s="5"/>
     </row>
-    <row r="825">
+    <row r="825" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C825" s="5"/>
       <c r="D825" s="5"/>
     </row>
-    <row r="826">
+    <row r="826" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C826" s="5"/>
       <c r="D826" s="5"/>
     </row>
-    <row r="827">
+    <row r="827" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C827" s="5"/>
       <c r="D827" s="5"/>
     </row>
-    <row r="828">
+    <row r="828" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C828" s="5"/>
       <c r="D828" s="5"/>
     </row>
-    <row r="829">
+    <row r="829" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C829" s="5"/>
       <c r="D829" s="5"/>
     </row>
-    <row r="830">
+    <row r="830" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C830" s="5"/>
       <c r="D830" s="5"/>
     </row>
-    <row r="831">
+    <row r="831" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C831" s="5"/>
       <c r="D831" s="5"/>
     </row>
-    <row r="832">
+    <row r="832" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C832" s="5"/>
       <c r="D832" s="5"/>
     </row>
-    <row r="833">
+    <row r="833" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C833" s="5"/>
       <c r="D833" s="5"/>
     </row>
-    <row r="834">
+    <row r="834" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C834" s="5"/>
       <c r="D834" s="5"/>
     </row>
-    <row r="835">
+    <row r="835" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C835" s="5"/>
       <c r="D835" s="5"/>
     </row>
-    <row r="836">
+    <row r="836" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C836" s="5"/>
       <c r="D836" s="5"/>
     </row>
-    <row r="837">
+    <row r="837" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C837" s="5"/>
       <c r="D837" s="5"/>
     </row>
-    <row r="838">
+    <row r="838" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C838" s="5"/>
       <c r="D838" s="5"/>
     </row>
-    <row r="839">
+    <row r="839" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C839" s="5"/>
       <c r="D839" s="5"/>
     </row>
-    <row r="840">
+    <row r="840" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C840" s="5"/>
       <c r="D840" s="5"/>
     </row>
-    <row r="841">
+    <row r="841" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C841" s="5"/>
       <c r="D841" s="5"/>
     </row>
-    <row r="842">
+    <row r="842" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C842" s="5"/>
       <c r="D842" s="5"/>
     </row>
-    <row r="843">
+    <row r="843" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C843" s="5"/>
       <c r="D843" s="5"/>
     </row>
-    <row r="844">
+    <row r="844" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C844" s="5"/>
       <c r="D844" s="5"/>
     </row>
-    <row r="845">
+    <row r="845" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C845" s="5"/>
       <c r="D845" s="5"/>
     </row>
-    <row r="846">
+    <row r="846" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C846" s="5"/>
       <c r="D846" s="5"/>
     </row>
-    <row r="847">
+    <row r="847" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C847" s="5"/>
       <c r="D847" s="5"/>
     </row>
-    <row r="848">
+    <row r="848" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C848" s="5"/>
       <c r="D848" s="5"/>
     </row>
-    <row r="849">
+    <row r="849" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C849" s="5"/>
       <c r="D849" s="5"/>
     </row>
-    <row r="850">
+    <row r="850" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C850" s="5"/>
       <c r="D850" s="5"/>
     </row>
-    <row r="851">
+    <row r="851" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C851" s="5"/>
       <c r="D851" s="5"/>
     </row>
-    <row r="852">
+    <row r="852" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C852" s="5"/>
       <c r="D852" s="5"/>
     </row>
-    <row r="853">
+    <row r="853" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C853" s="5"/>
       <c r="D853" s="5"/>
     </row>
-    <row r="854">
+    <row r="854" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C854" s="5"/>
       <c r="D854" s="5"/>
     </row>
-    <row r="855">
+    <row r="855" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C855" s="5"/>
       <c r="D855" s="5"/>
     </row>
-    <row r="856">
+    <row r="856" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C856" s="5"/>
       <c r="D856" s="5"/>
     </row>
-    <row r="857">
+    <row r="857" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C857" s="5"/>
       <c r="D857" s="5"/>
     </row>
-    <row r="858">
+    <row r="858" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C858" s="5"/>
       <c r="D858" s="5"/>
     </row>
-    <row r="859">
+    <row r="859" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C859" s="5"/>
       <c r="D859" s="5"/>
     </row>
-    <row r="860">
+    <row r="860" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C860" s="5"/>
       <c r="D860" s="5"/>
     </row>
-    <row r="861">
+    <row r="861" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C861" s="5"/>
       <c r="D861" s="5"/>
     </row>
-    <row r="862">
+    <row r="862" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C862" s="5"/>
       <c r="D862" s="5"/>
     </row>
-    <row r="863">
+    <row r="863" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C863" s="5"/>
       <c r="D863" s="5"/>
     </row>
-    <row r="864">
+    <row r="864" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C864" s="5"/>
       <c r="D864" s="5"/>
     </row>
-    <row r="865">
+    <row r="865" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C865" s="5"/>
       <c r="D865" s="5"/>
     </row>
-    <row r="866">
+    <row r="866" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C866" s="5"/>
       <c r="D866" s="5"/>
     </row>
-    <row r="867">
+    <row r="867" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C867" s="5"/>
       <c r="D867" s="5"/>
     </row>
-    <row r="868">
+    <row r="868" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C868" s="5"/>
       <c r="D868" s="5"/>
     </row>
-    <row r="869">
+    <row r="869" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C869" s="5"/>
       <c r="D869" s="5"/>
     </row>
-    <row r="870">
+    <row r="870" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C870" s="5"/>
       <c r="D870" s="5"/>
     </row>
-    <row r="871">
+    <row r="871" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C871" s="5"/>
       <c r="D871" s="5"/>
     </row>
-    <row r="872">
+    <row r="872" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C872" s="5"/>
       <c r="D872" s="5"/>
     </row>
-    <row r="873">
+    <row r="873" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C873" s="5"/>
       <c r="D873" s="5"/>
     </row>
-    <row r="874">
+    <row r="874" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C874" s="5"/>
       <c r="D874" s="5"/>
     </row>
-    <row r="875">
+    <row r="875" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C875" s="5"/>
       <c r="D875" s="5"/>
     </row>
-    <row r="876">
+    <row r="876" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C876" s="5"/>
       <c r="D876" s="5"/>
     </row>
-    <row r="877">
+    <row r="877" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C877" s="5"/>
       <c r="D877" s="5"/>
     </row>
-    <row r="878">
+    <row r="878" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C878" s="5"/>
       <c r="D878" s="5"/>
     </row>
-    <row r="879">
+    <row r="879" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C879" s="5"/>
       <c r="D879" s="5"/>
     </row>
-    <row r="880">
+    <row r="880" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C880" s="5"/>
       <c r="D880" s="5"/>
     </row>
-    <row r="881">
+    <row r="881" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C881" s="5"/>
       <c r="D881" s="5"/>
     </row>
-    <row r="882">
+    <row r="882" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C882" s="5"/>
       <c r="D882" s="5"/>
     </row>
-    <row r="883">
+    <row r="883" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C883" s="5"/>
       <c r="D883" s="5"/>
     </row>
-    <row r="884">
+    <row r="884" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C884" s="5"/>
       <c r="D884" s="5"/>
     </row>
-    <row r="885">
+    <row r="885" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C885" s="5"/>
       <c r="D885" s="5"/>
     </row>
-    <row r="886">
+    <row r="886" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C886" s="5"/>
       <c r="D886" s="5"/>
     </row>
-    <row r="887">
+    <row r="887" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C887" s="5"/>
       <c r="D887" s="5"/>
     </row>
-    <row r="888">
+    <row r="888" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C888" s="5"/>
       <c r="D888" s="5"/>
     </row>
-    <row r="889">
+    <row r="889" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C889" s="5"/>
       <c r="D889" s="5"/>
     </row>
-    <row r="890">
+    <row r="890" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C890" s="5"/>
       <c r="D890" s="5"/>
     </row>
-    <row r="891">
+    <row r="891" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C891" s="5"/>
       <c r="D891" s="5"/>
     </row>
-    <row r="892">
+    <row r="892" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C892" s="5"/>
       <c r="D892" s="5"/>
     </row>
-    <row r="893">
+    <row r="893" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C893" s="5"/>
       <c r="D893" s="5"/>
     </row>
-    <row r="894">
+    <row r="894" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C894" s="5"/>
       <c r="D894" s="5"/>
     </row>
-    <row r="895">
+    <row r="895" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C895" s="5"/>
       <c r="D895" s="5"/>
     </row>
-    <row r="896">
+    <row r="896" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C896" s="5"/>
       <c r="D896" s="5"/>
     </row>
-    <row r="897">
+    <row r="897" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C897" s="5"/>
       <c r="D897" s="5"/>
     </row>
-    <row r="898">
+    <row r="898" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C898" s="5"/>
       <c r="D898" s="5"/>
     </row>
-    <row r="899">
+    <row r="899" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C899" s="5"/>
       <c r="D899" s="5"/>
     </row>
-    <row r="900">
+    <row r="900" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C900" s="5"/>
       <c r="D900" s="5"/>
     </row>
-    <row r="901">
+    <row r="901" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C901" s="5"/>
       <c r="D901" s="5"/>
     </row>
-    <row r="902">
+    <row r="902" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C902" s="5"/>
       <c r="D902" s="5"/>
     </row>
-    <row r="903">
+    <row r="903" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C903" s="5"/>
       <c r="D903" s="5"/>
     </row>
-    <row r="904">
+    <row r="904" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C904" s="5"/>
       <c r="D904" s="5"/>
     </row>
-    <row r="905">
+    <row r="905" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C905" s="5"/>
       <c r="D905" s="5"/>
     </row>
-    <row r="906">
+    <row r="906" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C906" s="5"/>
       <c r="D906" s="5"/>
     </row>
-    <row r="907">
+    <row r="907" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C907" s="5"/>
       <c r="D907" s="5"/>
     </row>
-    <row r="908">
+    <row r="908" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C908" s="5"/>
       <c r="D908" s="5"/>
     </row>
-    <row r="909">
+    <row r="909" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C909" s="5"/>
       <c r="D909" s="5"/>
     </row>
-    <row r="910">
+    <row r="910" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C910" s="5"/>
       <c r="D910" s="5"/>
     </row>
-    <row r="911">
+    <row r="911" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C911" s="5"/>
       <c r="D911" s="5"/>
     </row>
-    <row r="912">
+    <row r="912" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C912" s="5"/>
       <c r="D912" s="5"/>
     </row>
-    <row r="913">
+    <row r="913" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C913" s="5"/>
       <c r="D913" s="5"/>
     </row>
-    <row r="914">
+    <row r="914" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C914" s="5"/>
       <c r="D914" s="5"/>
     </row>
-    <row r="915">
+    <row r="915" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C915" s="5"/>
       <c r="D915" s="5"/>
     </row>
-    <row r="916">
+    <row r="916" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C916" s="5"/>
       <c r="D916" s="5"/>
     </row>
-    <row r="917">
+    <row r="917" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C917" s="5"/>
       <c r="D917" s="5"/>
     </row>
-    <row r="918">
+    <row r="918" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C918" s="5"/>
       <c r="D918" s="5"/>
     </row>
-    <row r="919">
+    <row r="919" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C919" s="5"/>
       <c r="D919" s="5"/>
     </row>
-    <row r="920">
+    <row r="920" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C920" s="5"/>
       <c r="D920" s="5"/>
     </row>
-    <row r="921">
+    <row r="921" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C921" s="5"/>
       <c r="D921" s="5"/>
     </row>
-    <row r="922">
+    <row r="922" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C922" s="5"/>
       <c r="D922" s="5"/>
     </row>
-    <row r="923">
+    <row r="923" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C923" s="5"/>
       <c r="D923" s="5"/>
     </row>
-    <row r="924">
+    <row r="924" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C924" s="5"/>
       <c r="D924" s="5"/>
     </row>
-    <row r="925">
+    <row r="925" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C925" s="5"/>
       <c r="D925" s="5"/>
     </row>
-    <row r="926">
+    <row r="926" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C926" s="5"/>
       <c r="D926" s="5"/>
     </row>
-    <row r="927">
+    <row r="927" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C927" s="5"/>
       <c r="D927" s="5"/>
     </row>
-    <row r="928">
+    <row r="928" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C928" s="5"/>
       <c r="D928" s="5"/>
     </row>
-    <row r="929">
+    <row r="929" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C929" s="5"/>
       <c r="D929" s="5"/>
     </row>
-    <row r="930">
+    <row r="930" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C930" s="5"/>
       <c r="D930" s="5"/>
     </row>
-    <row r="931">
+    <row r="931" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C931" s="5"/>
       <c r="D931" s="5"/>
     </row>
-    <row r="932">
+    <row r="932" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C932" s="5"/>
       <c r="D932" s="5"/>
     </row>
-    <row r="933">
+    <row r="933" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C933" s="5"/>
       <c r="D933" s="5"/>
     </row>
-    <row r="934">
+    <row r="934" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C934" s="5"/>
       <c r="D934" s="5"/>
     </row>
-    <row r="935">
+    <row r="935" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C935" s="5"/>
       <c r="D935" s="5"/>
     </row>
-    <row r="936">
+    <row r="936" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C936" s="5"/>
       <c r="D936" s="5"/>
     </row>
-    <row r="937">
+    <row r="937" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C937" s="5"/>
       <c r="D937" s="5"/>
     </row>
-    <row r="938">
+    <row r="938" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C938" s="5"/>
       <c r="D938" s="5"/>
     </row>
-    <row r="939">
+    <row r="939" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C939" s="5"/>
       <c r="D939" s="5"/>
     </row>
-    <row r="940">
+    <row r="940" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C940" s="5"/>
       <c r="D940" s="5"/>
     </row>
-    <row r="941">
+    <row r="941" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C941" s="5"/>
       <c r="D941" s="5"/>
     </row>
-    <row r="942">
+    <row r="942" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C942" s="5"/>
       <c r="D942" s="5"/>
     </row>
-    <row r="943">
+    <row r="943" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C943" s="5"/>
       <c r="D943" s="5"/>
     </row>
-    <row r="944">
+    <row r="944" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C944" s="5"/>
       <c r="D944" s="5"/>
     </row>
-    <row r="945">
+    <row r="945" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C945" s="5"/>
       <c r="D945" s="5"/>
     </row>
-    <row r="946">
+    <row r="946" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C946" s="5"/>
       <c r="D946" s="5"/>
     </row>
-    <row r="947">
+    <row r="947" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C947" s="5"/>
       <c r="D947" s="5"/>
     </row>
-    <row r="948">
+    <row r="948" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C948" s="5"/>
       <c r="D948" s="5"/>
     </row>
-    <row r="949">
+    <row r="949" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C949" s="5"/>
       <c r="D949" s="5"/>
     </row>
-    <row r="950">
+    <row r="950" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C950" s="5"/>
       <c r="D950" s="5"/>
     </row>
-    <row r="951">
+    <row r="951" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C951" s="5"/>
       <c r="D951" s="5"/>
     </row>
-    <row r="952">
+    <row r="952" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C952" s="5"/>
       <c r="D952" s="5"/>
     </row>
-    <row r="953">
+    <row r="953" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C953" s="5"/>
       <c r="D953" s="5"/>
     </row>
-    <row r="954">
+    <row r="954" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C954" s="5"/>
       <c r="D954" s="5"/>
     </row>
-    <row r="955">
+    <row r="955" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C955" s="5"/>
       <c r="D955" s="5"/>
     </row>
-    <row r="956">
+    <row r="956" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C956" s="5"/>
       <c r="D956" s="5"/>
     </row>
-    <row r="957">
+    <row r="957" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C957" s="5"/>
       <c r="D957" s="5"/>
     </row>
-    <row r="958">
+    <row r="958" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C958" s="5"/>
       <c r="D958" s="5"/>
     </row>
-    <row r="959">
+    <row r="959" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C959" s="5"/>
       <c r="D959" s="5"/>
     </row>
-    <row r="960">
+    <row r="960" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C960" s="5"/>
       <c r="D960" s="5"/>
     </row>
-    <row r="961">
+    <row r="961" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C961" s="5"/>
       <c r="D961" s="5"/>
     </row>
-    <row r="962">
+    <row r="962" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C962" s="5"/>
       <c r="D962" s="5"/>
     </row>
-    <row r="963">
+    <row r="963" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C963" s="5"/>
       <c r="D963" s="5"/>
     </row>
-    <row r="964">
+    <row r="964" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C964" s="5"/>
       <c r="D964" s="5"/>
     </row>
-    <row r="965">
+    <row r="965" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C965" s="5"/>
       <c r="D965" s="5"/>
     </row>
-    <row r="966">
+    <row r="966" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C966" s="5"/>
       <c r="D966" s="5"/>
     </row>
-    <row r="967">
+    <row r="967" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C967" s="5"/>
       <c r="D967" s="5"/>
     </row>
-    <row r="968">
+    <row r="968" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C968" s="5"/>
       <c r="D968" s="5"/>
     </row>
-    <row r="969">
+    <row r="969" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C969" s="5"/>
       <c r="D969" s="5"/>
     </row>
-    <row r="970">
+    <row r="970" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C970" s="5"/>
       <c r="D970" s="5"/>
     </row>
-    <row r="971">
+    <row r="971" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C971" s="5"/>
       <c r="D971" s="5"/>
     </row>
-    <row r="972">
+    <row r="972" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C972" s="5"/>
       <c r="D972" s="5"/>
     </row>
-    <row r="973">
+    <row r="973" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C973" s="5"/>
       <c r="D973" s="5"/>
     </row>
-    <row r="974">
+    <row r="974" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C974" s="5"/>
       <c r="D974" s="5"/>
     </row>
-    <row r="975">
+    <row r="975" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C975" s="5"/>
       <c r="D975" s="5"/>
     </row>
-    <row r="976">
+    <row r="976" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C976" s="5"/>
       <c r="D976" s="5"/>
     </row>
-    <row r="977">
+    <row r="977" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C977" s="5"/>
       <c r="D977" s="5"/>
     </row>
-    <row r="978">
+    <row r="978" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C978" s="5"/>
       <c r="D978" s="5"/>
     </row>
-    <row r="979">
+    <row r="979" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C979" s="5"/>
       <c r="D979" s="5"/>
     </row>
-    <row r="980">
+    <row r="980" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C980" s="5"/>
       <c r="D980" s="5"/>
     </row>
-    <row r="981">
+    <row r="981" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C981" s="5"/>
       <c r="D981" s="5"/>
     </row>
-    <row r="982">
+    <row r="982" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C982" s="5"/>
       <c r="D982" s="5"/>
     </row>
-    <row r="983">
+    <row r="983" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C983" s="5"/>
       <c r="D983" s="5"/>
     </row>
-    <row r="984">
+    <row r="984" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C984" s="5"/>
       <c r="D984" s="5"/>
     </row>
-    <row r="985">
+    <row r="985" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C985" s="5"/>
       <c r="D985" s="5"/>
     </row>
-    <row r="986">
+    <row r="986" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C986" s="5"/>
       <c r="D986" s="5"/>
     </row>
-    <row r="987">
+    <row r="987" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C987" s="5"/>
       <c r="D987" s="5"/>
     </row>
-    <row r="988">
+    <row r="988" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C988" s="5"/>
       <c r="D988" s="5"/>
     </row>
-    <row r="989">
+    <row r="989" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C989" s="5"/>
       <c r="D989" s="5"/>
     </row>
-    <row r="990">
+    <row r="990" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C990" s="5"/>
       <c r="D990" s="5"/>
     </row>
-    <row r="991">
+    <row r="991" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C991" s="5"/>
       <c r="D991" s="5"/>
     </row>
-    <row r="992">
+    <row r="992" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C992" s="5"/>
       <c r="D992" s="5"/>
     </row>
-    <row r="993">
+    <row r="993" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C993" s="5"/>
       <c r="D993" s="5"/>
     </row>
-    <row r="994">
+    <row r="994" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C994" s="5"/>
       <c r="D994" s="5"/>
     </row>
-    <row r="995">
+    <row r="995" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C995" s="5"/>
       <c r="D995" s="5"/>
     </row>
-    <row r="996">
+    <row r="996" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C996" s="5"/>
       <c r="D996" s="5"/>
     </row>
-    <row r="997">
+    <row r="997" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C997" s="5"/>
       <c r="D997" s="5"/>
     </row>
-    <row r="998">
+    <row r="998" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C998" s="5"/>
       <c r="D998" s="5"/>
     </row>
-    <row r="999">
+    <row r="999" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C999" s="5"/>
       <c r="D999" s="5"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C1000" s="5"/>
       <c r="D1000" s="5"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Bellabeat Case Study/Working Files/weightLogInfo_merged.xlsx
+++ b/Bellabeat Case Study/Working Files/weightLogInfo_merged.xlsx
@@ -1,34 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal-Projects\Bellabeat Case Study\Working Files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A11214-4185-4DA7-88DF-E46CF30CEE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="weightLogInfo_merged.csv" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="weightLogInfo_merged.csv" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
@@ -269,25 +247,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="165" formatCode="M/d/yyyy H:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -297,51 +274,48 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="21" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -531,37 +505,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="24.63"/>
+    <col customWidth="1" min="2" max="2" width="10.25"/>
+    <col customWidth="1" min="3" max="3" width="8.38"/>
+    <col customWidth="1" min="4" max="4" width="7.5"/>
+    <col customWidth="1" min="5" max="5" width="10.75"/>
+    <col customWidth="1" min="6" max="6" width="11.75"/>
+    <col customWidth="1" min="7" max="7" width="3.38"/>
+    <col customWidth="1" min="8" max="8" width="10.75"/>
+    <col customWidth="1" min="9" max="9" width="12.75"/>
+    <col customWidth="1" min="10" max="10" width="13.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,230 +562,230 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>1503960366</v>
+        <v>1.503960366E9</v>
       </c>
       <c r="C2" s="3">
-        <v>42492</v>
+        <v>42492.0</v>
       </c>
       <c r="D2" s="4">
-        <v>0.99998842592592596</v>
+        <v>0.999988425925926</v>
       </c>
       <c r="E2" s="1">
-        <v>52.599998474121101</v>
+        <v>52.5999984741211</v>
       </c>
       <c r="F2" s="1">
         <v>115.963146545323</v>
       </c>
       <c r="G2" s="1">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="H2" s="1">
-        <v>22.649999618530298</v>
+        <v>22.6499996185303</v>
       </c>
       <c r="I2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J2" s="1">
-        <v>1462233599000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.462233599E12</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1">
-        <v>1503960366</v>
+        <v>1.503960366E9</v>
       </c>
       <c r="C3" s="3">
-        <v>42493</v>
+        <v>42493.0</v>
       </c>
       <c r="D3" s="4">
-        <v>0.99998842592592596</v>
+        <v>0.999988425925926</v>
       </c>
       <c r="E3" s="1">
-        <v>52.599998474121101</v>
+        <v>52.5999984741211</v>
       </c>
       <c r="F3" s="1">
         <v>115.963146545323</v>
       </c>
       <c r="H3" s="1">
-        <v>22.649999618530298</v>
+        <v>22.6499996185303</v>
       </c>
       <c r="I3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J3" s="1">
-        <v>1462319999000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.462319999E12</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1">
-        <v>1927972279</v>
+        <v>1.927972279E9</v>
       </c>
       <c r="C4" s="3">
-        <v>42473</v>
+        <v>42473.0</v>
       </c>
       <c r="D4" s="4">
-        <v>4.7824074074074074E-2</v>
+        <v>0.047824074074074074</v>
       </c>
       <c r="E4" s="1">
         <v>133.5</v>
       </c>
       <c r="F4" s="1">
-        <v>294.31712001697503</v>
+        <v>294.317120016975</v>
       </c>
       <c r="H4" s="1">
-        <v>47.540000915527301</v>
+        <v>47.5400009155273</v>
       </c>
       <c r="I4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>1460509732000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.460509732E12</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1">
-        <v>2873212765</v>
+        <v>2.873212765E9</v>
       </c>
       <c r="C5" s="3">
-        <v>42481</v>
+        <v>42481.0</v>
       </c>
       <c r="D5" s="4">
-        <v>0.99998842592592596</v>
+        <v>0.999988425925926</v>
       </c>
       <c r="E5" s="1">
-        <v>56.700000762939503</v>
+        <v>56.7000007629395</v>
       </c>
       <c r="F5" s="1">
-        <v>125.00210434088901</v>
+        <v>125.002104340889</v>
       </c>
       <c r="H5" s="1">
-        <v>21.450000762939499</v>
+        <v>21.4500007629395</v>
       </c>
       <c r="I5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J5" s="1">
-        <v>1461283199000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.461283199E12</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="1">
-        <v>2873212765</v>
+        <v>2.873212765E9</v>
       </c>
       <c r="C6" s="3">
-        <v>42502</v>
+        <v>42502.0</v>
       </c>
       <c r="D6" s="4">
-        <v>0.99998842592592596</v>
+        <v>0.999988425925926</v>
       </c>
       <c r="E6" s="1">
-        <v>57.299999237060497</v>
+        <v>57.2999992370605</v>
       </c>
       <c r="F6" s="1">
         <v>126.324874550011</v>
       </c>
       <c r="H6" s="1">
-        <v>21.690000534057599</v>
+        <v>21.6900005340576</v>
       </c>
       <c r="I6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J6" s="1">
-        <v>1463097599000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.463097599E12</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="1">
-        <v>4319703577</v>
+        <v>4.319703577E9</v>
       </c>
       <c r="C7" s="3">
-        <v>42477</v>
+        <v>42477.0</v>
       </c>
       <c r="D7" s="4">
-        <v>0.99998842592592596</v>
+        <v>0.999988425925926</v>
       </c>
       <c r="E7" s="1">
-        <v>72.400001525878906</v>
+        <v>72.4000015258789</v>
       </c>
       <c r="F7" s="1">
         <v>159.614681185927</v>
       </c>
       <c r="G7" s="1">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="H7" s="1">
-        <v>27.450000762939499</v>
+        <v>27.4500007629395</v>
       </c>
       <c r="I7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J7" s="1">
-        <v>1460937599000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.460937599E12</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="1">
-        <v>4319703577</v>
+        <v>4.319703577E9</v>
       </c>
       <c r="C8" s="3">
-        <v>42494</v>
+        <v>42494.0</v>
       </c>
       <c r="D8" s="4">
-        <v>0.99998842592592596</v>
+        <v>0.999988425925926</v>
       </c>
       <c r="E8" s="1">
-        <v>72.300003051757798</v>
+        <v>72.3000030517578</v>
       </c>
       <c r="F8" s="1">
-        <v>159.39422228772901</v>
+        <v>159.394222287729</v>
       </c>
       <c r="H8" s="1">
-        <v>27.379999160766602</v>
+        <v>27.3799991607666</v>
       </c>
       <c r="I8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J8" s="1">
-        <v>1462406399000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.462406399E12</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="1">
-        <v>4558609924</v>
+        <v>4.558609924E9</v>
       </c>
       <c r="C9" s="3">
-        <v>42478</v>
+        <v>42478.0</v>
       </c>
       <c r="D9" s="4">
-        <v>0.99998842592592596</v>
+        <v>0.999988425925926</v>
       </c>
       <c r="E9" s="1">
-        <v>69.699996948242202</v>
+        <v>69.6999969482422</v>
       </c>
       <c r="F9" s="1">
         <v>153.662190014971</v>
@@ -828,201 +797,201 @@
         <v>1</v>
       </c>
       <c r="J9" s="1">
-        <v>1461023999000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.461023999E12</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="1">
-        <v>4558609924</v>
+        <v>4.558609924E9</v>
       </c>
       <c r="C10" s="3">
-        <v>42485</v>
+        <v>42485.0</v>
       </c>
       <c r="D10" s="4">
-        <v>0.99998842592592596</v>
+        <v>0.999988425925926</v>
       </c>
       <c r="E10" s="1">
-        <v>70.300003051757798</v>
+        <v>70.3000030517578</v>
       </c>
       <c r="F10" s="1">
-        <v>154.98497704402899</v>
+        <v>154.984977044029</v>
       </c>
       <c r="H10" s="1">
-        <v>27.459999084472699</v>
+        <v>27.4599990844727</v>
       </c>
       <c r="I10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J10" s="1">
-        <v>1461628799000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.461628799E12</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="1">
-        <v>4558609924</v>
+        <v>4.558609924E9</v>
       </c>
       <c r="C11" s="3">
-        <v>42491</v>
+        <v>42491.0</v>
       </c>
       <c r="D11" s="4">
-        <v>0.99998842592592596</v>
+        <v>0.999988425925926</v>
       </c>
       <c r="E11" s="1">
-        <v>69.900001525878906</v>
+        <v>69.9000015258789</v>
       </c>
       <c r="F11" s="1">
-        <v>154.10312463130199</v>
+        <v>154.103124631302</v>
       </c>
       <c r="H11" s="1">
-        <v>27.319999694824201</v>
+        <v>27.3199996948242</v>
       </c>
       <c r="I11" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J11" s="1">
-        <v>1462147199000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.462147199E12</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="1">
-        <v>4558609924</v>
+        <v>4.558609924E9</v>
       </c>
       <c r="C12" s="3">
-        <v>42492</v>
+        <v>42492.0</v>
       </c>
       <c r="D12" s="4">
-        <v>0.99998842592592596</v>
+        <v>0.999988425925926</v>
       </c>
       <c r="E12" s="1">
-        <v>69.199996948242202</v>
+        <v>69.1999969482422</v>
       </c>
       <c r="F12" s="1">
-        <v>152.55987870404601</v>
+        <v>152.559878704046</v>
       </c>
       <c r="H12" s="1">
-        <v>27.040000915527301</v>
+        <v>27.0400009155273</v>
       </c>
       <c r="I12" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J12" s="1">
-        <v>1462233599000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.462233599E12</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="1">
-        <v>4558609924</v>
+        <v>4.558609924E9</v>
       </c>
       <c r="C13" s="3">
-        <v>42499</v>
+        <v>42499.0</v>
       </c>
       <c r="D13" s="4">
-        <v>0.99998842592592596</v>
+        <v>0.999988425925926</v>
       </c>
       <c r="E13" s="1">
-        <v>69.099998474121094</v>
+        <v>69.0999984741211</v>
       </c>
       <c r="F13" s="1">
         <v>152.339419805848</v>
       </c>
       <c r="H13" s="1">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="I13" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J13" s="1">
-        <v>1462838399000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.462838399E12</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="1">
-        <v>5577150313</v>
+        <v>5.577150313E9</v>
       </c>
       <c r="C14" s="3">
-        <v>42477</v>
+        <v>42477.0</v>
       </c>
       <c r="D14" s="4">
         <v>0.38744212962962965</v>
       </c>
       <c r="E14" s="1">
-        <v>90.699996948242202</v>
+        <v>90.6999969482422</v>
       </c>
       <c r="F14" s="1">
         <v>199.959265073821</v>
       </c>
       <c r="H14" s="1">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="I14" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>1460884675000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.460884675E12</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="1">
-        <v>6962181067</v>
+        <v>6.962181067E9</v>
       </c>
       <c r="C15" s="3">
-        <v>42472</v>
+        <v>42472.0</v>
       </c>
       <c r="D15" s="4">
-        <v>0.99998842592592596</v>
+        <v>0.999988425925926</v>
       </c>
       <c r="E15" s="1">
         <v>62.5</v>
       </c>
       <c r="F15" s="1">
-        <v>137.78891386562501</v>
+        <v>137.788913865625</v>
       </c>
       <c r="H15" s="1">
-        <v>24.389999389648398</v>
+        <v>24.3899993896484</v>
       </c>
       <c r="I15" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J15" s="1">
-        <v>1460505599000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.460505599E12</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="1">
-        <v>6962181067</v>
+        <v>6.962181067E9</v>
       </c>
       <c r="C16" s="3">
-        <v>42473</v>
+        <v>42473.0</v>
       </c>
       <c r="D16" s="4">
-        <v>0.99998842592592596</v>
+        <v>0.999988425925926</v>
       </c>
       <c r="E16" s="1">
-        <v>62.099998474121101</v>
+        <v>62.0999984741211</v>
       </c>
       <c r="F16" s="1">
-        <v>136.90706145289801</v>
+        <v>136.907061452898</v>
       </c>
       <c r="H16" s="1">
         <v>24.2399997711182</v>
@@ -1031,50 +1000,50 @@
         <v>1</v>
       </c>
       <c r="J16" s="1">
-        <v>1460591999000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.460591999E12</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="1">
-        <v>6962181067</v>
+        <v>6.962181067E9</v>
       </c>
       <c r="C17" s="3">
-        <v>42474</v>
+        <v>42474.0</v>
       </c>
       <c r="D17" s="4">
-        <v>0.99998842592592596</v>
+        <v>0.999988425925926</v>
       </c>
       <c r="E17" s="1">
-        <v>61.700000762939503</v>
+        <v>61.7000007629395</v>
       </c>
       <c r="F17" s="1">
         <v>136.025217450139</v>
       </c>
       <c r="H17" s="1">
-        <v>24.100000381469702</v>
+        <v>24.1000003814697</v>
       </c>
       <c r="I17" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J17" s="1">
-        <v>1460678399000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.460678399E12</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="1">
-        <v>6962181067</v>
+        <v>6.962181067E9</v>
       </c>
       <c r="C18" s="3">
-        <v>42475</v>
+        <v>42475.0</v>
       </c>
       <c r="D18" s="4">
-        <v>0.99998842592592596</v>
+        <v>0.999988425925926</v>
       </c>
       <c r="E18" s="1">
         <v>61.5</v>
@@ -1083,230 +1052,230 @@
         <v>135.584291243775</v>
       </c>
       <c r="H18" s="1">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="I18" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J18" s="1">
-        <v>1460764799000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.460764799E12</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="1">
-        <v>6962181067</v>
+        <v>6.962181067E9</v>
       </c>
       <c r="C19" s="3">
-        <v>42476</v>
+        <v>42476.0</v>
       </c>
       <c r="D19" s="4">
-        <v>0.99998842592592596</v>
+        <v>0.999988425925926</v>
       </c>
       <c r="E19" s="1">
-        <v>62</v>
+        <v>62.0</v>
       </c>
       <c r="F19" s="1">
-        <v>136.68660255469999</v>
+        <v>136.6866025547</v>
       </c>
       <c r="H19" s="1">
-        <v>24.209999084472699</v>
+        <v>24.2099990844727</v>
       </c>
       <c r="I19" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J19" s="1">
-        <v>1460851199000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.460851199E12</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="1">
-        <v>6962181067</v>
+        <v>6.962181067E9</v>
       </c>
       <c r="C20" s="3">
-        <v>42477</v>
+        <v>42477.0</v>
       </c>
       <c r="D20" s="4">
-        <v>0.99998842592592596</v>
+        <v>0.999988425925926</v>
       </c>
       <c r="E20" s="1">
-        <v>61.400001525878899</v>
+        <v>61.4000015258789</v>
       </c>
       <c r="F20" s="1">
-        <v>135.36383234557701</v>
+        <v>135.363832345577</v>
       </c>
       <c r="H20" s="1">
-        <v>23.959999084472699</v>
+        <v>23.9599990844727</v>
       </c>
       <c r="I20" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J20" s="1">
-        <v>1460937599000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.460937599E12</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="1">
-        <v>6962181067</v>
+        <v>6.962181067E9</v>
       </c>
       <c r="C21" s="3">
-        <v>42478</v>
+        <v>42478.0</v>
       </c>
       <c r="D21" s="4">
-        <v>0.99998842592592596</v>
+        <v>0.999988425925926</v>
       </c>
       <c r="E21" s="1">
-        <v>61.200000762939503</v>
+        <v>61.2000007629395</v>
       </c>
       <c r="F21" s="1">
-        <v>134.92290613921401</v>
+        <v>134.922906139214</v>
       </c>
       <c r="H21" s="1">
-        <v>23.889999389648398</v>
+        <v>23.8899993896484</v>
       </c>
       <c r="I21" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J21" s="1">
-        <v>1461023999000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.461023999E12</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="1">
-        <v>6962181067</v>
+        <v>6.962181067E9</v>
       </c>
       <c r="C22" s="3">
-        <v>42479</v>
+        <v>42479.0</v>
       </c>
       <c r="D22" s="4">
-        <v>0.99998842592592596</v>
+        <v>0.999988425925926</v>
       </c>
       <c r="E22" s="1">
-        <v>61.400001525878899</v>
+        <v>61.4000015258789</v>
       </c>
       <c r="F22" s="1">
-        <v>135.36383234557701</v>
+        <v>135.363832345577</v>
       </c>
       <c r="H22" s="1">
-        <v>23.959999084472699</v>
+        <v>23.9599990844727</v>
       </c>
       <c r="I22" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J22" s="1">
-        <v>1461110399000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.461110399E12</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="1">
-        <v>6962181067</v>
+        <v>6.962181067E9</v>
       </c>
       <c r="C23" s="3">
-        <v>42480</v>
+        <v>42480.0</v>
       </c>
       <c r="D23" s="4">
-        <v>0.99998842592592596</v>
+        <v>0.999988425925926</v>
       </c>
       <c r="E23" s="1">
-        <v>61.700000762939503</v>
+        <v>61.7000007629395</v>
       </c>
       <c r="F23" s="1">
         <v>136.025217450139</v>
       </c>
       <c r="H23" s="1">
-        <v>24.100000381469702</v>
+        <v>24.1000003814697</v>
       </c>
       <c r="I23" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J23" s="1">
-        <v>1461196799000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.461196799E12</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="1">
-        <v>6962181067</v>
+        <v>6.962181067E9</v>
       </c>
       <c r="C24" s="3">
-        <v>42481</v>
+        <v>42481.0</v>
       </c>
       <c r="D24" s="4">
-        <v>0.99998842592592596</v>
+        <v>0.999988425925926</v>
       </c>
       <c r="E24" s="1">
-        <v>61.400001525878899</v>
+        <v>61.4000015258789</v>
       </c>
       <c r="F24" s="1">
-        <v>135.36383234557701</v>
+        <v>135.363832345577</v>
       </c>
       <c r="H24" s="1">
-        <v>23.959999084472699</v>
+        <v>23.9599990844727</v>
       </c>
       <c r="I24" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J24" s="1">
-        <v>1461283199000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.461283199E12</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="1">
-        <v>6962181067</v>
+        <v>6.962181067E9</v>
       </c>
       <c r="C25" s="3">
-        <v>42482</v>
+        <v>42482.0</v>
       </c>
       <c r="D25" s="4">
-        <v>0.99998842592592596</v>
+        <v>0.999988425925926</v>
       </c>
       <c r="E25" s="1">
-        <v>61.400001525878899</v>
+        <v>61.4000015258789</v>
       </c>
       <c r="F25" s="1">
-        <v>135.36383234557701</v>
+        <v>135.363832345577</v>
       </c>
       <c r="H25" s="1">
-        <v>23.959999084472699</v>
+        <v>23.9599990844727</v>
       </c>
       <c r="I25" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J25" s="1">
-        <v>1461369599000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.461369599E12</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B26" s="1">
-        <v>6962181067</v>
+        <v>6.962181067E9</v>
       </c>
       <c r="C26" s="3">
-        <v>42483</v>
+        <v>42483.0</v>
       </c>
       <c r="D26" s="4">
-        <v>0.99998842592592596</v>
+        <v>0.999988425925926</v>
       </c>
       <c r="E26" s="1">
         <v>61.5</v>
@@ -1315,27 +1284,27 @@
         <v>135.584291243775</v>
       </c>
       <c r="H26" s="1">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="I26" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J26" s="1">
-        <v>1461455999000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.461455999E12</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B27" s="1">
-        <v>6962181067</v>
+        <v>6.962181067E9</v>
       </c>
       <c r="C27" s="3">
-        <v>42484</v>
+        <v>42484.0</v>
       </c>
       <c r="D27" s="4">
-        <v>0.99998842592592596</v>
+        <v>0.999988425925926</v>
       </c>
       <c r="E27" s="1">
         <v>61.5</v>
@@ -1344,201 +1313,201 @@
         <v>135.584291243775</v>
       </c>
       <c r="H27" s="1">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="I27" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J27" s="1">
-        <v>1461542399000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.461542399E12</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B28" s="1">
-        <v>6962181067</v>
+        <v>6.962181067E9</v>
       </c>
       <c r="C28" s="3">
-        <v>42485</v>
+        <v>42485.0</v>
       </c>
       <c r="D28" s="4">
-        <v>0.99998842592592596</v>
+        <v>0.999988425925926</v>
       </c>
       <c r="E28" s="1">
-        <v>61.700000762939503</v>
+        <v>61.7000007629395</v>
       </c>
       <c r="F28" s="1">
         <v>136.025217450139</v>
       </c>
       <c r="H28" s="1">
-        <v>24.100000381469702</v>
+        <v>24.1000003814697</v>
       </c>
       <c r="I28" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J28" s="1">
-        <v>1461628799000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.461628799E12</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B29" s="1">
-        <v>6962181067</v>
+        <v>6.962181067E9</v>
       </c>
       <c r="C29" s="3">
-        <v>42487</v>
+        <v>42487.0</v>
       </c>
       <c r="D29" s="4">
-        <v>0.99998842592592596</v>
+        <v>0.999988425925926</v>
       </c>
       <c r="E29" s="1">
-        <v>61.200000762939503</v>
+        <v>61.2000007629395</v>
       </c>
       <c r="F29" s="1">
-        <v>134.92290613921401</v>
+        <v>134.922906139214</v>
       </c>
       <c r="H29" s="1">
-        <v>23.889999389648398</v>
+        <v>23.8899993896484</v>
       </c>
       <c r="I29" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J29" s="1">
-        <v>1461801599000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.461801599E12</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B30" s="1">
-        <v>6962181067</v>
+        <v>6.962181067E9</v>
       </c>
       <c r="C30" s="3">
-        <v>42488</v>
+        <v>42488.0</v>
       </c>
       <c r="D30" s="4">
-        <v>0.99998842592592596</v>
+        <v>0.999988425925926</v>
       </c>
       <c r="E30" s="1">
-        <v>61.200000762939503</v>
+        <v>61.2000007629395</v>
       </c>
       <c r="F30" s="1">
-        <v>134.92290613921401</v>
+        <v>134.922906139214</v>
       </c>
       <c r="H30" s="1">
-        <v>23.889999389648398</v>
+        <v>23.8899993896484</v>
       </c>
       <c r="I30" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J30" s="1">
-        <v>1461887999000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.461887999E12</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B31" s="1">
-        <v>6962181067</v>
+        <v>6.962181067E9</v>
       </c>
       <c r="C31" s="3">
-        <v>42489</v>
+        <v>42489.0</v>
       </c>
       <c r="D31" s="4">
-        <v>0.99998842592592596</v>
+        <v>0.999988425925926</v>
       </c>
       <c r="E31" s="1">
-        <v>61.400001525878899</v>
+        <v>61.4000015258789</v>
       </c>
       <c r="F31" s="1">
-        <v>135.36383234557701</v>
+        <v>135.363832345577</v>
       </c>
       <c r="H31" s="1">
-        <v>23.959999084472699</v>
+        <v>23.9599990844727</v>
       </c>
       <c r="I31" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J31" s="1">
-        <v>1461974399000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.461974399E12</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B32" s="1">
-        <v>6962181067</v>
+        <v>6.962181067E9</v>
       </c>
       <c r="C32" s="3">
-        <v>42490</v>
+        <v>42490.0</v>
       </c>
       <c r="D32" s="4">
-        <v>0.99998842592592596</v>
+        <v>0.999988425925926</v>
       </c>
       <c r="E32" s="1">
-        <v>61</v>
+        <v>61.0</v>
       </c>
       <c r="F32" s="1">
-        <v>134.48197993285001</v>
+        <v>134.48197993285</v>
       </c>
       <c r="H32" s="1">
-        <v>23.819999694824201</v>
+        <v>23.8199996948242</v>
       </c>
       <c r="I32" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J32" s="1">
-        <v>1462060799000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.462060799E12</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B33" s="1">
-        <v>6962181067</v>
+        <v>6.962181067E9</v>
       </c>
       <c r="C33" s="3">
-        <v>42491</v>
+        <v>42491.0</v>
       </c>
       <c r="D33" s="4">
-        <v>0.99998842592592596</v>
+        <v>0.999988425925926</v>
       </c>
       <c r="E33" s="1">
-        <v>61.700000762939503</v>
+        <v>61.7000007629395</v>
       </c>
       <c r="F33" s="1">
         <v>136.025217450139</v>
       </c>
       <c r="H33" s="1">
-        <v>24.100000381469702</v>
+        <v>24.1000003814697</v>
       </c>
       <c r="I33" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J33" s="1">
-        <v>1462147199000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.462147199E12</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B34" s="1">
-        <v>6962181067</v>
+        <v>6.962181067E9</v>
       </c>
       <c r="C34" s="3">
-        <v>42492</v>
+        <v>42492.0</v>
       </c>
       <c r="D34" s="4">
-        <v>0.99998842592592596</v>
+        <v>0.999988425925926</v>
       </c>
       <c r="E34" s="1">
         <v>61.5</v>
@@ -1547,114 +1516,114 @@
         <v>135.584291243775</v>
       </c>
       <c r="H34" s="1">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="I34" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J34" s="1">
-        <v>1462233599000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.462233599E12</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B35" s="1">
-        <v>6962181067</v>
+        <v>6.962181067E9</v>
       </c>
       <c r="C35" s="3">
-        <v>42493</v>
+        <v>42493.0</v>
       </c>
       <c r="D35" s="4">
-        <v>0.99998842592592596</v>
+        <v>0.999988425925926</v>
       </c>
       <c r="E35" s="1">
-        <v>61</v>
+        <v>61.0</v>
       </c>
       <c r="F35" s="1">
-        <v>134.48197993285001</v>
+        <v>134.48197993285</v>
       </c>
       <c r="H35" s="1">
-        <v>23.819999694824201</v>
+        <v>23.8199996948242</v>
       </c>
       <c r="I35" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J35" s="1">
-        <v>1462319999000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.462319999E12</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="1">
-        <v>6962181067</v>
+        <v>6.962181067E9</v>
       </c>
       <c r="C36" s="3">
-        <v>42494</v>
+        <v>42494.0</v>
       </c>
       <c r="D36" s="4">
-        <v>0.99998842592592596</v>
+        <v>0.999988425925926</v>
       </c>
       <c r="E36" s="1">
-        <v>61.099998474121101</v>
+        <v>61.0999984741211</v>
       </c>
       <c r="F36" s="1">
         <v>134.702438831048</v>
       </c>
       <c r="H36" s="1">
-        <v>23.850000381469702</v>
+        <v>23.8500003814697</v>
       </c>
       <c r="I36" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J36" s="1">
-        <v>1462406399000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.462406399E12</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B37" s="1">
-        <v>6962181067</v>
+        <v>6.962181067E9</v>
       </c>
       <c r="C37" s="3">
-        <v>42495</v>
+        <v>42495.0</v>
       </c>
       <c r="D37" s="4">
-        <v>0.99998842592592596</v>
+        <v>0.999988425925926</v>
       </c>
       <c r="E37" s="1">
-        <v>61.299999237060497</v>
+        <v>61.2999992370605</v>
       </c>
       <c r="F37" s="1">
         <v>135.143365037411</v>
       </c>
       <c r="H37" s="1">
-        <v>23.930000305175799</v>
+        <v>23.9300003051758</v>
       </c>
       <c r="I37" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J37" s="1">
-        <v>1462492799000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.462492799E12</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B38" s="1">
-        <v>6962181067</v>
+        <v>6.962181067E9</v>
       </c>
       <c r="C38" s="3">
-        <v>42496</v>
+        <v>42496.0</v>
       </c>
       <c r="D38" s="4">
-        <v>0.99998842592592596</v>
+        <v>0.999988425925926</v>
       </c>
       <c r="E38" s="1">
         <v>61.5</v>
@@ -1663,120 +1632,120 @@
         <v>135.584291243775</v>
       </c>
       <c r="H38" s="1">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="I38" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J38" s="1">
-        <v>1462579199000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.462579199E12</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B39" s="1">
-        <v>6962181067</v>
+        <v>6.962181067E9</v>
       </c>
       <c r="C39" s="3">
-        <v>42497</v>
+        <v>42497.0</v>
       </c>
       <c r="D39" s="4">
-        <v>0.99998842592592596</v>
+        <v>0.999988425925926</v>
       </c>
       <c r="E39" s="1">
-        <v>61.200000762939503</v>
+        <v>61.2000007629395</v>
       </c>
       <c r="F39" s="1">
-        <v>134.92290613921401</v>
+        <v>134.922906139214</v>
       </c>
       <c r="H39" s="1">
-        <v>23.889999389648398</v>
+        <v>23.8899993896484</v>
       </c>
       <c r="I39" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J39" s="1">
-        <v>1462665599000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.462665599E12</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B40" s="1">
-        <v>6962181067</v>
+        <v>6.962181067E9</v>
       </c>
       <c r="C40" s="3">
-        <v>42498</v>
+        <v>42498.0</v>
       </c>
       <c r="D40" s="4">
-        <v>0.99998842592592596</v>
+        <v>0.999988425925926</v>
       </c>
       <c r="E40" s="1">
-        <v>61.200000762939503</v>
+        <v>61.2000007629395</v>
       </c>
       <c r="F40" s="1">
-        <v>134.92290613921401</v>
+        <v>134.922906139214</v>
       </c>
       <c r="H40" s="1">
-        <v>23.889999389648398</v>
+        <v>23.8899993896484</v>
       </c>
       <c r="I40" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J40" s="1">
-        <v>1462751999000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.462751999E12</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B41" s="1">
-        <v>6962181067</v>
+        <v>6.962181067E9</v>
       </c>
       <c r="C41" s="3">
-        <v>42499</v>
+        <v>42499.0</v>
       </c>
       <c r="D41" s="4">
-        <v>0.99998842592592596</v>
+        <v>0.999988425925926</v>
       </c>
       <c r="E41" s="1">
-        <v>62.400001525878899</v>
+        <v>62.4000015258789</v>
       </c>
       <c r="F41" s="1">
-        <v>137.56845496742699</v>
+        <v>137.568454967427</v>
       </c>
       <c r="H41" s="1">
-        <v>24.350000381469702</v>
+        <v>24.3500003814697</v>
       </c>
       <c r="I41" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J41" s="1">
-        <v>1462838399000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.462838399E12</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="1">
-        <v>6962181067</v>
+        <v>6.962181067E9</v>
       </c>
       <c r="C42" s="3">
-        <v>42500</v>
+        <v>42500.0</v>
       </c>
       <c r="D42" s="4">
-        <v>0.99998842592592596</v>
+        <v>0.999988425925926</v>
       </c>
       <c r="E42" s="1">
-        <v>62.099998474121101</v>
+        <v>62.0999984741211</v>
       </c>
       <c r="F42" s="1">
-        <v>136.90706145289801</v>
+        <v>136.907061452898</v>
       </c>
       <c r="H42" s="1">
         <v>24.2399997711182</v>
@@ -1785,134 +1754,134 @@
         <v>1</v>
       </c>
       <c r="J42" s="1">
-        <v>1462924799000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.462924799E12</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B43" s="1">
-        <v>6962181067</v>
+        <v>6.962181067E9</v>
       </c>
       <c r="C43" s="3">
-        <v>42501</v>
+        <v>42501.0</v>
       </c>
       <c r="D43" s="4">
-        <v>0.99998842592592596</v>
+        <v>0.999988425925926</v>
       </c>
       <c r="E43" s="1">
-        <v>61.900001525878899</v>
+        <v>61.9000015258789</v>
       </c>
       <c r="F43" s="1">
         <v>136.466143656502</v>
       </c>
       <c r="H43" s="1">
-        <v>24.170000076293899</v>
+        <v>24.1700000762939</v>
       </c>
       <c r="I43" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J43" s="1">
-        <v>1463011199000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.463011199E12</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B44" s="1">
-        <v>6962181067</v>
+        <v>6.962181067E9</v>
       </c>
       <c r="C44" s="3">
-        <v>42502</v>
+        <v>42502.0</v>
       </c>
       <c r="D44" s="4">
-        <v>0.99998842592592596</v>
+        <v>0.999988425925926</v>
       </c>
       <c r="E44" s="1">
-        <v>61.900001525878899</v>
+        <v>61.9000015258789</v>
       </c>
       <c r="F44" s="1">
         <v>136.466143656502</v>
       </c>
       <c r="H44" s="1">
-        <v>24.170000076293899</v>
+        <v>24.1700000762939</v>
       </c>
       <c r="I44" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J44" s="1">
-        <v>1463097599000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.463097599E12</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B45" s="1">
-        <v>8877689391</v>
+        <v>8.877689391E9</v>
       </c>
       <c r="C45" s="3">
-        <v>42472</v>
+        <v>42472.0</v>
       </c>
       <c r="D45" s="4">
         <v>0.2827662037037037</v>
       </c>
       <c r="E45" s="1">
-        <v>85.800003051757798</v>
+        <v>85.8000030517578</v>
       </c>
       <c r="F45" s="1">
         <v>189.156627682704</v>
       </c>
       <c r="H45" s="1">
-        <v>25.680000305175799</v>
+        <v>25.6800003051758</v>
       </c>
       <c r="I45" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J45" s="1">
-        <v>1460443631000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.460443631E12</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B46" s="1">
-        <v>8877689391</v>
+        <v>8.877689391E9</v>
       </c>
       <c r="C46" s="3">
-        <v>42473</v>
+        <v>42473.0</v>
       </c>
       <c r="D46" s="4">
-        <v>0.28819444444444442</v>
+        <v>0.2881944444444444</v>
       </c>
       <c r="E46" s="1">
-        <v>84.900001525878906</v>
+        <v>84.9000015258789</v>
       </c>
       <c r="F46" s="1">
-        <v>187.17246395905201</v>
+        <v>187.172463959052</v>
       </c>
       <c r="H46" s="1">
-        <v>25.409999847412099</v>
+        <v>25.4099998474121</v>
       </c>
       <c r="I46" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J46" s="1">
-        <v>1460530500000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.4605305E12</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B47" s="1">
-        <v>8877689391</v>
+        <v>8.877689391E9</v>
       </c>
       <c r="C47" s="3">
-        <v>42474</v>
+        <v>42474.0</v>
       </c>
       <c r="D47" s="4">
         <v>0.2838310185185185</v>
@@ -1921,143 +1890,143 @@
         <v>84.5</v>
       </c>
       <c r="F47" s="1">
-        <v>186.29061154632501</v>
+        <v>186.290611546325</v>
       </c>
       <c r="H47" s="1">
-        <v>25.309999465942401</v>
+        <v>25.3099994659424</v>
       </c>
       <c r="I47" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J47" s="1">
-        <v>1460616523000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.460616523E12</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B48" s="1">
-        <v>8877689391</v>
+        <v>8.877689391E9</v>
       </c>
       <c r="C48" s="3">
-        <v>42476</v>
+        <v>42476.0</v>
       </c>
       <c r="D48" s="4">
-        <v>0.56903935185185184</v>
+        <v>0.5690393518518518</v>
       </c>
       <c r="E48" s="1">
         <v>85.5</v>
       </c>
       <c r="F48" s="1">
-        <v>188.49523416817499</v>
+        <v>188.495234168175</v>
       </c>
       <c r="H48" s="1">
-        <v>25.590000152587901</v>
+        <v>25.5900001525879</v>
       </c>
       <c r="I48" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J48" s="1">
-        <v>1460813965000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.460813965E12</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B49" s="1">
-        <v>8877689391</v>
+        <v>8.877689391E9</v>
       </c>
       <c r="C49" s="3">
-        <v>42478</v>
+        <v>42478.0</v>
       </c>
       <c r="D49" s="4">
         <v>0.2855787037037037</v>
       </c>
       <c r="E49" s="1">
-        <v>85.800003051757798</v>
+        <v>85.8000030517578</v>
       </c>
       <c r="F49" s="1">
         <v>189.156627682704</v>
       </c>
       <c r="H49" s="1">
-        <v>25.680000305175799</v>
+        <v>25.6800003051758</v>
       </c>
       <c r="I49" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J49" s="1">
-        <v>1460962274000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.460962274E12</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B50" s="1">
-        <v>8877689391</v>
+        <v>8.877689391E9</v>
       </c>
       <c r="C50" s="3">
-        <v>42479</v>
+        <v>42479.0</v>
       </c>
       <c r="D50" s="4">
-        <v>0.27744212962962961</v>
+        <v>0.2774421296296296</v>
       </c>
       <c r="E50" s="1">
-        <v>85.300003051757798</v>
+        <v>85.3000030517578</v>
       </c>
       <c r="F50" s="1">
-        <v>188.05431637177901</v>
+        <v>188.054316371779</v>
       </c>
       <c r="H50" s="1">
-        <v>25.530000686645501</v>
+        <v>25.5300006866455</v>
       </c>
       <c r="I50" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J50" s="1">
-        <v>1461047971000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.461047971E12</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B51" s="1">
-        <v>8877689391</v>
+        <v>8.877689391E9</v>
       </c>
       <c r="C51" s="3">
-        <v>42480</v>
+        <v>42480.0</v>
       </c>
       <c r="D51" s="4">
         <v>0.28118055555555554</v>
       </c>
       <c r="E51" s="1">
-        <v>84.900001525878906</v>
+        <v>84.9000015258789</v>
       </c>
       <c r="F51" s="1">
-        <v>187.17246395905201</v>
+        <v>187.172463959052</v>
       </c>
       <c r="H51" s="1">
-        <v>25.409999847412099</v>
+        <v>25.4099998474121</v>
       </c>
       <c r="I51" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J51" s="1">
-        <v>1461134694000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.461134694E12</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B52" s="1">
-        <v>8877689391</v>
+        <v>8.877689391E9</v>
       </c>
       <c r="C52" s="3">
-        <v>42481</v>
+        <v>42481.0</v>
       </c>
       <c r="D52" s="4">
         <v>0.2850347222222222</v>
@@ -2066,27 +2035,27 @@
         <v>84.5</v>
       </c>
       <c r="F52" s="1">
-        <v>186.29061154632501</v>
+        <v>186.290611546325</v>
       </c>
       <c r="H52" s="1">
-        <v>25.290000915527301</v>
+        <v>25.2900009155273</v>
       </c>
       <c r="I52" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J52" s="1">
-        <v>1461221427000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.461221427E12</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B53" s="1">
-        <v>8877689391</v>
+        <v>8.877689391E9</v>
       </c>
       <c r="C53" s="3">
-        <v>42483</v>
+        <v>42483.0</v>
       </c>
       <c r="D53" s="4">
         <v>0.3072685185185185</v>
@@ -2095,27 +2064,27 @@
         <v>85.5</v>
       </c>
       <c r="F53" s="1">
-        <v>188.49523416817499</v>
+        <v>188.495234168175</v>
       </c>
       <c r="H53" s="1">
-        <v>25.590000152587901</v>
+        <v>25.5900001525879</v>
       </c>
       <c r="I53" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J53" s="1">
-        <v>1461396148000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.461396148E12</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B54" s="1">
-        <v>8877689391</v>
+        <v>8.877689391E9</v>
       </c>
       <c r="C54" s="3">
-        <v>42484</v>
+        <v>42484.0</v>
       </c>
       <c r="D54" s="4">
         <v>0.31811342592592595</v>
@@ -2124,65 +2093,65 @@
         <v>85.5</v>
       </c>
       <c r="F54" s="1">
-        <v>188.49523416817499</v>
+        <v>188.495234168175</v>
       </c>
       <c r="H54" s="1">
-        <v>25.590000152587901</v>
+        <v>25.5900001525879</v>
       </c>
       <c r="I54" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J54" s="1">
-        <v>1461483485000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.461483485E12</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B55" s="1">
-        <v>8877689391</v>
+        <v>8.877689391E9</v>
       </c>
       <c r="C55" s="3">
-        <v>42485</v>
+        <v>42485.0</v>
       </c>
       <c r="D55" s="4">
         <v>0.27796296296296297</v>
       </c>
       <c r="E55" s="1">
-        <v>85.400001525878906</v>
+        <v>85.4000015258789</v>
       </c>
       <c r="F55" s="1">
         <v>188.274775269977</v>
       </c>
       <c r="H55" s="1">
-        <v>25.559999465942401</v>
+        <v>25.5599994659424</v>
       </c>
       <c r="I55" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J55" s="1">
-        <v>1461566416000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.461566416E12</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B56" s="1">
-        <v>8877689391</v>
+        <v>8.877689391E9</v>
       </c>
       <c r="C56" s="3">
-        <v>42486</v>
+        <v>42486.0</v>
       </c>
       <c r="D56" s="4">
         <v>0.2850347222222222</v>
       </c>
       <c r="E56" s="1">
-        <v>85.099998474121094</v>
+        <v>85.0999984741211</v>
       </c>
       <c r="F56" s="1">
-        <v>187.61338175544799</v>
+        <v>187.613381755448</v>
       </c>
       <c r="H56" s="1">
         <v>25.4899997711182</v>
@@ -2191,56 +2160,56 @@
         <v>0</v>
       </c>
       <c r="J56" s="1">
-        <v>1461653427000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.461653427E12</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B57" s="1">
-        <v>8877689391</v>
+        <v>8.877689391E9</v>
       </c>
       <c r="C57" s="3">
-        <v>42487</v>
+        <v>42487.0</v>
       </c>
       <c r="D57" s="4">
-        <v>0.28547453703703701</v>
+        <v>0.285474537037037</v>
       </c>
       <c r="E57" s="1">
-        <v>85.400001525878906</v>
+        <v>85.4000015258789</v>
       </c>
       <c r="F57" s="1">
         <v>188.274775269977</v>
       </c>
       <c r="H57" s="1">
-        <v>25.559999465942401</v>
+        <v>25.5599994659424</v>
       </c>
       <c r="I57" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J57" s="1">
-        <v>1461739865000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.461739865E12</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B58" s="1">
-        <v>8877689391</v>
+        <v>8.877689391E9</v>
       </c>
       <c r="C58" s="3">
-        <v>42488</v>
+        <v>42488.0</v>
       </c>
       <c r="D58" s="4">
         <v>0.28475694444444444</v>
       </c>
       <c r="E58" s="1">
-        <v>85.099998474121094</v>
+        <v>85.0999984741211</v>
       </c>
       <c r="F58" s="1">
-        <v>187.61338175544799</v>
+        <v>187.613381755448</v>
       </c>
       <c r="H58" s="1">
         <v>25.4899997711182</v>
@@ -2249,143 +2218,143 @@
         <v>0</v>
       </c>
       <c r="J58" s="1">
-        <v>1461826203000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.461826203E12</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="A59" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B59" s="1">
-        <v>8877689391</v>
+        <v>8.877689391E9</v>
       </c>
       <c r="C59" s="3">
-        <v>42489</v>
+        <v>42489.0</v>
       </c>
       <c r="D59" s="4">
         <v>0.28466435185185185</v>
       </c>
       <c r="E59" s="1">
-        <v>84.900001525878906</v>
+        <v>84.9000015258789</v>
       </c>
       <c r="F59" s="1">
-        <v>187.17246395905201</v>
+        <v>187.172463959052</v>
       </c>
       <c r="H59" s="1">
-        <v>25.409999847412099</v>
+        <v>25.4099998474121</v>
       </c>
       <c r="I59" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J59" s="1">
-        <v>1461912595000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.461912595E12</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B60" s="1">
-        <v>8877689391</v>
+        <v>8.877689391E9</v>
       </c>
       <c r="C60" s="3">
-        <v>42490</v>
+        <v>42490.0</v>
       </c>
       <c r="D60" s="4">
-        <v>0.32572916666666668</v>
+        <v>0.3257291666666667</v>
       </c>
       <c r="E60" s="1">
         <v>85.5</v>
       </c>
       <c r="F60" s="1">
-        <v>188.49523416817499</v>
+        <v>188.495234168175</v>
       </c>
       <c r="H60" s="1">
-        <v>25.590000152587901</v>
+        <v>25.5900001525879</v>
       </c>
       <c r="I60" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J60" s="1">
-        <v>1462002543000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.462002543E12</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="A61" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B61" s="1">
-        <v>8877689391</v>
+        <v>8.877689391E9</v>
       </c>
       <c r="C61" s="3">
-        <v>42491</v>
+        <v>42491.0</v>
       </c>
       <c r="D61" s="4">
-        <v>0.36653935185185182</v>
+        <v>0.3665393518518518</v>
       </c>
       <c r="E61" s="1">
-        <v>85.300003051757798</v>
+        <v>85.3000030517578</v>
       </c>
       <c r="F61" s="1">
-        <v>188.05431637177901</v>
+        <v>188.054316371779</v>
       </c>
       <c r="H61" s="1">
-        <v>25.530000686645501</v>
+        <v>25.5300006866455</v>
       </c>
       <c r="I61" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J61" s="1">
-        <v>1462092469000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.462092469E12</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="A62" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B62" s="1">
-        <v>8877689391</v>
+        <v>8.877689391E9</v>
       </c>
       <c r="C62" s="3">
-        <v>42493</v>
+        <v>42493.0</v>
       </c>
       <c r="D62" s="4">
-        <v>0.28450231481481481</v>
+        <v>0.2845023148148148</v>
       </c>
       <c r="E62" s="1">
-        <v>84.900001525878906</v>
+        <v>84.9000015258789</v>
       </c>
       <c r="F62" s="1">
-        <v>187.17246395905201</v>
+        <v>187.172463959052</v>
       </c>
       <c r="H62" s="1">
-        <v>25.409999847412099</v>
+        <v>25.4099998474121</v>
       </c>
       <c r="I62" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J62" s="1">
-        <v>1462258181000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.462258181E12</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="A63" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B63" s="1">
-        <v>8877689391</v>
+        <v>8.877689391E9</v>
       </c>
       <c r="C63" s="3">
-        <v>42494</v>
+        <v>42494.0</v>
       </c>
       <c r="D63" s="4">
         <v>0.28358796296296296</v>
       </c>
       <c r="E63" s="1">
-        <v>84.400001525878906</v>
+        <v>84.4000015258789</v>
       </c>
       <c r="F63" s="1">
-        <v>186.07015264812699</v>
+        <v>186.070152648127</v>
       </c>
       <c r="H63" s="1">
         <v>25.2600002288818</v>
@@ -2394,3883 +2363,3883 @@
         <v>0</v>
       </c>
       <c r="J63" s="1">
-        <v>1462344502000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.462344502E12</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="A64" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B64" s="1">
-        <v>8877689391</v>
+        <v>8.877689391E9</v>
       </c>
       <c r="C64" s="3">
-        <v>42496</v>
+        <v>42496.0</v>
       </c>
       <c r="D64" s="4">
         <v>0.2802662037037037</v>
       </c>
       <c r="E64" s="1">
-        <v>85</v>
+        <v>85.0</v>
       </c>
       <c r="F64" s="1">
         <v>187.39292285725</v>
       </c>
       <c r="H64" s="1">
-        <v>25.440000534057599</v>
+        <v>25.4400005340576</v>
       </c>
       <c r="I64" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J64" s="1">
-        <v>1462517015000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.462517015E12</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="A65" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B65" s="1">
-        <v>8877689391</v>
+        <v>8.877689391E9</v>
       </c>
       <c r="C65" s="3">
-        <v>42498</v>
+        <v>42498.0</v>
       </c>
       <c r="D65" s="4">
         <v>0.31658564814814816</v>
       </c>
       <c r="E65" s="1">
-        <v>85.400001525878906</v>
+        <v>85.4000015258789</v>
       </c>
       <c r="F65" s="1">
         <v>188.274775269977</v>
       </c>
       <c r="H65" s="1">
-        <v>25.559999465942401</v>
+        <v>25.5599994659424</v>
       </c>
       <c r="I65" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J65" s="1">
-        <v>1462692953000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.462692953E12</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="A66" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B66" s="1">
-        <v>8877689391</v>
+        <v>8.877689391E9</v>
       </c>
       <c r="C66" s="3">
-        <v>42499</v>
+        <v>42499.0</v>
       </c>
       <c r="D66" s="4">
-        <v>0.27759259259259261</v>
+        <v>0.2775925925925926</v>
       </c>
       <c r="E66" s="1">
         <v>85.5</v>
       </c>
       <c r="F66" s="1">
-        <v>188.49523416817499</v>
+        <v>188.495234168175</v>
       </c>
       <c r="H66" s="1">
-        <v>25.610000610351602</v>
+        <v>25.6100006103516</v>
       </c>
       <c r="I66" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J66" s="1">
-        <v>1462775984000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.462775984E12</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="A67" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B67" s="1">
-        <v>8877689391</v>
+        <v>8.877689391E9</v>
       </c>
       <c r="C67" s="3">
-        <v>42501</v>
+        <v>42501.0</v>
       </c>
       <c r="D67" s="4">
         <v>0.28596064814814814</v>
       </c>
       <c r="E67" s="1">
-        <v>85.400001525878906</v>
+        <v>85.4000015258789</v>
       </c>
       <c r="F67" s="1">
         <v>188.274775269977</v>
       </c>
       <c r="H67" s="1">
-        <v>25.559999465942401</v>
+        <v>25.5599994659424</v>
       </c>
       <c r="I67" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J67" s="1">
-        <v>1462949507000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.462949507E12</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="A68" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B68" s="1">
-        <v>8877689391</v>
+        <v>8.877689391E9</v>
       </c>
       <c r="C68" s="3">
-        <v>42502</v>
+        <v>42502.0</v>
       </c>
       <c r="D68" s="4">
         <v>0.27978009259259257</v>
       </c>
       <c r="E68" s="1">
-        <v>84</v>
+        <v>84.0</v>
       </c>
       <c r="F68" s="1">
-        <v>185.18830023539999</v>
+        <v>185.1883002354</v>
       </c>
       <c r="H68" s="1">
-        <v>25.139999389648398</v>
+        <v>25.1399993896484</v>
       </c>
       <c r="I68" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J68" s="1">
-        <v>1463035373000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.463035373E12</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="95">
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="96">
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="97">
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="98">
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="99">
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="100">
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="101">
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="102">
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="103">
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="104">
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="105">
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="106">
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="107">
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="108">
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="109">
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="110">
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="111">
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="112">
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="113">
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="114">
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="115">
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="116">
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="117">
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="118">
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="119">
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="120">
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="121">
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="122">
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="123">
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="124">
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="125">
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="126">
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="127">
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="128">
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="129">
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="130">
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="131">
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="132">
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
     </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="133">
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
     </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="134">
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
     </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="135">
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
     </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="136">
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
     </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="137">
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
     </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="138">
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
     </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="139">
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
     </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="140">
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
     </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="141">
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
     </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="142">
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
     </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="143">
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
     </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="144">
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="145">
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="146">
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
     </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="147">
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
     </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="148">
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="149">
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
     </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="150">
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
     </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="151">
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
     </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="152">
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
     </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="153">
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
     </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="154">
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
     </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="155">
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
     </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="156">
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
     </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="157">
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
     </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="158">
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
     </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="159">
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
     </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="160">
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
     </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="161">
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
     </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="162">
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
     </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="163">
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
     </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="164">
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
     </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="165">
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
     </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="166">
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
     </row>
-    <row r="167" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="167">
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
     </row>
-    <row r="168" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="168">
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
     </row>
-    <row r="169" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="169">
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
     </row>
-    <row r="170" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="170">
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
     </row>
-    <row r="171" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="171">
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
     </row>
-    <row r="172" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="172">
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
     </row>
-    <row r="173" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="173">
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
     </row>
-    <row r="174" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="174">
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
     </row>
-    <row r="175" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="175">
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
     </row>
-    <row r="176" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="176">
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
     </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="177">
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
     </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="178">
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
     </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="179">
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
     </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="180">
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
     </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="181">
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
     </row>
-    <row r="182" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="182">
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
     </row>
-    <row r="183" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="183">
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
     </row>
-    <row r="184" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="184">
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
     </row>
-    <row r="185" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="185">
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
     </row>
-    <row r="186" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="186">
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
     </row>
-    <row r="187" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="187">
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
     </row>
-    <row r="188" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="188">
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
     </row>
-    <row r="189" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="189">
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
     </row>
-    <row r="190" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="190">
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
     </row>
-    <row r="191" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="191">
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
     </row>
-    <row r="192" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="192">
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
     </row>
-    <row r="193" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="193">
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
     </row>
-    <row r="194" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="194">
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
     </row>
-    <row r="195" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="195">
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
     </row>
-    <row r="196" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="196">
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
     </row>
-    <row r="197" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="197">
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
     </row>
-    <row r="198" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="198">
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
     </row>
-    <row r="199" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="199">
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
     </row>
-    <row r="200" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="200">
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
     </row>
-    <row r="201" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="201">
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
     </row>
-    <row r="202" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="202">
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
     </row>
-    <row r="203" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="203">
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
     </row>
-    <row r="204" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="204">
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
     </row>
-    <row r="205" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="205">
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
     </row>
-    <row r="206" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="206">
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
     </row>
-    <row r="207" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="207">
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
     </row>
-    <row r="208" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="208">
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
     </row>
-    <row r="209" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="209">
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
     </row>
-    <row r="210" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="210">
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
     </row>
-    <row r="211" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="211">
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
     </row>
-    <row r="212" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="212">
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
     </row>
-    <row r="213" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="213">
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
     </row>
-    <row r="214" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="214">
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
     </row>
-    <row r="215" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="215">
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
     </row>
-    <row r="216" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="216">
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
     </row>
-    <row r="217" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="217">
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
     </row>
-    <row r="218" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="218">
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
     </row>
-    <row r="219" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="219">
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
     </row>
-    <row r="220" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="220">
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
     </row>
-    <row r="221" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="221">
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
     </row>
-    <row r="222" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="222">
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
     </row>
-    <row r="223" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="223">
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
     </row>
-    <row r="224" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="224">
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
     </row>
-    <row r="225" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="225">
       <c r="C225" s="5"/>
       <c r="D225" s="5"/>
     </row>
-    <row r="226" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="226">
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
     </row>
-    <row r="227" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="227">
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
     </row>
-    <row r="228" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="228">
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
     </row>
-    <row r="229" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="229">
       <c r="C229" s="5"/>
       <c r="D229" s="5"/>
     </row>
-    <row r="230" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="230">
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
     </row>
-    <row r="231" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="231">
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
     </row>
-    <row r="232" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="232">
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
     </row>
-    <row r="233" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="233">
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
     </row>
-    <row r="234" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="234">
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
     </row>
-    <row r="235" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="235">
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
     </row>
-    <row r="236" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="236">
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
     </row>
-    <row r="237" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="237">
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
     </row>
-    <row r="238" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="238">
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
     </row>
-    <row r="239" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="239">
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
     </row>
-    <row r="240" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="240">
       <c r="C240" s="5"/>
       <c r="D240" s="5"/>
     </row>
-    <row r="241" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="241">
       <c r="C241" s="5"/>
       <c r="D241" s="5"/>
     </row>
-    <row r="242" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="242">
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
     </row>
-    <row r="243" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="243">
       <c r="C243" s="5"/>
       <c r="D243" s="5"/>
     </row>
-    <row r="244" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="244">
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
     </row>
-    <row r="245" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="245">
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
     </row>
-    <row r="246" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="246">
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
     </row>
-    <row r="247" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="247">
       <c r="C247" s="5"/>
       <c r="D247" s="5"/>
     </row>
-    <row r="248" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="248">
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
     </row>
-    <row r="249" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="249">
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
     </row>
-    <row r="250" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="250">
       <c r="C250" s="5"/>
       <c r="D250" s="5"/>
     </row>
-    <row r="251" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="251">
       <c r="C251" s="5"/>
       <c r="D251" s="5"/>
     </row>
-    <row r="252" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="252">
       <c r="C252" s="5"/>
       <c r="D252" s="5"/>
     </row>
-    <row r="253" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="253">
       <c r="C253" s="5"/>
       <c r="D253" s="5"/>
     </row>
-    <row r="254" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="254">
       <c r="C254" s="5"/>
       <c r="D254" s="5"/>
     </row>
-    <row r="255" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="255">
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
     </row>
-    <row r="256" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="256">
       <c r="C256" s="5"/>
       <c r="D256" s="5"/>
     </row>
-    <row r="257" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="257">
       <c r="C257" s="5"/>
       <c r="D257" s="5"/>
     </row>
-    <row r="258" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="258">
       <c r="C258" s="5"/>
       <c r="D258" s="5"/>
     </row>
-    <row r="259" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="259">
       <c r="C259" s="5"/>
       <c r="D259" s="5"/>
     </row>
-    <row r="260" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="260">
       <c r="C260" s="5"/>
       <c r="D260" s="5"/>
     </row>
-    <row r="261" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="261">
       <c r="C261" s="5"/>
       <c r="D261" s="5"/>
     </row>
-    <row r="262" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="262">
       <c r="C262" s="5"/>
       <c r="D262" s="5"/>
     </row>
-    <row r="263" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="263">
       <c r="C263" s="5"/>
       <c r="D263" s="5"/>
     </row>
-    <row r="264" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="264">
       <c r="C264" s="5"/>
       <c r="D264" s="5"/>
     </row>
-    <row r="265" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="265">
       <c r="C265" s="5"/>
       <c r="D265" s="5"/>
     </row>
-    <row r="266" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="266">
       <c r="C266" s="5"/>
       <c r="D266" s="5"/>
     </row>
-    <row r="267" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="267">
       <c r="C267" s="5"/>
       <c r="D267" s="5"/>
     </row>
-    <row r="268" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="268">
       <c r="C268" s="5"/>
       <c r="D268" s="5"/>
     </row>
-    <row r="269" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="269">
       <c r="C269" s="5"/>
       <c r="D269" s="5"/>
     </row>
-    <row r="270" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="270">
       <c r="C270" s="5"/>
       <c r="D270" s="5"/>
     </row>
-    <row r="271" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="271">
       <c r="C271" s="5"/>
       <c r="D271" s="5"/>
     </row>
-    <row r="272" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="272">
       <c r="C272" s="5"/>
       <c r="D272" s="5"/>
     </row>
-    <row r="273" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="273">
       <c r="C273" s="5"/>
       <c r="D273" s="5"/>
     </row>
-    <row r="274" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="274">
       <c r="C274" s="5"/>
       <c r="D274" s="5"/>
     </row>
-    <row r="275" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="275">
       <c r="C275" s="5"/>
       <c r="D275" s="5"/>
     </row>
-    <row r="276" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="276">
       <c r="C276" s="5"/>
       <c r="D276" s="5"/>
     </row>
-    <row r="277" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="277">
       <c r="C277" s="5"/>
       <c r="D277" s="5"/>
     </row>
-    <row r="278" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="278">
       <c r="C278" s="5"/>
       <c r="D278" s="5"/>
     </row>
-    <row r="279" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="279">
       <c r="C279" s="5"/>
       <c r="D279" s="5"/>
     </row>
-    <row r="280" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="280">
       <c r="C280" s="5"/>
       <c r="D280" s="5"/>
     </row>
-    <row r="281" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="281">
       <c r="C281" s="5"/>
       <c r="D281" s="5"/>
     </row>
-    <row r="282" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="282">
       <c r="C282" s="5"/>
       <c r="D282" s="5"/>
     </row>
-    <row r="283" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="283">
       <c r="C283" s="5"/>
       <c r="D283" s="5"/>
     </row>
-    <row r="284" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="284">
       <c r="C284" s="5"/>
       <c r="D284" s="5"/>
     </row>
-    <row r="285" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="285">
       <c r="C285" s="5"/>
       <c r="D285" s="5"/>
     </row>
-    <row r="286" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="286">
       <c r="C286" s="5"/>
       <c r="D286" s="5"/>
     </row>
-    <row r="287" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="287">
       <c r="C287" s="5"/>
       <c r="D287" s="5"/>
     </row>
-    <row r="288" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="288">
       <c r="C288" s="5"/>
       <c r="D288" s="5"/>
     </row>
-    <row r="289" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="289">
       <c r="C289" s="5"/>
       <c r="D289" s="5"/>
     </row>
-    <row r="290" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="290">
       <c r="C290" s="5"/>
       <c r="D290" s="5"/>
     </row>
-    <row r="291" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="291">
       <c r="C291" s="5"/>
       <c r="D291" s="5"/>
     </row>
-    <row r="292" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="292">
       <c r="C292" s="5"/>
       <c r="D292" s="5"/>
     </row>
-    <row r="293" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="293">
       <c r="C293" s="5"/>
       <c r="D293" s="5"/>
     </row>
-    <row r="294" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="294">
       <c r="C294" s="5"/>
       <c r="D294" s="5"/>
     </row>
-    <row r="295" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="295">
       <c r="C295" s="5"/>
       <c r="D295" s="5"/>
     </row>
-    <row r="296" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="296">
       <c r="C296" s="5"/>
       <c r="D296" s="5"/>
     </row>
-    <row r="297" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="297">
       <c r="C297" s="5"/>
       <c r="D297" s="5"/>
     </row>
-    <row r="298" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="298">
       <c r="C298" s="5"/>
       <c r="D298" s="5"/>
     </row>
-    <row r="299" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="299">
       <c r="C299" s="5"/>
       <c r="D299" s="5"/>
     </row>
-    <row r="300" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="300">
       <c r="C300" s="5"/>
       <c r="D300" s="5"/>
     </row>
-    <row r="301" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="301">
       <c r="C301" s="5"/>
       <c r="D301" s="5"/>
     </row>
-    <row r="302" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="302">
       <c r="C302" s="5"/>
       <c r="D302" s="5"/>
     </row>
-    <row r="303" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="303">
       <c r="C303" s="5"/>
       <c r="D303" s="5"/>
     </row>
-    <row r="304" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="304">
       <c r="C304" s="5"/>
       <c r="D304" s="5"/>
     </row>
-    <row r="305" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="305">
       <c r="C305" s="5"/>
       <c r="D305" s="5"/>
     </row>
-    <row r="306" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="306">
       <c r="C306" s="5"/>
       <c r="D306" s="5"/>
     </row>
-    <row r="307" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="307">
       <c r="C307" s="5"/>
       <c r="D307" s="5"/>
     </row>
-    <row r="308" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="308">
       <c r="C308" s="5"/>
       <c r="D308" s="5"/>
     </row>
-    <row r="309" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="309">
       <c r="C309" s="5"/>
       <c r="D309" s="5"/>
     </row>
-    <row r="310" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="310">
       <c r="C310" s="5"/>
       <c r="D310" s="5"/>
     </row>
-    <row r="311" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="311">
       <c r="C311" s="5"/>
       <c r="D311" s="5"/>
     </row>
-    <row r="312" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="312">
       <c r="C312" s="5"/>
       <c r="D312" s="5"/>
     </row>
-    <row r="313" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="313">
       <c r="C313" s="5"/>
       <c r="D313" s="5"/>
     </row>
-    <row r="314" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="314">
       <c r="C314" s="5"/>
       <c r="D314" s="5"/>
     </row>
-    <row r="315" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="315">
       <c r="C315" s="5"/>
       <c r="D315" s="5"/>
     </row>
-    <row r="316" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="316">
       <c r="C316" s="5"/>
       <c r="D316" s="5"/>
     </row>
-    <row r="317" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="317">
       <c r="C317" s="5"/>
       <c r="D317" s="5"/>
     </row>
-    <row r="318" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="318">
       <c r="C318" s="5"/>
       <c r="D318" s="5"/>
     </row>
-    <row r="319" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="319">
       <c r="C319" s="5"/>
       <c r="D319" s="5"/>
     </row>
-    <row r="320" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="320">
       <c r="C320" s="5"/>
       <c r="D320" s="5"/>
     </row>
-    <row r="321" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="321">
       <c r="C321" s="5"/>
       <c r="D321" s="5"/>
     </row>
-    <row r="322" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="322">
       <c r="C322" s="5"/>
       <c r="D322" s="5"/>
     </row>
-    <row r="323" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="323">
       <c r="C323" s="5"/>
       <c r="D323" s="5"/>
     </row>
-    <row r="324" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="324">
       <c r="C324" s="5"/>
       <c r="D324" s="5"/>
     </row>
-    <row r="325" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="325">
       <c r="C325" s="5"/>
       <c r="D325" s="5"/>
     </row>
-    <row r="326" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="326">
       <c r="C326" s="5"/>
       <c r="D326" s="5"/>
     </row>
-    <row r="327" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="327">
       <c r="C327" s="5"/>
       <c r="D327" s="5"/>
     </row>
-    <row r="328" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="328">
       <c r="C328" s="5"/>
       <c r="D328" s="5"/>
     </row>
-    <row r="329" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="329">
       <c r="C329" s="5"/>
       <c r="D329" s="5"/>
     </row>
-    <row r="330" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="330">
       <c r="C330" s="5"/>
       <c r="D330" s="5"/>
     </row>
-    <row r="331" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="331">
       <c r="C331" s="5"/>
       <c r="D331" s="5"/>
     </row>
-    <row r="332" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="332">
       <c r="C332" s="5"/>
       <c r="D332" s="5"/>
     </row>
-    <row r="333" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="333">
       <c r="C333" s="5"/>
       <c r="D333" s="5"/>
     </row>
-    <row r="334" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="334">
       <c r="C334" s="5"/>
       <c r="D334" s="5"/>
     </row>
-    <row r="335" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="335">
       <c r="C335" s="5"/>
       <c r="D335" s="5"/>
     </row>
-    <row r="336" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="336">
       <c r="C336" s="5"/>
       <c r="D336" s="5"/>
     </row>
-    <row r="337" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="337">
       <c r="C337" s="5"/>
       <c r="D337" s="5"/>
     </row>
-    <row r="338" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="338">
       <c r="C338" s="5"/>
       <c r="D338" s="5"/>
     </row>
-    <row r="339" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="339">
       <c r="C339" s="5"/>
       <c r="D339" s="5"/>
     </row>
-    <row r="340" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="340">
       <c r="C340" s="5"/>
       <c r="D340" s="5"/>
     </row>
-    <row r="341" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="341">
       <c r="C341" s="5"/>
       <c r="D341" s="5"/>
     </row>
-    <row r="342" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="342">
       <c r="C342" s="5"/>
       <c r="D342" s="5"/>
     </row>
-    <row r="343" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="343">
       <c r="C343" s="5"/>
       <c r="D343" s="5"/>
     </row>
-    <row r="344" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="344">
       <c r="C344" s="5"/>
       <c r="D344" s="5"/>
     </row>
-    <row r="345" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="345">
       <c r="C345" s="5"/>
       <c r="D345" s="5"/>
     </row>
-    <row r="346" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="346">
       <c r="C346" s="5"/>
       <c r="D346" s="5"/>
     </row>
-    <row r="347" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="347">
       <c r="C347" s="5"/>
       <c r="D347" s="5"/>
     </row>
-    <row r="348" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="348">
       <c r="C348" s="5"/>
       <c r="D348" s="5"/>
     </row>
-    <row r="349" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="349">
       <c r="C349" s="5"/>
       <c r="D349" s="5"/>
     </row>
-    <row r="350" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="350">
       <c r="C350" s="5"/>
       <c r="D350" s="5"/>
     </row>
-    <row r="351" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="351">
       <c r="C351" s="5"/>
       <c r="D351" s="5"/>
     </row>
-    <row r="352" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="352">
       <c r="C352" s="5"/>
       <c r="D352" s="5"/>
     </row>
-    <row r="353" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="353">
       <c r="C353" s="5"/>
       <c r="D353" s="5"/>
     </row>
-    <row r="354" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="354">
       <c r="C354" s="5"/>
       <c r="D354" s="5"/>
     </row>
-    <row r="355" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="355">
       <c r="C355" s="5"/>
       <c r="D355" s="5"/>
     </row>
-    <row r="356" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="356">
       <c r="C356" s="5"/>
       <c r="D356" s="5"/>
     </row>
-    <row r="357" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="357">
       <c r="C357" s="5"/>
       <c r="D357" s="5"/>
     </row>
-    <row r="358" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="358">
       <c r="C358" s="5"/>
       <c r="D358" s="5"/>
     </row>
-    <row r="359" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="359">
       <c r="C359" s="5"/>
       <c r="D359" s="5"/>
     </row>
-    <row r="360" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="360">
       <c r="C360" s="5"/>
       <c r="D360" s="5"/>
     </row>
-    <row r="361" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="361">
       <c r="C361" s="5"/>
       <c r="D361" s="5"/>
     </row>
-    <row r="362" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="362">
       <c r="C362" s="5"/>
       <c r="D362" s="5"/>
     </row>
-    <row r="363" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="363">
       <c r="C363" s="5"/>
       <c r="D363" s="5"/>
     </row>
-    <row r="364" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="364">
       <c r="C364" s="5"/>
       <c r="D364" s="5"/>
     </row>
-    <row r="365" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="365">
       <c r="C365" s="5"/>
       <c r="D365" s="5"/>
     </row>
-    <row r="366" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="366">
       <c r="C366" s="5"/>
       <c r="D366" s="5"/>
     </row>
-    <row r="367" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="367">
       <c r="C367" s="5"/>
       <c r="D367" s="5"/>
     </row>
-    <row r="368" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="368">
       <c r="C368" s="5"/>
       <c r="D368" s="5"/>
     </row>
-    <row r="369" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="369">
       <c r="C369" s="5"/>
       <c r="D369" s="5"/>
     </row>
-    <row r="370" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="370">
       <c r="C370" s="5"/>
       <c r="D370" s="5"/>
     </row>
-    <row r="371" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="371">
       <c r="C371" s="5"/>
       <c r="D371" s="5"/>
     </row>
-    <row r="372" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="372">
       <c r="C372" s="5"/>
       <c r="D372" s="5"/>
     </row>
-    <row r="373" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="373">
       <c r="C373" s="5"/>
       <c r="D373" s="5"/>
     </row>
-    <row r="374" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="374">
       <c r="C374" s="5"/>
       <c r="D374" s="5"/>
     </row>
-    <row r="375" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="375">
       <c r="C375" s="5"/>
       <c r="D375" s="5"/>
     </row>
-    <row r="376" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="376">
       <c r="C376" s="5"/>
       <c r="D376" s="5"/>
     </row>
-    <row r="377" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="377">
       <c r="C377" s="5"/>
       <c r="D377" s="5"/>
     </row>
-    <row r="378" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="378">
       <c r="C378" s="5"/>
       <c r="D378" s="5"/>
     </row>
-    <row r="379" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="379">
       <c r="C379" s="5"/>
       <c r="D379" s="5"/>
     </row>
-    <row r="380" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="380">
       <c r="C380" s="5"/>
       <c r="D380" s="5"/>
     </row>
-    <row r="381" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="381">
       <c r="C381" s="5"/>
       <c r="D381" s="5"/>
     </row>
-    <row r="382" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="382">
       <c r="C382" s="5"/>
       <c r="D382" s="5"/>
     </row>
-    <row r="383" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="383">
       <c r="C383" s="5"/>
       <c r="D383" s="5"/>
     </row>
-    <row r="384" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="384">
       <c r="C384" s="5"/>
       <c r="D384" s="5"/>
     </row>
-    <row r="385" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="385">
       <c r="C385" s="5"/>
       <c r="D385" s="5"/>
     </row>
-    <row r="386" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="386">
       <c r="C386" s="5"/>
       <c r="D386" s="5"/>
     </row>
-    <row r="387" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="387">
       <c r="C387" s="5"/>
       <c r="D387" s="5"/>
     </row>
-    <row r="388" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="388">
       <c r="C388" s="5"/>
       <c r="D388" s="5"/>
     </row>
-    <row r="389" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="389">
       <c r="C389" s="5"/>
       <c r="D389" s="5"/>
     </row>
-    <row r="390" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="390">
       <c r="C390" s="5"/>
       <c r="D390" s="5"/>
     </row>
-    <row r="391" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="391">
       <c r="C391" s="5"/>
       <c r="D391" s="5"/>
     </row>
-    <row r="392" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="392">
       <c r="C392" s="5"/>
       <c r="D392" s="5"/>
     </row>
-    <row r="393" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="393">
       <c r="C393" s="5"/>
       <c r="D393" s="5"/>
     </row>
-    <row r="394" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="394">
       <c r="C394" s="5"/>
       <c r="D394" s="5"/>
     </row>
-    <row r="395" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="395">
       <c r="C395" s="5"/>
       <c r="D395" s="5"/>
     </row>
-    <row r="396" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="396">
       <c r="C396" s="5"/>
       <c r="D396" s="5"/>
     </row>
-    <row r="397" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="397">
       <c r="C397" s="5"/>
       <c r="D397" s="5"/>
     </row>
-    <row r="398" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="398">
       <c r="C398" s="5"/>
       <c r="D398" s="5"/>
     </row>
-    <row r="399" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="399">
       <c r="C399" s="5"/>
       <c r="D399" s="5"/>
     </row>
-    <row r="400" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="400">
       <c r="C400" s="5"/>
       <c r="D400" s="5"/>
     </row>
-    <row r="401" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="401">
       <c r="C401" s="5"/>
       <c r="D401" s="5"/>
     </row>
-    <row r="402" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="402">
       <c r="C402" s="5"/>
       <c r="D402" s="5"/>
     </row>
-    <row r="403" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="403">
       <c r="C403" s="5"/>
       <c r="D403" s="5"/>
     </row>
-    <row r="404" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="404">
       <c r="C404" s="5"/>
       <c r="D404" s="5"/>
     </row>
-    <row r="405" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="405">
       <c r="C405" s="5"/>
       <c r="D405" s="5"/>
     </row>
-    <row r="406" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="406">
       <c r="C406" s="5"/>
       <c r="D406" s="5"/>
     </row>
-    <row r="407" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="407">
       <c r="C407" s="5"/>
       <c r="D407" s="5"/>
     </row>
-    <row r="408" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="408">
       <c r="C408" s="5"/>
       <c r="D408" s="5"/>
     </row>
-    <row r="409" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="409">
       <c r="C409" s="5"/>
       <c r="D409" s="5"/>
     </row>
-    <row r="410" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="410">
       <c r="C410" s="5"/>
       <c r="D410" s="5"/>
     </row>
-    <row r="411" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="411">
       <c r="C411" s="5"/>
       <c r="D411" s="5"/>
     </row>
-    <row r="412" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="412">
       <c r="C412" s="5"/>
       <c r="D412" s="5"/>
     </row>
-    <row r="413" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="413">
       <c r="C413" s="5"/>
       <c r="D413" s="5"/>
     </row>
-    <row r="414" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="414">
       <c r="C414" s="5"/>
       <c r="D414" s="5"/>
     </row>
-    <row r="415" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="415">
       <c r="C415" s="5"/>
       <c r="D415" s="5"/>
     </row>
-    <row r="416" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="416">
       <c r="C416" s="5"/>
       <c r="D416" s="5"/>
     </row>
-    <row r="417" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="417">
       <c r="C417" s="5"/>
       <c r="D417" s="5"/>
     </row>
-    <row r="418" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="418">
       <c r="C418" s="5"/>
       <c r="D418" s="5"/>
     </row>
-    <row r="419" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="419">
       <c r="C419" s="5"/>
       <c r="D419" s="5"/>
     </row>
-    <row r="420" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="420">
       <c r="C420" s="5"/>
       <c r="D420" s="5"/>
     </row>
-    <row r="421" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="421">
       <c r="C421" s="5"/>
       <c r="D421" s="5"/>
     </row>
-    <row r="422" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="422">
       <c r="C422" s="5"/>
       <c r="D422" s="5"/>
     </row>
-    <row r="423" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="423">
       <c r="C423" s="5"/>
       <c r="D423" s="5"/>
     </row>
-    <row r="424" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="424">
       <c r="C424" s="5"/>
       <c r="D424" s="5"/>
     </row>
-    <row r="425" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="425">
       <c r="C425" s="5"/>
       <c r="D425" s="5"/>
     </row>
-    <row r="426" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="426">
       <c r="C426" s="5"/>
       <c r="D426" s="5"/>
     </row>
-    <row r="427" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="427">
       <c r="C427" s="5"/>
       <c r="D427" s="5"/>
     </row>
-    <row r="428" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="428">
       <c r="C428" s="5"/>
       <c r="D428" s="5"/>
     </row>
-    <row r="429" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="429">
       <c r="C429" s="5"/>
       <c r="D429" s="5"/>
     </row>
-    <row r="430" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="430">
       <c r="C430" s="5"/>
       <c r="D430" s="5"/>
     </row>
-    <row r="431" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="431">
       <c r="C431" s="5"/>
       <c r="D431" s="5"/>
     </row>
-    <row r="432" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="432">
       <c r="C432" s="5"/>
       <c r="D432" s="5"/>
     </row>
-    <row r="433" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="433">
       <c r="C433" s="5"/>
       <c r="D433" s="5"/>
     </row>
-    <row r="434" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="434">
       <c r="C434" s="5"/>
       <c r="D434" s="5"/>
     </row>
-    <row r="435" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="435">
       <c r="C435" s="5"/>
       <c r="D435" s="5"/>
     </row>
-    <row r="436" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="436">
       <c r="C436" s="5"/>
       <c r="D436" s="5"/>
     </row>
-    <row r="437" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="437">
       <c r="C437" s="5"/>
       <c r="D437" s="5"/>
     </row>
-    <row r="438" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="438">
       <c r="C438" s="5"/>
       <c r="D438" s="5"/>
     </row>
-    <row r="439" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="439">
       <c r="C439" s="5"/>
       <c r="D439" s="5"/>
     </row>
-    <row r="440" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="440">
       <c r="C440" s="5"/>
       <c r="D440" s="5"/>
     </row>
-    <row r="441" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="441">
       <c r="C441" s="5"/>
       <c r="D441" s="5"/>
     </row>
-    <row r="442" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="442">
       <c r="C442" s="5"/>
       <c r="D442" s="5"/>
     </row>
-    <row r="443" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="443">
       <c r="C443" s="5"/>
       <c r="D443" s="5"/>
     </row>
-    <row r="444" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="444">
       <c r="C444" s="5"/>
       <c r="D444" s="5"/>
     </row>
-    <row r="445" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="445">
       <c r="C445" s="5"/>
       <c r="D445" s="5"/>
     </row>
-    <row r="446" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="446">
       <c r="C446" s="5"/>
       <c r="D446" s="5"/>
     </row>
-    <row r="447" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="447">
       <c r="C447" s="5"/>
       <c r="D447" s="5"/>
     </row>
-    <row r="448" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="448">
       <c r="C448" s="5"/>
       <c r="D448" s="5"/>
     </row>
-    <row r="449" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="449">
       <c r="C449" s="5"/>
       <c r="D449" s="5"/>
     </row>
-    <row r="450" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="450">
       <c r="C450" s="5"/>
       <c r="D450" s="5"/>
     </row>
-    <row r="451" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="451">
       <c r="C451" s="5"/>
       <c r="D451" s="5"/>
     </row>
-    <row r="452" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="452">
       <c r="C452" s="5"/>
       <c r="D452" s="5"/>
     </row>
-    <row r="453" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="453">
       <c r="C453" s="5"/>
       <c r="D453" s="5"/>
     </row>
-    <row r="454" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="454">
       <c r="C454" s="5"/>
       <c r="D454" s="5"/>
     </row>
-    <row r="455" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="455">
       <c r="C455" s="5"/>
       <c r="D455" s="5"/>
     </row>
-    <row r="456" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="456">
       <c r="C456" s="5"/>
       <c r="D456" s="5"/>
     </row>
-    <row r="457" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="457">
       <c r="C457" s="5"/>
       <c r="D457" s="5"/>
     </row>
-    <row r="458" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="458">
       <c r="C458" s="5"/>
       <c r="D458" s="5"/>
     </row>
-    <row r="459" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="459">
       <c r="C459" s="5"/>
       <c r="D459" s="5"/>
     </row>
-    <row r="460" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="460">
       <c r="C460" s="5"/>
       <c r="D460" s="5"/>
     </row>
-    <row r="461" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="461">
       <c r="C461" s="5"/>
       <c r="D461" s="5"/>
     </row>
-    <row r="462" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="462">
       <c r="C462" s="5"/>
       <c r="D462" s="5"/>
     </row>
-    <row r="463" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="463">
       <c r="C463" s="5"/>
       <c r="D463" s="5"/>
     </row>
-    <row r="464" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="464">
       <c r="C464" s="5"/>
       <c r="D464" s="5"/>
     </row>
-    <row r="465" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="465">
       <c r="C465" s="5"/>
       <c r="D465" s="5"/>
     </row>
-    <row r="466" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="466">
       <c r="C466" s="5"/>
       <c r="D466" s="5"/>
     </row>
-    <row r="467" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="467">
       <c r="C467" s="5"/>
       <c r="D467" s="5"/>
     </row>
-    <row r="468" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="468">
       <c r="C468" s="5"/>
       <c r="D468" s="5"/>
     </row>
-    <row r="469" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="469">
       <c r="C469" s="5"/>
       <c r="D469" s="5"/>
     </row>
-    <row r="470" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="470">
       <c r="C470" s="5"/>
       <c r="D470" s="5"/>
     </row>
-    <row r="471" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="471">
       <c r="C471" s="5"/>
       <c r="D471" s="5"/>
     </row>
-    <row r="472" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="472">
       <c r="C472" s="5"/>
       <c r="D472" s="5"/>
     </row>
-    <row r="473" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="473">
       <c r="C473" s="5"/>
       <c r="D473" s="5"/>
     </row>
-    <row r="474" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="474">
       <c r="C474" s="5"/>
       <c r="D474" s="5"/>
     </row>
-    <row r="475" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="475">
       <c r="C475" s="5"/>
       <c r="D475" s="5"/>
     </row>
-    <row r="476" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="476">
       <c r="C476" s="5"/>
       <c r="D476" s="5"/>
     </row>
-    <row r="477" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="477">
       <c r="C477" s="5"/>
       <c r="D477" s="5"/>
     </row>
-    <row r="478" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="478">
       <c r="C478" s="5"/>
       <c r="D478" s="5"/>
     </row>
-    <row r="479" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="479">
       <c r="C479" s="5"/>
       <c r="D479" s="5"/>
     </row>
-    <row r="480" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="480">
       <c r="C480" s="5"/>
       <c r="D480" s="5"/>
     </row>
-    <row r="481" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="481">
       <c r="C481" s="5"/>
       <c r="D481" s="5"/>
     </row>
-    <row r="482" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="482">
       <c r="C482" s="5"/>
       <c r="D482" s="5"/>
     </row>
-    <row r="483" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="483">
       <c r="C483" s="5"/>
       <c r="D483" s="5"/>
     </row>
-    <row r="484" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="484">
       <c r="C484" s="5"/>
       <c r="D484" s="5"/>
     </row>
-    <row r="485" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="485">
       <c r="C485" s="5"/>
       <c r="D485" s="5"/>
     </row>
-    <row r="486" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="486">
       <c r="C486" s="5"/>
       <c r="D486" s="5"/>
     </row>
-    <row r="487" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="487">
       <c r="C487" s="5"/>
       <c r="D487" s="5"/>
     </row>
-    <row r="488" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="488">
       <c r="C488" s="5"/>
       <c r="D488" s="5"/>
     </row>
-    <row r="489" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="489">
       <c r="C489" s="5"/>
       <c r="D489" s="5"/>
     </row>
-    <row r="490" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="490">
       <c r="C490" s="5"/>
       <c r="D490" s="5"/>
     </row>
-    <row r="491" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="491">
       <c r="C491" s="5"/>
       <c r="D491" s="5"/>
     </row>
-    <row r="492" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="492">
       <c r="C492" s="5"/>
       <c r="D492" s="5"/>
     </row>
-    <row r="493" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="493">
       <c r="C493" s="5"/>
       <c r="D493" s="5"/>
     </row>
-    <row r="494" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="494">
       <c r="C494" s="5"/>
       <c r="D494" s="5"/>
     </row>
-    <row r="495" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="495">
       <c r="C495" s="5"/>
       <c r="D495" s="5"/>
     </row>
-    <row r="496" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="496">
       <c r="C496" s="5"/>
       <c r="D496" s="5"/>
     </row>
-    <row r="497" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="497">
       <c r="C497" s="5"/>
       <c r="D497" s="5"/>
     </row>
-    <row r="498" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="498">
       <c r="C498" s="5"/>
       <c r="D498" s="5"/>
     </row>
-    <row r="499" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="499">
       <c r="C499" s="5"/>
       <c r="D499" s="5"/>
     </row>
-    <row r="500" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="500">
       <c r="C500" s="5"/>
       <c r="D500" s="5"/>
     </row>
-    <row r="501" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="501">
       <c r="C501" s="5"/>
       <c r="D501" s="5"/>
     </row>
-    <row r="502" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="502">
       <c r="C502" s="5"/>
       <c r="D502" s="5"/>
     </row>
-    <row r="503" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="503">
       <c r="C503" s="5"/>
       <c r="D503" s="5"/>
     </row>
-    <row r="504" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="504">
       <c r="C504" s="5"/>
       <c r="D504" s="5"/>
     </row>
-    <row r="505" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="505">
       <c r="C505" s="5"/>
       <c r="D505" s="5"/>
     </row>
-    <row r="506" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="506">
       <c r="C506" s="5"/>
       <c r="D506" s="5"/>
     </row>
-    <row r="507" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="507">
       <c r="C507" s="5"/>
       <c r="D507" s="5"/>
     </row>
-    <row r="508" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="508">
       <c r="C508" s="5"/>
       <c r="D508" s="5"/>
     </row>
-    <row r="509" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="509">
       <c r="C509" s="5"/>
       <c r="D509" s="5"/>
     </row>
-    <row r="510" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="510">
       <c r="C510" s="5"/>
       <c r="D510" s="5"/>
     </row>
-    <row r="511" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="511">
       <c r="C511" s="5"/>
       <c r="D511" s="5"/>
     </row>
-    <row r="512" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="512">
       <c r="C512" s="5"/>
       <c r="D512" s="5"/>
     </row>
-    <row r="513" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="513">
       <c r="C513" s="5"/>
       <c r="D513" s="5"/>
     </row>
-    <row r="514" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="514">
       <c r="C514" s="5"/>
       <c r="D514" s="5"/>
     </row>
-    <row r="515" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="515">
       <c r="C515" s="5"/>
       <c r="D515" s="5"/>
     </row>
-    <row r="516" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="516">
       <c r="C516" s="5"/>
       <c r="D516" s="5"/>
     </row>
-    <row r="517" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="517">
       <c r="C517" s="5"/>
       <c r="D517" s="5"/>
     </row>
-    <row r="518" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="518">
       <c r="C518" s="5"/>
       <c r="D518" s="5"/>
     </row>
-    <row r="519" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="519">
       <c r="C519" s="5"/>
       <c r="D519" s="5"/>
     </row>
-    <row r="520" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="520">
       <c r="C520" s="5"/>
       <c r="D520" s="5"/>
     </row>
-    <row r="521" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="521">
       <c r="C521" s="5"/>
       <c r="D521" s="5"/>
     </row>
-    <row r="522" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="522">
       <c r="C522" s="5"/>
       <c r="D522" s="5"/>
     </row>
-    <row r="523" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="523">
       <c r="C523" s="5"/>
       <c r="D523" s="5"/>
     </row>
-    <row r="524" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="524">
       <c r="C524" s="5"/>
       <c r="D524" s="5"/>
     </row>
-    <row r="525" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="525">
       <c r="C525" s="5"/>
       <c r="D525" s="5"/>
     </row>
-    <row r="526" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="526">
       <c r="C526" s="5"/>
       <c r="D526" s="5"/>
     </row>
-    <row r="527" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="527">
       <c r="C527" s="5"/>
       <c r="D527" s="5"/>
     </row>
-    <row r="528" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="528">
       <c r="C528" s="5"/>
       <c r="D528" s="5"/>
     </row>
-    <row r="529" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="529">
       <c r="C529" s="5"/>
       <c r="D529" s="5"/>
     </row>
-    <row r="530" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="530">
       <c r="C530" s="5"/>
       <c r="D530" s="5"/>
     </row>
-    <row r="531" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="531">
       <c r="C531" s="5"/>
       <c r="D531" s="5"/>
     </row>
-    <row r="532" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="532">
       <c r="C532" s="5"/>
       <c r="D532" s="5"/>
     </row>
-    <row r="533" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="533">
       <c r="C533" s="5"/>
       <c r="D533" s="5"/>
     </row>
-    <row r="534" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="534">
       <c r="C534" s="5"/>
       <c r="D534" s="5"/>
     </row>
-    <row r="535" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="535">
       <c r="C535" s="5"/>
       <c r="D535" s="5"/>
     </row>
-    <row r="536" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="536">
       <c r="C536" s="5"/>
       <c r="D536" s="5"/>
     </row>
-    <row r="537" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="537">
       <c r="C537" s="5"/>
       <c r="D537" s="5"/>
     </row>
-    <row r="538" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="538">
       <c r="C538" s="5"/>
       <c r="D538" s="5"/>
     </row>
-    <row r="539" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="539">
       <c r="C539" s="5"/>
       <c r="D539" s="5"/>
     </row>
-    <row r="540" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="540">
       <c r="C540" s="5"/>
       <c r="D540" s="5"/>
     </row>
-    <row r="541" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="541">
       <c r="C541" s="5"/>
       <c r="D541" s="5"/>
     </row>
-    <row r="542" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="542">
       <c r="C542" s="5"/>
       <c r="D542" s="5"/>
     </row>
-    <row r="543" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="543">
       <c r="C543" s="5"/>
       <c r="D543" s="5"/>
     </row>
-    <row r="544" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="544">
       <c r="C544" s="5"/>
       <c r="D544" s="5"/>
     </row>
-    <row r="545" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="545">
       <c r="C545" s="5"/>
       <c r="D545" s="5"/>
     </row>
-    <row r="546" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="546">
       <c r="C546" s="5"/>
       <c r="D546" s="5"/>
     </row>
-    <row r="547" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="547">
       <c r="C547" s="5"/>
       <c r="D547" s="5"/>
     </row>
-    <row r="548" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="548">
       <c r="C548" s="5"/>
       <c r="D548" s="5"/>
     </row>
-    <row r="549" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="549">
       <c r="C549" s="5"/>
       <c r="D549" s="5"/>
     </row>
-    <row r="550" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="550">
       <c r="C550" s="5"/>
       <c r="D550" s="5"/>
     </row>
-    <row r="551" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="551">
       <c r="C551" s="5"/>
       <c r="D551" s="5"/>
     </row>
-    <row r="552" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="552">
       <c r="C552" s="5"/>
       <c r="D552" s="5"/>
     </row>
-    <row r="553" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="553">
       <c r="C553" s="5"/>
       <c r="D553" s="5"/>
     </row>
-    <row r="554" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="554">
       <c r="C554" s="5"/>
       <c r="D554" s="5"/>
     </row>
-    <row r="555" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="555">
       <c r="C555" s="5"/>
       <c r="D555" s="5"/>
     </row>
-    <row r="556" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="556">
       <c r="C556" s="5"/>
       <c r="D556" s="5"/>
     </row>
-    <row r="557" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="557">
       <c r="C557" s="5"/>
       <c r="D557" s="5"/>
     </row>
-    <row r="558" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="558">
       <c r="C558" s="5"/>
       <c r="D558" s="5"/>
     </row>
-    <row r="559" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="559">
       <c r="C559" s="5"/>
       <c r="D559" s="5"/>
     </row>
-    <row r="560" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="560">
       <c r="C560" s="5"/>
       <c r="D560" s="5"/>
     </row>
-    <row r="561" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="561">
       <c r="C561" s="5"/>
       <c r="D561" s="5"/>
     </row>
-    <row r="562" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="562">
       <c r="C562" s="5"/>
       <c r="D562" s="5"/>
     </row>
-    <row r="563" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="563">
       <c r="C563" s="5"/>
       <c r="D563" s="5"/>
     </row>
-    <row r="564" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="564">
       <c r="C564" s="5"/>
       <c r="D564" s="5"/>
     </row>
-    <row r="565" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="565">
       <c r="C565" s="5"/>
       <c r="D565" s="5"/>
     </row>
-    <row r="566" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="566">
       <c r="C566" s="5"/>
       <c r="D566" s="5"/>
     </row>
-    <row r="567" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="567">
       <c r="C567" s="5"/>
       <c r="D567" s="5"/>
     </row>
-    <row r="568" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="568">
       <c r="C568" s="5"/>
       <c r="D568" s="5"/>
     </row>
-    <row r="569" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="569">
       <c r="C569" s="5"/>
       <c r="D569" s="5"/>
     </row>
-    <row r="570" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="570">
       <c r="C570" s="5"/>
       <c r="D570" s="5"/>
     </row>
-    <row r="571" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="571">
       <c r="C571" s="5"/>
       <c r="D571" s="5"/>
     </row>
-    <row r="572" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="572">
       <c r="C572" s="5"/>
       <c r="D572" s="5"/>
     </row>
-    <row r="573" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="573">
       <c r="C573" s="5"/>
       <c r="D573" s="5"/>
     </row>
-    <row r="574" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="574">
       <c r="C574" s="5"/>
       <c r="D574" s="5"/>
     </row>
-    <row r="575" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="575">
       <c r="C575" s="5"/>
       <c r="D575" s="5"/>
     </row>
-    <row r="576" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="576">
       <c r="C576" s="5"/>
       <c r="D576" s="5"/>
     </row>
-    <row r="577" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="577">
       <c r="C577" s="5"/>
       <c r="D577" s="5"/>
     </row>
-    <row r="578" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="578">
       <c r="C578" s="5"/>
       <c r="D578" s="5"/>
     </row>
-    <row r="579" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="579">
       <c r="C579" s="5"/>
       <c r="D579" s="5"/>
     </row>
-    <row r="580" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="580">
       <c r="C580" s="5"/>
       <c r="D580" s="5"/>
     </row>
-    <row r="581" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="581">
       <c r="C581" s="5"/>
       <c r="D581" s="5"/>
     </row>
-    <row r="582" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="582">
       <c r="C582" s="5"/>
       <c r="D582" s="5"/>
     </row>
-    <row r="583" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="583">
       <c r="C583" s="5"/>
       <c r="D583" s="5"/>
     </row>
-    <row r="584" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="584">
       <c r="C584" s="5"/>
       <c r="D584" s="5"/>
     </row>
-    <row r="585" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="585">
       <c r="C585" s="5"/>
       <c r="D585" s="5"/>
     </row>
-    <row r="586" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="586">
       <c r="C586" s="5"/>
       <c r="D586" s="5"/>
     </row>
-    <row r="587" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="587">
       <c r="C587" s="5"/>
       <c r="D587" s="5"/>
     </row>
-    <row r="588" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="588">
       <c r="C588" s="5"/>
       <c r="D588" s="5"/>
     </row>
-    <row r="589" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="589">
       <c r="C589" s="5"/>
       <c r="D589" s="5"/>
     </row>
-    <row r="590" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="590">
       <c r="C590" s="5"/>
       <c r="D590" s="5"/>
     </row>
-    <row r="591" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="591">
       <c r="C591" s="5"/>
       <c r="D591" s="5"/>
     </row>
-    <row r="592" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="592">
       <c r="C592" s="5"/>
       <c r="D592" s="5"/>
     </row>
-    <row r="593" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="593">
       <c r="C593" s="5"/>
       <c r="D593" s="5"/>
     </row>
-    <row r="594" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="594">
       <c r="C594" s="5"/>
       <c r="D594" s="5"/>
     </row>
-    <row r="595" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="595">
       <c r="C595" s="5"/>
       <c r="D595" s="5"/>
     </row>
-    <row r="596" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="596">
       <c r="C596" s="5"/>
       <c r="D596" s="5"/>
     </row>
-    <row r="597" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="597">
       <c r="C597" s="5"/>
       <c r="D597" s="5"/>
     </row>
-    <row r="598" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="598">
       <c r="C598" s="5"/>
       <c r="D598" s="5"/>
     </row>
-    <row r="599" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="599">
       <c r="C599" s="5"/>
       <c r="D599" s="5"/>
     </row>
-    <row r="600" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="600">
       <c r="C600" s="5"/>
       <c r="D600" s="5"/>
     </row>
-    <row r="601" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="601">
       <c r="C601" s="5"/>
       <c r="D601" s="5"/>
     </row>
-    <row r="602" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="602">
       <c r="C602" s="5"/>
       <c r="D602" s="5"/>
     </row>
-    <row r="603" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="603">
       <c r="C603" s="5"/>
       <c r="D603" s="5"/>
     </row>
-    <row r="604" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="604">
       <c r="C604" s="5"/>
       <c r="D604" s="5"/>
     </row>
-    <row r="605" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="605">
       <c r="C605" s="5"/>
       <c r="D605" s="5"/>
     </row>
-    <row r="606" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="606">
       <c r="C606" s="5"/>
       <c r="D606" s="5"/>
     </row>
-    <row r="607" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="607">
       <c r="C607" s="5"/>
       <c r="D607" s="5"/>
     </row>
-    <row r="608" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="608">
       <c r="C608" s="5"/>
       <c r="D608" s="5"/>
     </row>
-    <row r="609" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="609">
       <c r="C609" s="5"/>
       <c r="D609" s="5"/>
     </row>
-    <row r="610" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="610">
       <c r="C610" s="5"/>
       <c r="D610" s="5"/>
     </row>
-    <row r="611" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="611">
       <c r="C611" s="5"/>
       <c r="D611" s="5"/>
     </row>
-    <row r="612" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="612">
       <c r="C612" s="5"/>
       <c r="D612" s="5"/>
     </row>
-    <row r="613" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="613">
       <c r="C613" s="5"/>
       <c r="D613" s="5"/>
     </row>
-    <row r="614" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="614">
       <c r="C614" s="5"/>
       <c r="D614" s="5"/>
     </row>
-    <row r="615" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="615">
       <c r="C615" s="5"/>
       <c r="D615" s="5"/>
     </row>
-    <row r="616" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="616">
       <c r="C616" s="5"/>
       <c r="D616" s="5"/>
     </row>
-    <row r="617" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="617">
       <c r="C617" s="5"/>
       <c r="D617" s="5"/>
     </row>
-    <row r="618" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="618">
       <c r="C618" s="5"/>
       <c r="D618" s="5"/>
     </row>
-    <row r="619" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="619">
       <c r="C619" s="5"/>
       <c r="D619" s="5"/>
     </row>
-    <row r="620" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="620">
       <c r="C620" s="5"/>
       <c r="D620" s="5"/>
     </row>
-    <row r="621" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="621">
       <c r="C621" s="5"/>
       <c r="D621" s="5"/>
     </row>
-    <row r="622" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="622">
       <c r="C622" s="5"/>
       <c r="D622" s="5"/>
     </row>
-    <row r="623" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="623">
       <c r="C623" s="5"/>
       <c r="D623" s="5"/>
     </row>
-    <row r="624" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="624">
       <c r="C624" s="5"/>
       <c r="D624" s="5"/>
     </row>
-    <row r="625" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="625">
       <c r="C625" s="5"/>
       <c r="D625" s="5"/>
     </row>
-    <row r="626" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="626">
       <c r="C626" s="5"/>
       <c r="D626" s="5"/>
     </row>
-    <row r="627" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="627">
       <c r="C627" s="5"/>
       <c r="D627" s="5"/>
     </row>
-    <row r="628" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="628">
       <c r="C628" s="5"/>
       <c r="D628" s="5"/>
     </row>
-    <row r="629" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="629">
       <c r="C629" s="5"/>
       <c r="D629" s="5"/>
     </row>
-    <row r="630" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="630">
       <c r="C630" s="5"/>
       <c r="D630" s="5"/>
     </row>
-    <row r="631" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="631">
       <c r="C631" s="5"/>
       <c r="D631" s="5"/>
     </row>
-    <row r="632" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="632">
       <c r="C632" s="5"/>
       <c r="D632" s="5"/>
     </row>
-    <row r="633" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="633">
       <c r="C633" s="5"/>
       <c r="D633" s="5"/>
     </row>
-    <row r="634" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="634">
       <c r="C634" s="5"/>
       <c r="D634" s="5"/>
     </row>
-    <row r="635" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="635">
       <c r="C635" s="5"/>
       <c r="D635" s="5"/>
     </row>
-    <row r="636" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="636">
       <c r="C636" s="5"/>
       <c r="D636" s="5"/>
     </row>
-    <row r="637" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="637">
       <c r="C637" s="5"/>
       <c r="D637" s="5"/>
     </row>
-    <row r="638" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="638">
       <c r="C638" s="5"/>
       <c r="D638" s="5"/>
     </row>
-    <row r="639" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="639">
       <c r="C639" s="5"/>
       <c r="D639" s="5"/>
     </row>
-    <row r="640" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="640">
       <c r="C640" s="5"/>
       <c r="D640" s="5"/>
     </row>
-    <row r="641" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="641">
       <c r="C641" s="5"/>
       <c r="D641" s="5"/>
     </row>
-    <row r="642" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="642">
       <c r="C642" s="5"/>
       <c r="D642" s="5"/>
     </row>
-    <row r="643" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="643">
       <c r="C643" s="5"/>
       <c r="D643" s="5"/>
     </row>
-    <row r="644" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="644">
       <c r="C644" s="5"/>
       <c r="D644" s="5"/>
     </row>
-    <row r="645" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="645">
       <c r="C645" s="5"/>
       <c r="D645" s="5"/>
     </row>
-    <row r="646" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="646">
       <c r="C646" s="5"/>
       <c r="D646" s="5"/>
     </row>
-    <row r="647" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="647">
       <c r="C647" s="5"/>
       <c r="D647" s="5"/>
     </row>
-    <row r="648" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="648">
       <c r="C648" s="5"/>
       <c r="D648" s="5"/>
     </row>
-    <row r="649" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="649">
       <c r="C649" s="5"/>
       <c r="D649" s="5"/>
     </row>
-    <row r="650" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="650">
       <c r="C650" s="5"/>
       <c r="D650" s="5"/>
     </row>
-    <row r="651" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="651">
       <c r="C651" s="5"/>
       <c r="D651" s="5"/>
     </row>
-    <row r="652" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="652">
       <c r="C652" s="5"/>
       <c r="D652" s="5"/>
     </row>
-    <row r="653" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="653">
       <c r="C653" s="5"/>
       <c r="D653" s="5"/>
     </row>
-    <row r="654" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="654">
       <c r="C654" s="5"/>
       <c r="D654" s="5"/>
     </row>
-    <row r="655" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="655">
       <c r="C655" s="5"/>
       <c r="D655" s="5"/>
     </row>
-    <row r="656" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="656">
       <c r="C656" s="5"/>
       <c r="D656" s="5"/>
     </row>
-    <row r="657" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="657">
       <c r="C657" s="5"/>
       <c r="D657" s="5"/>
     </row>
-    <row r="658" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="658">
       <c r="C658" s="5"/>
       <c r="D658" s="5"/>
     </row>
-    <row r="659" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="659">
       <c r="C659" s="5"/>
       <c r="D659" s="5"/>
     </row>
-    <row r="660" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="660">
       <c r="C660" s="5"/>
       <c r="D660" s="5"/>
     </row>
-    <row r="661" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="661">
       <c r="C661" s="5"/>
       <c r="D661" s="5"/>
     </row>
-    <row r="662" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="662">
       <c r="C662" s="5"/>
       <c r="D662" s="5"/>
     </row>
-    <row r="663" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="663">
       <c r="C663" s="5"/>
       <c r="D663" s="5"/>
     </row>
-    <row r="664" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="664">
       <c r="C664" s="5"/>
       <c r="D664" s="5"/>
     </row>
-    <row r="665" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="665">
       <c r="C665" s="5"/>
       <c r="D665" s="5"/>
     </row>
-    <row r="666" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="666">
       <c r="C666" s="5"/>
       <c r="D666" s="5"/>
     </row>
-    <row r="667" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="667">
       <c r="C667" s="5"/>
       <c r="D667" s="5"/>
     </row>
-    <row r="668" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="668">
       <c r="C668" s="5"/>
       <c r="D668" s="5"/>
     </row>
-    <row r="669" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="669">
       <c r="C669" s="5"/>
       <c r="D669" s="5"/>
     </row>
-    <row r="670" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="670">
       <c r="C670" s="5"/>
       <c r="D670" s="5"/>
     </row>
-    <row r="671" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="671">
       <c r="C671" s="5"/>
       <c r="D671" s="5"/>
     </row>
-    <row r="672" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="672">
       <c r="C672" s="5"/>
       <c r="D672" s="5"/>
     </row>
-    <row r="673" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="673">
       <c r="C673" s="5"/>
       <c r="D673" s="5"/>
     </row>
-    <row r="674" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="674">
       <c r="C674" s="5"/>
       <c r="D674" s="5"/>
     </row>
-    <row r="675" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="675">
       <c r="C675" s="5"/>
       <c r="D675" s="5"/>
     </row>
-    <row r="676" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="676">
       <c r="C676" s="5"/>
       <c r="D676" s="5"/>
     </row>
-    <row r="677" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="677">
       <c r="C677" s="5"/>
       <c r="D677" s="5"/>
     </row>
-    <row r="678" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="678">
       <c r="C678" s="5"/>
       <c r="D678" s="5"/>
     </row>
-    <row r="679" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="679">
       <c r="C679" s="5"/>
       <c r="D679" s="5"/>
     </row>
-    <row r="680" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="680">
       <c r="C680" s="5"/>
       <c r="D680" s="5"/>
     </row>
-    <row r="681" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="681">
       <c r="C681" s="5"/>
       <c r="D681" s="5"/>
     </row>
-    <row r="682" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="682">
       <c r="C682" s="5"/>
       <c r="D682" s="5"/>
     </row>
-    <row r="683" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="683">
       <c r="C683" s="5"/>
       <c r="D683" s="5"/>
     </row>
-    <row r="684" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="684">
       <c r="C684" s="5"/>
       <c r="D684" s="5"/>
     </row>
-    <row r="685" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="685">
       <c r="C685" s="5"/>
       <c r="D685" s="5"/>
     </row>
-    <row r="686" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="686">
       <c r="C686" s="5"/>
       <c r="D686" s="5"/>
     </row>
-    <row r="687" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="687">
       <c r="C687" s="5"/>
       <c r="D687" s="5"/>
     </row>
-    <row r="688" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="688">
       <c r="C688" s="5"/>
       <c r="D688" s="5"/>
     </row>
-    <row r="689" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="689">
       <c r="C689" s="5"/>
       <c r="D689" s="5"/>
     </row>
-    <row r="690" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="690">
       <c r="C690" s="5"/>
       <c r="D690" s="5"/>
     </row>
-    <row r="691" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="691">
       <c r="C691" s="5"/>
       <c r="D691" s="5"/>
     </row>
-    <row r="692" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="692">
       <c r="C692" s="5"/>
       <c r="D692" s="5"/>
     </row>
-    <row r="693" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="693">
       <c r="C693" s="5"/>
       <c r="D693" s="5"/>
     </row>
-    <row r="694" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="694">
       <c r="C694" s="5"/>
       <c r="D694" s="5"/>
     </row>
-    <row r="695" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="695">
       <c r="C695" s="5"/>
       <c r="D695" s="5"/>
     </row>
-    <row r="696" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="696">
       <c r="C696" s="5"/>
       <c r="D696" s="5"/>
     </row>
-    <row r="697" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="697">
       <c r="C697" s="5"/>
       <c r="D697" s="5"/>
     </row>
-    <row r="698" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="698">
       <c r="C698" s="5"/>
       <c r="D698" s="5"/>
     </row>
-    <row r="699" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="699">
       <c r="C699" s="5"/>
       <c r="D699" s="5"/>
     </row>
-    <row r="700" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="700">
       <c r="C700" s="5"/>
       <c r="D700" s="5"/>
     </row>
-    <row r="701" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="701">
       <c r="C701" s="5"/>
       <c r="D701" s="5"/>
     </row>
-    <row r="702" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="702">
       <c r="C702" s="5"/>
       <c r="D702" s="5"/>
     </row>
-    <row r="703" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="703">
       <c r="C703" s="5"/>
       <c r="D703" s="5"/>
     </row>
-    <row r="704" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="704">
       <c r="C704" s="5"/>
       <c r="D704" s="5"/>
     </row>
-    <row r="705" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="705">
       <c r="C705" s="5"/>
       <c r="D705" s="5"/>
     </row>
-    <row r="706" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="706">
       <c r="C706" s="5"/>
       <c r="D706" s="5"/>
     </row>
-    <row r="707" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="707">
       <c r="C707" s="5"/>
       <c r="D707" s="5"/>
     </row>
-    <row r="708" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="708">
       <c r="C708" s="5"/>
       <c r="D708" s="5"/>
     </row>
-    <row r="709" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="709">
       <c r="C709" s="5"/>
       <c r="D709" s="5"/>
     </row>
-    <row r="710" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="710">
       <c r="C710" s="5"/>
       <c r="D710" s="5"/>
     </row>
-    <row r="711" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="711">
       <c r="C711" s="5"/>
       <c r="D711" s="5"/>
     </row>
-    <row r="712" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="712">
       <c r="C712" s="5"/>
       <c r="D712" s="5"/>
     </row>
-    <row r="713" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="713">
       <c r="C713" s="5"/>
       <c r="D713" s="5"/>
     </row>
-    <row r="714" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="714">
       <c r="C714" s="5"/>
       <c r="D714" s="5"/>
     </row>
-    <row r="715" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="715">
       <c r="C715" s="5"/>
       <c r="D715" s="5"/>
     </row>
-    <row r="716" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="716">
       <c r="C716" s="5"/>
       <c r="D716" s="5"/>
     </row>
-    <row r="717" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="717">
       <c r="C717" s="5"/>
       <c r="D717" s="5"/>
     </row>
-    <row r="718" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="718">
       <c r="C718" s="5"/>
       <c r="D718" s="5"/>
     </row>
-    <row r="719" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="719">
       <c r="C719" s="5"/>
       <c r="D719" s="5"/>
     </row>
-    <row r="720" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="720">
       <c r="C720" s="5"/>
       <c r="D720" s="5"/>
     </row>
-    <row r="721" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="721">
       <c r="C721" s="5"/>
       <c r="D721" s="5"/>
     </row>
-    <row r="722" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="722">
       <c r="C722" s="5"/>
       <c r="D722" s="5"/>
     </row>
-    <row r="723" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="723">
       <c r="C723" s="5"/>
       <c r="D723" s="5"/>
     </row>
-    <row r="724" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="724">
       <c r="C724" s="5"/>
       <c r="D724" s="5"/>
     </row>
-    <row r="725" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="725">
       <c r="C725" s="5"/>
       <c r="D725" s="5"/>
     </row>
-    <row r="726" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="726">
       <c r="C726" s="5"/>
       <c r="D726" s="5"/>
     </row>
-    <row r="727" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="727">
       <c r="C727" s="5"/>
       <c r="D727" s="5"/>
     </row>
-    <row r="728" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="728">
       <c r="C728" s="5"/>
       <c r="D728" s="5"/>
     </row>
-    <row r="729" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="729">
       <c r="C729" s="5"/>
       <c r="D729" s="5"/>
     </row>
-    <row r="730" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="730">
       <c r="C730" s="5"/>
       <c r="D730" s="5"/>
     </row>
-    <row r="731" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="731">
       <c r="C731" s="5"/>
       <c r="D731" s="5"/>
     </row>
-    <row r="732" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="732">
       <c r="C732" s="5"/>
       <c r="D732" s="5"/>
     </row>
-    <row r="733" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="733">
       <c r="C733" s="5"/>
       <c r="D733" s="5"/>
     </row>
-    <row r="734" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="734">
       <c r="C734" s="5"/>
       <c r="D734" s="5"/>
     </row>
-    <row r="735" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="735">
       <c r="C735" s="5"/>
       <c r="D735" s="5"/>
     </row>
-    <row r="736" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="736">
       <c r="C736" s="5"/>
       <c r="D736" s="5"/>
     </row>
-    <row r="737" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="737">
       <c r="C737" s="5"/>
       <c r="D737" s="5"/>
     </row>
-    <row r="738" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="738">
       <c r="C738" s="5"/>
       <c r="D738" s="5"/>
     </row>
-    <row r="739" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="739">
       <c r="C739" s="5"/>
       <c r="D739" s="5"/>
     </row>
-    <row r="740" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="740">
       <c r="C740" s="5"/>
       <c r="D740" s="5"/>
     </row>
-    <row r="741" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="741">
       <c r="C741" s="5"/>
       <c r="D741" s="5"/>
     </row>
-    <row r="742" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="742">
       <c r="C742" s="5"/>
       <c r="D742" s="5"/>
     </row>
-    <row r="743" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="743">
       <c r="C743" s="5"/>
       <c r="D743" s="5"/>
     </row>
-    <row r="744" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="744">
       <c r="C744" s="5"/>
       <c r="D744" s="5"/>
     </row>
-    <row r="745" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="745">
       <c r="C745" s="5"/>
       <c r="D745" s="5"/>
     </row>
-    <row r="746" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="746">
       <c r="C746" s="5"/>
       <c r="D746" s="5"/>
     </row>
-    <row r="747" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="747">
       <c r="C747" s="5"/>
       <c r="D747" s="5"/>
     </row>
-    <row r="748" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="748">
       <c r="C748" s="5"/>
       <c r="D748" s="5"/>
     </row>
-    <row r="749" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="749">
       <c r="C749" s="5"/>
       <c r="D749" s="5"/>
     </row>
-    <row r="750" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="750">
       <c r="C750" s="5"/>
       <c r="D750" s="5"/>
     </row>
-    <row r="751" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="751">
       <c r="C751" s="5"/>
       <c r="D751" s="5"/>
     </row>
-    <row r="752" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="752">
       <c r="C752" s="5"/>
       <c r="D752" s="5"/>
     </row>
-    <row r="753" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="753">
       <c r="C753" s="5"/>
       <c r="D753" s="5"/>
     </row>
-    <row r="754" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="754">
       <c r="C754" s="5"/>
       <c r="D754" s="5"/>
     </row>
-    <row r="755" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="755">
       <c r="C755" s="5"/>
       <c r="D755" s="5"/>
     </row>
-    <row r="756" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="756">
       <c r="C756" s="5"/>
       <c r="D756" s="5"/>
     </row>
-    <row r="757" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="757">
       <c r="C757" s="5"/>
       <c r="D757" s="5"/>
     </row>
-    <row r="758" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="758">
       <c r="C758" s="5"/>
       <c r="D758" s="5"/>
     </row>
-    <row r="759" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="759">
       <c r="C759" s="5"/>
       <c r="D759" s="5"/>
     </row>
-    <row r="760" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="760">
       <c r="C760" s="5"/>
       <c r="D760" s="5"/>
     </row>
-    <row r="761" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="761">
       <c r="C761" s="5"/>
       <c r="D761" s="5"/>
     </row>
-    <row r="762" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="762">
       <c r="C762" s="5"/>
       <c r="D762" s="5"/>
     </row>
-    <row r="763" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="763">
       <c r="C763" s="5"/>
       <c r="D763" s="5"/>
     </row>
-    <row r="764" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="764">
       <c r="C764" s="5"/>
       <c r="D764" s="5"/>
     </row>
-    <row r="765" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="765">
       <c r="C765" s="5"/>
       <c r="D765" s="5"/>
     </row>
-    <row r="766" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="766">
       <c r="C766" s="5"/>
       <c r="D766" s="5"/>
     </row>
-    <row r="767" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="767">
       <c r="C767" s="5"/>
       <c r="D767" s="5"/>
     </row>
-    <row r="768" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="768">
       <c r="C768" s="5"/>
       <c r="D768" s="5"/>
     </row>
-    <row r="769" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="769">
       <c r="C769" s="5"/>
       <c r="D769" s="5"/>
     </row>
-    <row r="770" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="770">
       <c r="C770" s="5"/>
       <c r="D770" s="5"/>
     </row>
-    <row r="771" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="771">
       <c r="C771" s="5"/>
       <c r="D771" s="5"/>
     </row>
-    <row r="772" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="772">
       <c r="C772" s="5"/>
       <c r="D772" s="5"/>
     </row>
-    <row r="773" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="773">
       <c r="C773" s="5"/>
       <c r="D773" s="5"/>
     </row>
-    <row r="774" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="774">
       <c r="C774" s="5"/>
       <c r="D774" s="5"/>
     </row>
-    <row r="775" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="775">
       <c r="C775" s="5"/>
       <c r="D775" s="5"/>
     </row>
-    <row r="776" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="776">
       <c r="C776" s="5"/>
       <c r="D776" s="5"/>
     </row>
-    <row r="777" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="777">
       <c r="C777" s="5"/>
       <c r="D777" s="5"/>
     </row>
-    <row r="778" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="778">
       <c r="C778" s="5"/>
       <c r="D778" s="5"/>
     </row>
-    <row r="779" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="779">
       <c r="C779" s="5"/>
       <c r="D779" s="5"/>
     </row>
-    <row r="780" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="780">
       <c r="C780" s="5"/>
       <c r="D780" s="5"/>
     </row>
-    <row r="781" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="781">
       <c r="C781" s="5"/>
       <c r="D781" s="5"/>
     </row>
-    <row r="782" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="782">
       <c r="C782" s="5"/>
       <c r="D782" s="5"/>
     </row>
-    <row r="783" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="783">
       <c r="C783" s="5"/>
       <c r="D783" s="5"/>
     </row>
-    <row r="784" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="784">
       <c r="C784" s="5"/>
       <c r="D784" s="5"/>
     </row>
-    <row r="785" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="785">
       <c r="C785" s="5"/>
       <c r="D785" s="5"/>
     </row>
-    <row r="786" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="786">
       <c r="C786" s="5"/>
       <c r="D786" s="5"/>
     </row>
-    <row r="787" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="787">
       <c r="C787" s="5"/>
       <c r="D787" s="5"/>
     </row>
-    <row r="788" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="788">
       <c r="C788" s="5"/>
       <c r="D788" s="5"/>
     </row>
-    <row r="789" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="789">
       <c r="C789" s="5"/>
       <c r="D789" s="5"/>
     </row>
-    <row r="790" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="790">
       <c r="C790" s="5"/>
       <c r="D790" s="5"/>
     </row>
-    <row r="791" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="791">
       <c r="C791" s="5"/>
       <c r="D791" s="5"/>
     </row>
-    <row r="792" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="792">
       <c r="C792" s="5"/>
       <c r="D792" s="5"/>
     </row>
-    <row r="793" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="793">
       <c r="C793" s="5"/>
       <c r="D793" s="5"/>
     </row>
-    <row r="794" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="794">
       <c r="C794" s="5"/>
       <c r="D794" s="5"/>
     </row>
-    <row r="795" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="795">
       <c r="C795" s="5"/>
       <c r="D795" s="5"/>
     </row>
-    <row r="796" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="796">
       <c r="C796" s="5"/>
       <c r="D796" s="5"/>
     </row>
-    <row r="797" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="797">
       <c r="C797" s="5"/>
       <c r="D797" s="5"/>
     </row>
-    <row r="798" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="798">
       <c r="C798" s="5"/>
       <c r="D798" s="5"/>
     </row>
-    <row r="799" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="799">
       <c r="C799" s="5"/>
       <c r="D799" s="5"/>
     </row>
-    <row r="800" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="800">
       <c r="C800" s="5"/>
       <c r="D800" s="5"/>
     </row>
-    <row r="801" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="801">
       <c r="C801" s="5"/>
       <c r="D801" s="5"/>
     </row>
-    <row r="802" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="802">
       <c r="C802" s="5"/>
       <c r="D802" s="5"/>
     </row>
-    <row r="803" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="803">
       <c r="C803" s="5"/>
       <c r="D803" s="5"/>
     </row>
-    <row r="804" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="804">
       <c r="C804" s="5"/>
       <c r="D804" s="5"/>
     </row>
-    <row r="805" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="805">
       <c r="C805" s="5"/>
       <c r="D805" s="5"/>
     </row>
-    <row r="806" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="806">
       <c r="C806" s="5"/>
       <c r="D806" s="5"/>
     </row>
-    <row r="807" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="807">
       <c r="C807" s="5"/>
       <c r="D807" s="5"/>
     </row>
-    <row r="808" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="808">
       <c r="C808" s="5"/>
       <c r="D808" s="5"/>
     </row>
-    <row r="809" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="809">
       <c r="C809" s="5"/>
       <c r="D809" s="5"/>
     </row>
-    <row r="810" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="810">
       <c r="C810" s="5"/>
       <c r="D810" s="5"/>
     </row>
-    <row r="811" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="811">
       <c r="C811" s="5"/>
       <c r="D811" s="5"/>
     </row>
-    <row r="812" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="812">
       <c r="C812" s="5"/>
       <c r="D812" s="5"/>
     </row>
-    <row r="813" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="813">
       <c r="C813" s="5"/>
       <c r="D813" s="5"/>
     </row>
-    <row r="814" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="814">
       <c r="C814" s="5"/>
       <c r="D814" s="5"/>
     </row>
-    <row r="815" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="815">
       <c r="C815" s="5"/>
       <c r="D815" s="5"/>
     </row>
-    <row r="816" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="816">
       <c r="C816" s="5"/>
       <c r="D816" s="5"/>
     </row>
-    <row r="817" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="817">
       <c r="C817" s="5"/>
       <c r="D817" s="5"/>
     </row>
-    <row r="818" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="818">
       <c r="C818" s="5"/>
       <c r="D818" s="5"/>
     </row>
-    <row r="819" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="819">
       <c r="C819" s="5"/>
       <c r="D819" s="5"/>
     </row>
-    <row r="820" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="820">
       <c r="C820" s="5"/>
       <c r="D820" s="5"/>
     </row>
-    <row r="821" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="821">
       <c r="C821" s="5"/>
       <c r="D821" s="5"/>
     </row>
-    <row r="822" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="822">
       <c r="C822" s="5"/>
       <c r="D822" s="5"/>
     </row>
-    <row r="823" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="823">
       <c r="C823" s="5"/>
       <c r="D823" s="5"/>
     </row>
-    <row r="824" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="824">
       <c r="C824" s="5"/>
       <c r="D824" s="5"/>
     </row>
-    <row r="825" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="825">
       <c r="C825" s="5"/>
       <c r="D825" s="5"/>
     </row>
-    <row r="826" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="826">
       <c r="C826" s="5"/>
       <c r="D826" s="5"/>
     </row>
-    <row r="827" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="827">
       <c r="C827" s="5"/>
       <c r="D827" s="5"/>
     </row>
-    <row r="828" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="828">
       <c r="C828" s="5"/>
       <c r="D828" s="5"/>
     </row>
-    <row r="829" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="829">
       <c r="C829" s="5"/>
       <c r="D829" s="5"/>
     </row>
-    <row r="830" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="830">
       <c r="C830" s="5"/>
       <c r="D830" s="5"/>
     </row>
-    <row r="831" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="831">
       <c r="C831" s="5"/>
       <c r="D831" s="5"/>
     </row>
-    <row r="832" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="832">
       <c r="C832" s="5"/>
       <c r="D832" s="5"/>
     </row>
-    <row r="833" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="833">
       <c r="C833" s="5"/>
       <c r="D833" s="5"/>
     </row>
-    <row r="834" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="834">
       <c r="C834" s="5"/>
       <c r="D834" s="5"/>
     </row>
-    <row r="835" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="835">
       <c r="C835" s="5"/>
       <c r="D835" s="5"/>
     </row>
-    <row r="836" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="836">
       <c r="C836" s="5"/>
       <c r="D836" s="5"/>
     </row>
-    <row r="837" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="837">
       <c r="C837" s="5"/>
       <c r="D837" s="5"/>
     </row>
-    <row r="838" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="838">
       <c r="C838" s="5"/>
       <c r="D838" s="5"/>
     </row>
-    <row r="839" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="839">
       <c r="C839" s="5"/>
       <c r="D839" s="5"/>
     </row>
-    <row r="840" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="840">
       <c r="C840" s="5"/>
       <c r="D840" s="5"/>
     </row>
-    <row r="841" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="841">
       <c r="C841" s="5"/>
       <c r="D841" s="5"/>
     </row>
-    <row r="842" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="842">
       <c r="C842" s="5"/>
       <c r="D842" s="5"/>
     </row>
-    <row r="843" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="843">
       <c r="C843" s="5"/>
       <c r="D843" s="5"/>
     </row>
-    <row r="844" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="844">
       <c r="C844" s="5"/>
       <c r="D844" s="5"/>
     </row>
-    <row r="845" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="845">
       <c r="C845" s="5"/>
       <c r="D845" s="5"/>
     </row>
-    <row r="846" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="846">
       <c r="C846" s="5"/>
       <c r="D846" s="5"/>
     </row>
-    <row r="847" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="847">
       <c r="C847" s="5"/>
       <c r="D847" s="5"/>
     </row>
-    <row r="848" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="848">
       <c r="C848" s="5"/>
       <c r="D848" s="5"/>
     </row>
-    <row r="849" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="849">
       <c r="C849" s="5"/>
       <c r="D849" s="5"/>
     </row>
-    <row r="850" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="850">
       <c r="C850" s="5"/>
       <c r="D850" s="5"/>
     </row>
-    <row r="851" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="851">
       <c r="C851" s="5"/>
       <c r="D851" s="5"/>
     </row>
-    <row r="852" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="852">
       <c r="C852" s="5"/>
       <c r="D852" s="5"/>
     </row>
-    <row r="853" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="853">
       <c r="C853" s="5"/>
       <c r="D853" s="5"/>
     </row>
-    <row r="854" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="854">
       <c r="C854" s="5"/>
       <c r="D854" s="5"/>
     </row>
-    <row r="855" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="855">
       <c r="C855" s="5"/>
       <c r="D855" s="5"/>
     </row>
-    <row r="856" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="856">
       <c r="C856" s="5"/>
       <c r="D856" s="5"/>
     </row>
-    <row r="857" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="857">
       <c r="C857" s="5"/>
       <c r="D857" s="5"/>
     </row>
-    <row r="858" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="858">
       <c r="C858" s="5"/>
       <c r="D858" s="5"/>
     </row>
-    <row r="859" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="859">
       <c r="C859" s="5"/>
       <c r="D859" s="5"/>
     </row>
-    <row r="860" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="860">
       <c r="C860" s="5"/>
       <c r="D860" s="5"/>
     </row>
-    <row r="861" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="861">
       <c r="C861" s="5"/>
       <c r="D861" s="5"/>
     </row>
-    <row r="862" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="862">
       <c r="C862" s="5"/>
       <c r="D862" s="5"/>
     </row>
-    <row r="863" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="863">
       <c r="C863" s="5"/>
       <c r="D863" s="5"/>
     </row>
-    <row r="864" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="864">
       <c r="C864" s="5"/>
       <c r="D864" s="5"/>
     </row>
-    <row r="865" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="865">
       <c r="C865" s="5"/>
       <c r="D865" s="5"/>
     </row>
-    <row r="866" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="866">
       <c r="C866" s="5"/>
       <c r="D866" s="5"/>
     </row>
-    <row r="867" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="867">
       <c r="C867" s="5"/>
       <c r="D867" s="5"/>
     </row>
-    <row r="868" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="868">
       <c r="C868" s="5"/>
       <c r="D868" s="5"/>
     </row>
-    <row r="869" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="869">
       <c r="C869" s="5"/>
       <c r="D869" s="5"/>
     </row>
-    <row r="870" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="870">
       <c r="C870" s="5"/>
       <c r="D870" s="5"/>
     </row>
-    <row r="871" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="871">
       <c r="C871" s="5"/>
       <c r="D871" s="5"/>
     </row>
-    <row r="872" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="872">
       <c r="C872" s="5"/>
       <c r="D872" s="5"/>
     </row>
-    <row r="873" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="873">
       <c r="C873" s="5"/>
       <c r="D873" s="5"/>
     </row>
-    <row r="874" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="874">
       <c r="C874" s="5"/>
       <c r="D874" s="5"/>
     </row>
-    <row r="875" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="875">
       <c r="C875" s="5"/>
       <c r="D875" s="5"/>
     </row>
-    <row r="876" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="876">
       <c r="C876" s="5"/>
       <c r="D876" s="5"/>
     </row>
-    <row r="877" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="877">
       <c r="C877" s="5"/>
       <c r="D877" s="5"/>
     </row>
-    <row r="878" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="878">
       <c r="C878" s="5"/>
       <c r="D878" s="5"/>
     </row>
-    <row r="879" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="879">
       <c r="C879" s="5"/>
       <c r="D879" s="5"/>
     </row>
-    <row r="880" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="880">
       <c r="C880" s="5"/>
       <c r="D880" s="5"/>
     </row>
-    <row r="881" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="881">
       <c r="C881" s="5"/>
       <c r="D881" s="5"/>
     </row>
-    <row r="882" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="882">
       <c r="C882" s="5"/>
       <c r="D882" s="5"/>
     </row>
-    <row r="883" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="883">
       <c r="C883" s="5"/>
       <c r="D883" s="5"/>
     </row>
-    <row r="884" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="884">
       <c r="C884" s="5"/>
       <c r="D884" s="5"/>
     </row>
-    <row r="885" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="885">
       <c r="C885" s="5"/>
       <c r="D885" s="5"/>
     </row>
-    <row r="886" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="886">
       <c r="C886" s="5"/>
       <c r="D886" s="5"/>
     </row>
-    <row r="887" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="887">
       <c r="C887" s="5"/>
       <c r="D887" s="5"/>
     </row>
-    <row r="888" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="888">
       <c r="C888" s="5"/>
       <c r="D888" s="5"/>
     </row>
-    <row r="889" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="889">
       <c r="C889" s="5"/>
       <c r="D889" s="5"/>
     </row>
-    <row r="890" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="890">
       <c r="C890" s="5"/>
       <c r="D890" s="5"/>
     </row>
-    <row r="891" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="891">
       <c r="C891" s="5"/>
       <c r="D891" s="5"/>
     </row>
-    <row r="892" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="892">
       <c r="C892" s="5"/>
       <c r="D892" s="5"/>
     </row>
-    <row r="893" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="893">
       <c r="C893" s="5"/>
       <c r="D893" s="5"/>
     </row>
-    <row r="894" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="894">
       <c r="C894" s="5"/>
       <c r="D894" s="5"/>
     </row>
-    <row r="895" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="895">
       <c r="C895" s="5"/>
       <c r="D895" s="5"/>
     </row>
-    <row r="896" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="896">
       <c r="C896" s="5"/>
       <c r="D896" s="5"/>
     </row>
-    <row r="897" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="897">
       <c r="C897" s="5"/>
       <c r="D897" s="5"/>
     </row>
-    <row r="898" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="898">
       <c r="C898" s="5"/>
       <c r="D898" s="5"/>
     </row>
-    <row r="899" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="899">
       <c r="C899" s="5"/>
       <c r="D899" s="5"/>
     </row>
-    <row r="900" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="900">
       <c r="C900" s="5"/>
       <c r="D900" s="5"/>
     </row>
-    <row r="901" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="901">
       <c r="C901" s="5"/>
       <c r="D901" s="5"/>
     </row>
-    <row r="902" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="902">
       <c r="C902" s="5"/>
       <c r="D902" s="5"/>
     </row>
-    <row r="903" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="903">
       <c r="C903" s="5"/>
       <c r="D903" s="5"/>
     </row>
-    <row r="904" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="904">
       <c r="C904" s="5"/>
       <c r="D904" s="5"/>
     </row>
-    <row r="905" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="905">
       <c r="C905" s="5"/>
       <c r="D905" s="5"/>
     </row>
-    <row r="906" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="906">
       <c r="C906" s="5"/>
       <c r="D906" s="5"/>
     </row>
-    <row r="907" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="907">
       <c r="C907" s="5"/>
       <c r="D907" s="5"/>
     </row>
-    <row r="908" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="908">
       <c r="C908" s="5"/>
       <c r="D908" s="5"/>
     </row>
-    <row r="909" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="909">
       <c r="C909" s="5"/>
       <c r="D909" s="5"/>
     </row>
-    <row r="910" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="910">
       <c r="C910" s="5"/>
       <c r="D910" s="5"/>
     </row>
-    <row r="911" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="911">
       <c r="C911" s="5"/>
       <c r="D911" s="5"/>
     </row>
-    <row r="912" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="912">
       <c r="C912" s="5"/>
       <c r="D912" s="5"/>
     </row>
-    <row r="913" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="913">
       <c r="C913" s="5"/>
       <c r="D913" s="5"/>
     </row>
-    <row r="914" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="914">
       <c r="C914" s="5"/>
       <c r="D914" s="5"/>
     </row>
-    <row r="915" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="915">
       <c r="C915" s="5"/>
       <c r="D915" s="5"/>
     </row>
-    <row r="916" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="916">
       <c r="C916" s="5"/>
       <c r="D916" s="5"/>
     </row>
-    <row r="917" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="917">
       <c r="C917" s="5"/>
       <c r="D917" s="5"/>
     </row>
-    <row r="918" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="918">
       <c r="C918" s="5"/>
       <c r="D918" s="5"/>
     </row>
-    <row r="919" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="919">
       <c r="C919" s="5"/>
       <c r="D919" s="5"/>
     </row>
-    <row r="920" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="920">
       <c r="C920" s="5"/>
       <c r="D920" s="5"/>
     </row>
-    <row r="921" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="921">
       <c r="C921" s="5"/>
       <c r="D921" s="5"/>
     </row>
-    <row r="922" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="922">
       <c r="C922" s="5"/>
       <c r="D922" s="5"/>
     </row>
-    <row r="923" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="923">
       <c r="C923" s="5"/>
       <c r="D923" s="5"/>
     </row>
-    <row r="924" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="924">
       <c r="C924" s="5"/>
       <c r="D924" s="5"/>
     </row>
-    <row r="925" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="925">
       <c r="C925" s="5"/>
       <c r="D925" s="5"/>
     </row>
-    <row r="926" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="926">
       <c r="C926" s="5"/>
       <c r="D926" s="5"/>
     </row>
-    <row r="927" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="927">
       <c r="C927" s="5"/>
       <c r="D927" s="5"/>
     </row>
-    <row r="928" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="928">
       <c r="C928" s="5"/>
       <c r="D928" s="5"/>
     </row>
-    <row r="929" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="929">
       <c r="C929" s="5"/>
       <c r="D929" s="5"/>
     </row>
-    <row r="930" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="930">
       <c r="C930" s="5"/>
       <c r="D930" s="5"/>
     </row>
-    <row r="931" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="931">
       <c r="C931" s="5"/>
       <c r="D931" s="5"/>
     </row>
-    <row r="932" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="932">
       <c r="C932" s="5"/>
       <c r="D932" s="5"/>
     </row>
-    <row r="933" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="933">
       <c r="C933" s="5"/>
       <c r="D933" s="5"/>
     </row>
-    <row r="934" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="934">
       <c r="C934" s="5"/>
       <c r="D934" s="5"/>
     </row>
-    <row r="935" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="935">
       <c r="C935" s="5"/>
       <c r="D935" s="5"/>
     </row>
-    <row r="936" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="936">
       <c r="C936" s="5"/>
       <c r="D936" s="5"/>
     </row>
-    <row r="937" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="937">
       <c r="C937" s="5"/>
       <c r="D937" s="5"/>
     </row>
-    <row r="938" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="938">
       <c r="C938" s="5"/>
       <c r="D938" s="5"/>
     </row>
-    <row r="939" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="939">
       <c r="C939" s="5"/>
       <c r="D939" s="5"/>
     </row>
-    <row r="940" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="940">
       <c r="C940" s="5"/>
       <c r="D940" s="5"/>
     </row>
-    <row r="941" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="941">
       <c r="C941" s="5"/>
       <c r="D941" s="5"/>
     </row>
-    <row r="942" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="942">
       <c r="C942" s="5"/>
       <c r="D942" s="5"/>
     </row>
-    <row r="943" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="943">
       <c r="C943" s="5"/>
       <c r="D943" s="5"/>
     </row>
-    <row r="944" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="944">
       <c r="C944" s="5"/>
       <c r="D944" s="5"/>
     </row>
-    <row r="945" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="945">
       <c r="C945" s="5"/>
       <c r="D945" s="5"/>
     </row>
-    <row r="946" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="946">
       <c r="C946" s="5"/>
       <c r="D946" s="5"/>
     </row>
-    <row r="947" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="947">
       <c r="C947" s="5"/>
       <c r="D947" s="5"/>
     </row>
-    <row r="948" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="948">
       <c r="C948" s="5"/>
       <c r="D948" s="5"/>
     </row>
-    <row r="949" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="949">
       <c r="C949" s="5"/>
       <c r="D949" s="5"/>
     </row>
-    <row r="950" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="950">
       <c r="C950" s="5"/>
       <c r="D950" s="5"/>
     </row>
-    <row r="951" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="951">
       <c r="C951" s="5"/>
       <c r="D951" s="5"/>
     </row>
-    <row r="952" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="952">
       <c r="C952" s="5"/>
       <c r="D952" s="5"/>
     </row>
-    <row r="953" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="953">
       <c r="C953" s="5"/>
       <c r="D953" s="5"/>
     </row>
-    <row r="954" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="954">
       <c r="C954" s="5"/>
       <c r="D954" s="5"/>
     </row>
-    <row r="955" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="955">
       <c r="C955" s="5"/>
       <c r="D955" s="5"/>
     </row>
-    <row r="956" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="956">
       <c r="C956" s="5"/>
       <c r="D956" s="5"/>
     </row>
-    <row r="957" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="957">
       <c r="C957" s="5"/>
       <c r="D957" s="5"/>
     </row>
-    <row r="958" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="958">
       <c r="C958" s="5"/>
       <c r="D958" s="5"/>
     </row>
-    <row r="959" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="959">
       <c r="C959" s="5"/>
       <c r="D959" s="5"/>
     </row>
-    <row r="960" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="960">
       <c r="C960" s="5"/>
       <c r="D960" s="5"/>
     </row>
-    <row r="961" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="961">
       <c r="C961" s="5"/>
       <c r="D961" s="5"/>
     </row>
-    <row r="962" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="962">
       <c r="C962" s="5"/>
       <c r="D962" s="5"/>
     </row>
-    <row r="963" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="963">
       <c r="C963" s="5"/>
       <c r="D963" s="5"/>
     </row>
-    <row r="964" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="964">
       <c r="C964" s="5"/>
       <c r="D964" s="5"/>
     </row>
-    <row r="965" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="965">
       <c r="C965" s="5"/>
       <c r="D965" s="5"/>
     </row>
-    <row r="966" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="966">
       <c r="C966" s="5"/>
       <c r="D966" s="5"/>
     </row>
-    <row r="967" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="967">
       <c r="C967" s="5"/>
       <c r="D967" s="5"/>
     </row>
-    <row r="968" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="968">
       <c r="C968" s="5"/>
       <c r="D968" s="5"/>
     </row>
-    <row r="969" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="969">
       <c r="C969" s="5"/>
       <c r="D969" s="5"/>
     </row>
-    <row r="970" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="970">
       <c r="C970" s="5"/>
       <c r="D970" s="5"/>
     </row>
-    <row r="971" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="971">
       <c r="C971" s="5"/>
       <c r="D971" s="5"/>
     </row>
-    <row r="972" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="972">
       <c r="C972" s="5"/>
       <c r="D972" s="5"/>
     </row>
-    <row r="973" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="973">
       <c r="C973" s="5"/>
       <c r="D973" s="5"/>
     </row>
-    <row r="974" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="974">
       <c r="C974" s="5"/>
       <c r="D974" s="5"/>
     </row>
-    <row r="975" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="975">
       <c r="C975" s="5"/>
       <c r="D975" s="5"/>
     </row>
-    <row r="976" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="976">
       <c r="C976" s="5"/>
       <c r="D976" s="5"/>
     </row>
-    <row r="977" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="977">
       <c r="C977" s="5"/>
       <c r="D977" s="5"/>
     </row>
-    <row r="978" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="978">
       <c r="C978" s="5"/>
       <c r="D978" s="5"/>
     </row>
-    <row r="979" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="979">
       <c r="C979" s="5"/>
       <c r="D979" s="5"/>
     </row>
-    <row r="980" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="980">
       <c r="C980" s="5"/>
       <c r="D980" s="5"/>
     </row>
-    <row r="981" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="981">
       <c r="C981" s="5"/>
       <c r="D981" s="5"/>
     </row>
-    <row r="982" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="982">
       <c r="C982" s="5"/>
       <c r="D982" s="5"/>
     </row>
-    <row r="983" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="983">
       <c r="C983" s="5"/>
       <c r="D983" s="5"/>
     </row>
-    <row r="984" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="984">
       <c r="C984" s="5"/>
       <c r="D984" s="5"/>
     </row>
-    <row r="985" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="985">
       <c r="C985" s="5"/>
       <c r="D985" s="5"/>
     </row>
-    <row r="986" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="986">
       <c r="C986" s="5"/>
       <c r="D986" s="5"/>
     </row>
-    <row r="987" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="987">
       <c r="C987" s="5"/>
       <c r="D987" s="5"/>
     </row>
-    <row r="988" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="988">
       <c r="C988" s="5"/>
       <c r="D988" s="5"/>
     </row>
-    <row r="989" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="989">
       <c r="C989" s="5"/>
       <c r="D989" s="5"/>
     </row>
-    <row r="990" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="990">
       <c r="C990" s="5"/>
       <c r="D990" s="5"/>
     </row>
-    <row r="991" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="991">
       <c r="C991" s="5"/>
       <c r="D991" s="5"/>
     </row>
-    <row r="992" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="992">
       <c r="C992" s="5"/>
       <c r="D992" s="5"/>
     </row>
-    <row r="993" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="993">
       <c r="C993" s="5"/>
       <c r="D993" s="5"/>
     </row>
-    <row r="994" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="994">
       <c r="C994" s="5"/>
       <c r="D994" s="5"/>
     </row>
-    <row r="995" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="995">
       <c r="C995" s="5"/>
       <c r="D995" s="5"/>
     </row>
-    <row r="996" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="996">
       <c r="C996" s="5"/>
       <c r="D996" s="5"/>
     </row>
-    <row r="997" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="997">
       <c r="C997" s="5"/>
       <c r="D997" s="5"/>
     </row>
-    <row r="998" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="998">
       <c r="C998" s="5"/>
       <c r="D998" s="5"/>
     </row>
-    <row r="999" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="999">
       <c r="C999" s="5"/>
       <c r="D999" s="5"/>
     </row>
-    <row r="1000" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="1000">
       <c r="C1000" s="5"/>
       <c r="D1000" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>